--- a/Codebase_Tracker.xlsx
+++ b/Codebase_Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="214">
   <si>
     <t>Module</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Full system update - requiring new Picker data file to be bound to older rigs</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>r9ie.SOURCE_CONTROL var removed, all source control queries now go via the PROJECT_DATA.source_control() call which manages multiple projects and caches the data for speed</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>Added a new call to r9Core.TimeOffset to allow you to switch the offset value to a 'start at' time by passing in a new arg "start_frm"</t>
   </si>
   <si>
-    <t>The new call also was integrated into the AnimationToolkit</t>
-  </si>
-  <si>
     <t>r9Core</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     <t>Fixed and added in the new start_frm feature</t>
   </si>
   <si>
-    <t>Added a new method for dealing with the load and transfer of FBX data, added new option menu in the Pro_TO_BND UI to switch to the new behaviour.</t>
-  </si>
-  <si>
     <t>AnimationUI</t>
   </si>
   <si>
@@ -442,6 +433,231 @@
   </si>
   <si>
     <t>Red9 StudioPack Codebase Changelog</t>
+  </si>
+  <si>
+    <t>Puppet v1.06 and below</t>
+  </si>
+  <si>
+    <t>MetaClass.attrIsLocked</t>
+  </si>
+  <si>
+    <t>attr flag now also takes a list</t>
+  </si>
+  <si>
+    <t>allows you to check the status of multiple attrs in one go. All attrs must be the same else the return is False</t>
+  </si>
+  <si>
+    <t>bake_rig</t>
+  </si>
+  <si>
+    <t>Added a new method "reference_copy" for dealing with the load and transfer of FBX data, added new option menu in the Pro_TO_BND UI to switch to the new behaviour.</t>
+  </si>
+  <si>
+    <t>Added a new method "connect_hik" for dealing with the load and transfer of FBX data, added new option menu in the Pro_TO_BND UI to switch to the new behaviour.</t>
+  </si>
+  <si>
+    <t>FBX files that aren't skeleton compatable with our BND file can now load vioa the HIK plugs</t>
+  </si>
+  <si>
+    <t>Added new Shot Info handling both in the UI and at the base exportLoop level. This data also propagates via the gatherInfo command so it caught and stored in the r9Anim files also</t>
+  </si>
+  <si>
+    <t>userinfo</t>
+  </si>
+  <si>
+    <t>new property to manage "userinfo" on subclasses</t>
+  </si>
+  <si>
+    <t>This is being used in ProPack to manage and store export and shot data back to the r9Anim systems</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>New Project Manager UI to allow for multiple teams and multiple projects to be switchable, changing the loaded project template and propagating that</t>
+  </si>
+  <si>
+    <t>Allows better control of multiple projects / clients</t>
+  </si>
+  <si>
+    <t>BG images for the cPicker will now try and use the Project resource folder before lookingin the picker dir</t>
+  </si>
+  <si>
+    <t>This means that each clients resources are kept clean and separate!</t>
+  </si>
+  <si>
+    <t>Red9 R9USER License file system and r9Settings have all been moved into the maya prefs dir as we were finding that windows system optimizers would delete the R9PRO folder from the users temp dir. All r9Settings files will now be stored in a single user folder under prefs, seperating them from the build folders</t>
+  </si>
+  <si>
+    <t>RED9_LICENSE_LOCATION=PRO_PREFS , PREFS, BUILD or TEMP  where internally the PRO_PREFS is now default</t>
+  </si>
+  <si>
+    <t>trax_makeclip</t>
+  </si>
+  <si>
+    <t>Added direct bake call into the class which not only allows you to bake the entire rig, but also manages the Red9 Binder system too</t>
+  </si>
+  <si>
+    <t>Added call to create a Trax clip from the given mRig's animation</t>
+  </si>
+  <si>
+    <t>New Project Setup button added to the Maya toolbox</t>
+  </si>
+  <si>
+    <t>Allows better control of multiple projects, shows via an icon what current project is booted and acts as a fast link to the new Project_Manager UI and switch project function</t>
+  </si>
+  <si>
+    <t>BUG: the nameSpace handlers were not returning the correct data, specifically in nested files</t>
+  </si>
+  <si>
+    <t>Fixed as intended</t>
+  </si>
+  <si>
+    <t>nameSpace/nameSpaceFull</t>
+  </si>
+  <si>
+    <t>r9Pose</t>
+  </si>
+  <si>
+    <t>poseCompare</t>
+  </si>
+  <si>
+    <t>Seems like PySide2 has issues with error handling, resulting in the UI freezing on us if a connected signal caused an error. In PySide this would just print ther error out to the script editor, but in 2017 it hands the application!</t>
+  </si>
+  <si>
+    <t>try excpets and error handling added to all the feedback calls to prevent this happening</t>
+  </si>
+  <si>
+    <t>curveModifierContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now takes an additional flags  "processBlanks" that allows us to force the initial undo. </t>
+  </si>
+  <si>
+    <t>The issue is that calls from the likes of QT don't add named commands to the undoStack</t>
+  </si>
+  <si>
+    <t>getBlendTargetsFromMesh</t>
+  </si>
+  <si>
+    <t>Added new flag "indexes" which will include the indexes back in the returned data</t>
+  </si>
+  <si>
+    <t>Useful for debugging blendNodes</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>rig_manager</t>
+  </si>
+  <si>
+    <t>New interface for managing the Red9 Puppet Rigging back-end to a certain degree</t>
+  </si>
+  <si>
+    <t>project_manager</t>
+  </si>
+  <si>
+    <t>New Project Manager interface for better clarity of the back-end ProjectObject data</t>
+  </si>
+  <si>
+    <t>anim_tools</t>
+  </si>
+  <si>
+    <t>New advanced animation curve filter that introduces the Butterworth filter</t>
+  </si>
+  <si>
+    <t>Butterworth filter algorithm is one of the key tools in MotionBuilder for cleaning up dnese baked data so we've bought it into Maya ;)</t>
+  </si>
+  <si>
+    <t>New AnimCurve Filter</t>
+  </si>
+  <si>
+    <t>New Project Manager</t>
+  </si>
+  <si>
+    <t>New Rig Manager</t>
+  </si>
+  <si>
+    <t>blends_target_missing_indexes_test</t>
+  </si>
+  <si>
+    <t>New HealthTest</t>
+  </si>
+  <si>
+    <t>New test to check for blank/deleted targets on a BlendNode and force fix them</t>
+  </si>
+  <si>
+    <t>This is an issue with the FBX output of blendNodes. If you have a blendshape where you've deleted targets then that will cause issues in the fbx output as these empty indexes get removed from the node data but NOT the animation indexes. Causes issues in Unreal</t>
+  </si>
+  <si>
+    <t>dynamic timecode added</t>
+  </si>
+  <si>
+    <t>Timecode has up to now been a single linear time, now we add in support for dynamic, multiple timecode zones in the same scene / rig</t>
+  </si>
+  <si>
+    <t>This allows us to stamp multiple time bounds to a rig (via the RMB SetTimecode Range in the exporter) and have bwavs automatically scan through all of the bounds to find an appropriate one to sync to</t>
+  </si>
+  <si>
+    <t>animtaion_Store/Load UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9Anim format </t>
+  </si>
+  <si>
+    <t>Big optimization and a lot of the core code moved to the API which vastly improved load speeds</t>
+  </si>
+  <si>
+    <t>In our test file a dense baked mocap sequence of 1500 frms went from 45 secs to just 8!</t>
+  </si>
+  <si>
+    <t>The new call also was integrated into the AnimationToolkit under the TimeOffset &gt; Timerange &gt; "ToStart At" checkbox</t>
+  </si>
+  <si>
+    <t>When dealing with mRigs all the hieracrhy checkboxes now process the entire rig, regardless of what controller you have selected</t>
+  </si>
+  <si>
+    <t>This by-passes users having to always select the Main_Ctrl on the rigs when wanting to copyKeys, copyAttrs etc with hierarchy</t>
+  </si>
+  <si>
+    <t>AnimationUI &gt; MetaRigs</t>
+  </si>
+  <si>
+    <t>MirrorHierarchy</t>
+  </si>
+  <si>
+    <t>AnimationUI &gt; Mirror</t>
+  </si>
+  <si>
+    <t>When Mirroring data we now validate that none of the nodes being processed are constrained, if so we throw a warning</t>
+  </si>
+  <si>
+    <t>Constrained nodes don't mirror correctly causing issues in the data that are sometimes hard to debug</t>
+  </si>
+  <si>
+    <t>Return data and Error prints re-organised to make it easier to debug issues</t>
+  </si>
+  <si>
+    <t>New Tool</t>
+  </si>
+  <si>
+    <t>TimeOffset.fromSelected</t>
+  </si>
+  <si>
+    <t>This doubled the offset set when dealing with mRigs</t>
+  </si>
+  <si>
+    <t>When using the mRigs flag AND an active filterSettings node with mRig set internally, the code would processs matching nodes from both filters twice</t>
+  </si>
+  <si>
+    <t>_get_fk_chain</t>
+  </si>
+  <si>
+    <t>On certain systems was returning the fk chain in the incorrect roder</t>
+  </si>
+  <si>
+    <t>This is now patched, fixing issues in some of the fk&gt;ik sytem calls (seen primarily on the Puppet rigs head system)</t>
   </si>
 </sst>
 </file>
@@ -629,7 +845,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,9 +892,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,9 +988,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -822,6 +1032,123 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,40 +1466,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.85546875" style="9"/>
-    <col min="3" max="3" width="19.28515625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="48" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="60.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="62.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="64" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21">
-      <c r="B2" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1"/>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:13" ht="21">
+      <c r="B2" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" customHeight="1"/>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -1181,741 +1510,1169 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" customHeight="1">
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="1:13" ht="45">
+      <c r="B6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36">
+        <v>42780</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" ht="30">
+      <c r="B7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36">
+        <v>42780</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" ht="60">
+      <c r="B8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="36">
+        <v>42705</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" ht="75">
+      <c r="B9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="28">
+        <v>42816</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="C10" s="52"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="B11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="36">
+        <v>42720</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:13" ht="45">
+      <c r="B12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="21">
+        <v>42761</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="L12" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45">
+      <c r="B13" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="75">
+        <v>42797</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="77"/>
+      <c r="L13" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="60">
+      <c r="B14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="21">
+        <v>42839</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:13" ht="30">
+      <c r="B15" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="75">
+        <v>42867</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="77"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="C16" s="52"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:10" ht="45">
+      <c r="B17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="28">
+        <v>42745</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="2:10" ht="45">
+      <c r="B18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="28">
+        <v>42750</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="2:10" ht="60">
+      <c r="B19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="28">
+        <v>42860</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="2:10" ht="30" customHeight="1">
+      <c r="B20"/>
+      <c r="C20" s="53"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="2:10" ht="45">
+      <c r="B21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="66"/>
+    </row>
+    <row r="22" spans="2:10" ht="60">
+      <c r="B22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="28">
+        <v>42724</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="2:10" ht="45">
+      <c r="B23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="28">
+        <v>42802</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="2:10" ht="30" customHeight="1">
+      <c r="C24" s="52"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75">
+      <c r="B25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="28">
+        <v>42720</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="68"/>
+    </row>
+    <row r="26" spans="2:10" ht="30">
+      <c r="B26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="21">
+        <v>42724</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="67"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75">
+      <c r="B27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="28">
+        <v>42726</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="68"/>
+    </row>
+    <row r="28" spans="2:10" ht="30">
+      <c r="B28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="28">
+        <v>42726</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75">
+      <c r="B29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="28">
+        <v>42726</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="68"/>
+    </row>
+    <row r="30" spans="2:10" ht="45">
+      <c r="B30" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="36">
+        <v>42732</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" customHeight="1">
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" ht="45">
-      <c r="B6" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37">
-        <v>42780</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="B7" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37">
-        <v>42780</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" ht="60">
-      <c r="B8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="37">
-        <v>42705</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="C9" s="54"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="B10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="37">
-        <v>42720</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="H30" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="45">
+      <c r="B31" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="28">
+        <v>42755</v>
+      </c>
+      <c r="F31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10" ht="45">
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="22">
-        <v>42761</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="G31" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="68"/>
+    </row>
+    <row r="32" spans="2:10" ht="30">
+      <c r="B32" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="36">
+        <v>42758</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="C12" s="54"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="45">
-      <c r="B13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="29">
-        <v>42745</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" ht="45">
-      <c r="B14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="29">
-        <v>42750</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="B15"/>
-      <c r="C15" s="55"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" ht="45">
-      <c r="B16" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38" t="s">
+      <c r="G32" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="66"/>
+    </row>
+    <row r="33" spans="2:10" ht="75">
+      <c r="B33" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="36">
+        <v>42772</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="66"/>
+    </row>
+    <row r="34" spans="2:10" ht="45">
+      <c r="B34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="28">
+        <v>42795</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="2:10" ht="60">
-      <c r="B17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="29">
-        <v>42724</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1">
-      <c r="C18" s="54"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75">
-      <c r="B19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="53" t="s">
+      <c r="G34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="68"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75">
+      <c r="B35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="29">
-        <v>42720</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="2:10" ht="30">
-      <c r="B20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="51" t="s">
+      <c r="E35" s="28">
+        <v>42816</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="68"/>
+    </row>
+    <row r="36" spans="2:10" ht="30">
+      <c r="B36" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="22">
-        <v>42724</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75">
-      <c r="B21" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="29">
-        <v>42726</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="2:10" ht="30">
-      <c r="B22" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="29">
-        <v>42726</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75">
-      <c r="B23" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="29">
-        <v>42726</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="2:10" ht="45">
-      <c r="B24" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="37">
-        <v>42732</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="45">
-      <c r="B25" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29">
-        <v>42755</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="2:10" ht="30">
-      <c r="B26" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="37">
-        <v>42758</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="2:10" ht="75">
-      <c r="B27" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="37">
-        <v>42772</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="2:10" ht="30" customHeight="1">
-      <c r="C28" s="54"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="2:10" ht="60">
-      <c r="B29" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="22">
-        <v>42734</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="2:10" ht="45">
-      <c r="B30" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="37">
-        <v>42740</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" spans="2:10" ht="45">
-      <c r="B31" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="22">
-        <v>42745</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="2:10" ht="30" customHeight="1">
-      <c r="C32" s="54"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" ht="30">
-      <c r="B33" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="22">
-        <v>42745</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75">
-      <c r="B34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="19">
-        <v>42781</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="2:10" ht="30" customHeight="1">
-      <c r="C35" s="54"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="2:10" ht="45">
-      <c r="B36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="22">
-        <v>42734</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="26"/>
+      <c r="D36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="28">
+        <v>42909</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1">
-      <c r="C37" s="54"/>
+      <c r="C37" s="52"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="2:10" ht="60">
-      <c r="B38" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="57" t="s">
+      <c r="B38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="21">
+        <v>42734</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="67"/>
+    </row>
+    <row r="39" spans="2:10" ht="45">
+      <c r="B39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="36">
+        <v>42740</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="66"/>
+    </row>
+    <row r="40" spans="2:10" ht="45">
+      <c r="B40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="21">
+        <v>42745</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="67"/>
+    </row>
+    <row r="41" spans="2:10" ht="45">
+      <c r="B41" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="81">
+        <v>42811</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="82"/>
+    </row>
+    <row r="42" spans="2:10" ht="45">
+      <c r="B42" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="88">
+        <v>42817</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" s="90"/>
+    </row>
+    <row r="43" spans="2:10" ht="30" customHeight="1">
+      <c r="C43" s="52"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="2:10" ht="30">
+      <c r="B44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="21">
+        <v>42745</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="67"/>
+    </row>
+    <row r="45" spans="2:10" ht="75">
+      <c r="B45" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="75">
+        <v>42860</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="77"/>
+    </row>
+    <row r="46" spans="2:10" ht="30" customHeight="1">
+      <c r="C46" s="52"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="2:10" ht="45">
+      <c r="B47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="21">
+        <v>42734</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="67"/>
+    </row>
+    <row r="48" spans="2:10" ht="30" customHeight="1">
+      <c r="C48" s="52"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="2:10" ht="60">
+      <c r="B49" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="45">
+      <c r="D49" s="33"/>
+      <c r="E49" s="44">
         <v>42709</v>
       </c>
-      <c r="F38" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48" t="s">
+      <c r="F49" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I49" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="45">
-      <c r="B39" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="51" t="s">
+      <c r="J49" s="70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="45">
+      <c r="B50" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22">
-        <v>42383</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="25" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="21">
+        <v>42749</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="26"/>
+      <c r="I50" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="67"/>
+    </row>
+    <row r="51" spans="2:10" ht="30">
+      <c r="B51" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36">
+        <v>42809</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" s="66"/>
+    </row>
+    <row r="53" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="18">
+        <v>42781</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="69"/>
+    </row>
+    <row r="54" spans="2:10" ht="30">
+      <c r="B54" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="44">
+        <v>42468</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="I54" s="47"/>
+      <c r="J54" s="70"/>
+    </row>
+    <row r="55" spans="2:10" ht="30">
+      <c r="B55" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="44">
+        <v>42451</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="47"/>
+      <c r="J55" s="70"/>
+    </row>
+    <row r="56" spans="2:10" ht="45">
+      <c r="B56" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="44">
+        <v>42488</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1928,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1941,409 +2698,660 @@
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
     <col min="8" max="8" width="55.42578125" customWidth="1"/>
     <col min="9" max="9" width="62.140625" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21">
-      <c r="B2" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="4" spans="2:10" s="8" customFormat="1">
+    <row r="2" spans="2:13" ht="21">
+      <c r="B2" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+    </row>
+    <row r="4" spans="2:13" s="8" customFormat="1">
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="9"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="45">
-      <c r="B6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="51" t="s">
+    <row r="6" spans="2:13" ht="45">
+      <c r="B6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>42633</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="L6" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="45">
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21">
+        <v>42633</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="L7" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="60">
+      <c r="B8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="36">
+        <v>42745</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="2:13" ht="30" customHeight="1"/>
+    <row r="10" spans="2:13" ht="60">
+      <c r="B10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="21">
+        <v>42633</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="2:13" ht="45">
+      <c r="B11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="28">
+        <v>42761</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="2:13" ht="30">
+      <c r="B12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="36">
+        <v>42853</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="2:13" ht="45">
+      <c r="B13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="28">
+        <v>42880</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="2:13" ht="45">
+      <c r="B14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="36">
+        <v>42885</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="2:13" ht="30" customHeight="1"/>
+    <row r="16" spans="2:13" ht="45">
+      <c r="B16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="21">
+        <v>42761</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="2:10" ht="30">
+      <c r="B17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="21">
+        <v>42769</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="2:10" ht="45">
-      <c r="B7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="22">
-        <v>42633</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="2:10" ht="60">
-      <c r="B8" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="37">
+      <c r="I17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="2:10" ht="30">
+      <c r="B18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="59">
+        <v>42853</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="2:10" ht="45">
+      <c r="B19" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="21">
+        <v>42898</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="2:10" ht="30" customHeight="1"/>
+    <row r="21" spans="2:10" ht="60">
+      <c r="B21" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="59">
+        <v>42741</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="2:10" ht="45">
+      <c r="B22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="21">
         <v>42745</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="2:10" ht="30">
+      <c r="B23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28">
+        <v>42745</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1"/>
-    <row r="10" spans="2:10" ht="60">
-      <c r="B10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="22">
-        <v>42633</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="2:10" ht="45">
-      <c r="B11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="29">
-        <v>42761</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" customHeight="1"/>
-    <row r="13" spans="2:10" ht="45">
-      <c r="B13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="22">
-        <v>42761</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="25" t="s">
+      <c r="G23" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="2:10" ht="30">
+      <c r="B24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28">
+        <v>42793</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="2:10" ht="30">
+      <c r="B25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28">
+        <v>42802</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="2:10" ht="30">
+      <c r="B26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="21">
+        <v>42839</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="2:10" ht="30">
-      <c r="B14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="22">
-        <v>42769</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" customHeight="1"/>
-    <row r="16" spans="2:10" ht="60">
-      <c r="B16" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="61">
-        <v>42741</v>
-      </c>
-      <c r="F16" s="38" t="s">
+      <c r="G26" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:10" ht="30" customHeight="1"/>
+    <row r="28" spans="2:10" ht="38.25" customHeight="1">
+      <c r="B28" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92">
+        <v>42826</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+    </row>
+    <row r="29" spans="2:10" ht="30" customHeight="1"/>
+    <row r="30" spans="2:10" ht="45">
+      <c r="B30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="28">
+        <v>42750</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="2:10" ht="45">
-      <c r="B17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="22">
-        <v>42745</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="2:10" ht="30">
-      <c r="B18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29">
-        <v>42745</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1"/>
-    <row r="20" spans="2:10" ht="45">
-      <c r="B20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="53" t="s">
+      <c r="G30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="2:10" ht="60">
+      <c r="B31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="28">
+        <v>42750</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="H31" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="2:10" ht="30">
+      <c r="B32" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E32" s="28">
         <v>42750</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="2:10" ht="60">
-      <c r="B21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="29">
-        <v>42750</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="2:10" ht="30">
-      <c r="B22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="F32" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="29">
-        <v>42750</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="31" t="s">
+      <c r="H32" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="I32" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="33"/>
+      <c r="J32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Codebase_Tracker.xlsx
+++ b/Codebase_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProPack" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="227">
   <si>
     <t>Module</t>
   </si>
@@ -658,6 +658,45 @@
   </si>
   <si>
     <t>This is now patched, fixing issues in some of the fk&gt;ik sytem calls (seen primarily on the Puppet rigs head system)</t>
+  </si>
+  <si>
+    <t>parallel support</t>
+  </si>
+  <si>
+    <t>playback_performance, parallel_eval_freeze, parallel_eval_unfreeze_all</t>
+  </si>
+  <si>
+    <t>wrap over the eval Manager 'frozen' node state to stop node evaluating in parallel mode and added performance tester</t>
+  </si>
+  <si>
+    <t>Used to speed up rigs under certain cases and performance test</t>
+  </si>
+  <si>
+    <t>Maya Units</t>
+  </si>
+  <si>
+    <t>The API load code wasn't dealing with unit conversion so units in meters were being loaded in centimeters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel_eval_mute/reset </t>
+  </si>
+  <si>
+    <t>new management for parallel eval optimisations</t>
+  </si>
+  <si>
+    <t>This sets the frozen attr state on all nodes returned by the parallel_eval_get_nodes fun, designed to be overloaded as needed.</t>
+  </si>
+  <si>
+    <t>Handling added for all unikt conversions, this uses the sceneUnits stored in the file to convert all linear units.</t>
+  </si>
+  <si>
+    <t>DataMap</t>
+  </si>
+  <si>
+    <t>The  load code wasn't dealing with unit conversion, if a pose had been saved in a scene when it was centimeters, buth the scene units had been changed then the pose would fail to load correctly</t>
+  </si>
+  <si>
+    <t>Handling added for all unit conversions, this uses the sceneUnits stored in the file to convert all linear units.</t>
   </si>
 </sst>
 </file>
@@ -845,7 +884,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,6 +1188,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1466,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M56"/>
+  <dimension ref="A2:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1479,7 +1533,7 @@
     <col min="4" max="4" width="20.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="60.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="62.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="17" style="64" customWidth="1"/>
@@ -1488,17 +1542,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1"/>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -1739,8 +1793,8 @@
       <c r="C14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>94</v>
+      <c r="D14" s="101" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="21">
         <v>42839</v>
@@ -1766,8 +1820,8 @@
       <c r="C15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="74" t="s">
-        <v>94</v>
+      <c r="D15" s="87" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="75">
         <v>42867</v>
@@ -1786,63 +1840,67 @@
       </c>
       <c r="J15" s="77"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
-      <c r="C16" s="52"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="2:10" ht="45">
-      <c r="B17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="28">
-        <v>42745</v>
-      </c>
-      <c r="F17" s="29" t="s">
+    <row r="16" spans="1:13" ht="45">
+      <c r="B16" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="75">
+        <v>42983</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="2:10" ht="45">
-      <c r="B18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="28">
-        <v>42750</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="2:10" ht="60">
+      <c r="G16" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16" s="77"/>
+    </row>
+    <row r="17" spans="2:10" ht="30">
+      <c r="B17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="21">
+        <v>42996</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" customHeight="1">
+      <c r="C18" s="52"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" ht="45">
       <c r="B19" s="26" t="s">
         <v>16</v>
       </c>
@@ -1850,160 +1908,160 @@
         <v>61</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E19" s="28">
-        <v>42860</v>
+        <v>42745</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="2:10" ht="45">
+      <c r="B20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="28">
+        <v>42750</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="2:10" ht="60">
+      <c r="B21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="28">
+        <v>42860</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H21" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I21" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1">
-      <c r="B20"/>
-      <c r="C20" s="53"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="2:10" ht="45">
-      <c r="B21" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="50" t="s">
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="2:10" ht="30" customHeight="1">
+      <c r="B22"/>
+      <c r="C22" s="53"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="23" spans="2:10" ht="45">
+      <c r="B23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D23" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="38" t="s">
+      <c r="G23" s="35"/>
+      <c r="H23" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="66"/>
-    </row>
-    <row r="22" spans="2:10" ht="60">
-      <c r="B22" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="51" t="s">
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="2:10" ht="60">
+      <c r="B24" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D24" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E24" s="28">
         <v>42724</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="2:10" ht="45">
-      <c r="B23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="51" t="s">
+      <c r="I24" s="27"/>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="2:10" ht="45">
+      <c r="B25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E25" s="28">
         <v>42802</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="68"/>
-    </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1">
-      <c r="C24" s="52"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75">
-      <c r="B25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="28">
-        <v>42720</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="G25" s="30"/>
       <c r="H25" s="31" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="68"/>
     </row>
-    <row r="26" spans="2:10" ht="30">
-      <c r="B26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="21">
-        <v>42724</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="67"/>
+    <row r="26" spans="2:10" ht="30" customHeight="1">
+      <c r="C26" s="52"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:10" ht="15.75">
       <c r="B27" s="26" t="s">
@@ -2013,51 +2071,47 @@
         <v>17</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="28">
-        <v>42726</v>
+        <v>42720</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="68"/>
     </row>
     <row r="28" spans="2:10" ht="30">
-      <c r="B28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="51" t="s">
+      <c r="B28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="28">
-        <v>42726</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>139</v>
-      </c>
+      <c r="D28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="21">
+        <v>42724</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" spans="2:10" ht="15.75">
       <c r="B29" s="26" t="s">
@@ -2079,41 +2133,41 @@
         <v>48</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="68"/>
     </row>
-    <row r="30" spans="2:10" ht="45">
-      <c r="B30" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="50" t="s">
+    <row r="30" spans="2:10" ht="30">
+      <c r="B30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="36">
-        <v>42732</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="66" t="s">
+      <c r="D30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="28">
+        <v>42726</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="68" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="45">
+    <row r="31" spans="2:10" ht="15.75">
       <c r="B31" s="26" t="s">
         <v>16</v>
       </c>
@@ -2121,24 +2175,24 @@
         <v>17</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="28">
-        <v>42755</v>
+        <v>42726</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="31"/>
+        <v>78</v>
+      </c>
+      <c r="I31" s="27"/>
       <c r="J31" s="68"/>
     </row>
-    <row r="32" spans="2:10" ht="30">
+    <row r="32" spans="2:10" ht="45">
       <c r="B32" s="34" t="s">
         <v>16</v>
       </c>
@@ -2146,101 +2200,105 @@
         <v>17</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="36">
-        <v>42758</v>
+        <v>42732</v>
       </c>
       <c r="F32" s="37" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="45">
+      <c r="B33" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="28">
+        <v>42755</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="68"/>
+    </row>
+    <row r="34" spans="2:10" ht="30">
+      <c r="B34" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="36">
+        <v>42758</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H34" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="66"/>
-    </row>
-    <row r="33" spans="2:10" ht="75">
-      <c r="B33" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="50" t="s">
+      <c r="I34" s="38"/>
+      <c r="J34" s="66"/>
+    </row>
+    <row r="35" spans="2:10" ht="75">
+      <c r="B35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D35" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E35" s="36">
         <v>42772</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F35" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G35" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H35" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I35" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="66"/>
-    </row>
-    <row r="34" spans="2:10" ht="45">
-      <c r="B34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="28">
-        <v>42795</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="68"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.75">
-      <c r="B35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="28">
-        <v>42816</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="68"/>
-    </row>
-    <row r="36" spans="2:10" ht="30">
+      <c r="J35" s="66"/>
+    </row>
+    <row r="36" spans="2:10" ht="45">
       <c r="B36" s="26" t="s">
         <v>16</v>
       </c>
@@ -2251,220 +2309,237 @@
         <v>41</v>
       </c>
       <c r="E36" s="28">
+        <v>42795</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="68"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.75">
+      <c r="B37" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="28">
+        <v>42816</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="68"/>
+    </row>
+    <row r="38" spans="2:10" ht="30">
+      <c r="B38" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="104">
         <v>42909</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F38" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G38" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H38" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I38" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="J36" s="68"/>
-    </row>
-    <row r="37" spans="2:10" ht="30" customHeight="1">
-      <c r="C37" s="52"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="2:10" ht="60">
-      <c r="B38" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="49" t="s">
+      <c r="J38" s="105"/>
+    </row>
+    <row r="39" spans="2:10" ht="45">
+      <c r="B39" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="28">
+        <v>42993</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J39" s="68"/>
+    </row>
+    <row r="40" spans="2:10" ht="30" customHeight="1">
+      <c r="C40" s="52"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="2:10" ht="60">
+      <c r="B41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D41" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E41" s="21">
         <v>42734</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F41" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H41" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I41" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J38" s="67"/>
-    </row>
-    <row r="39" spans="2:10" ht="45">
-      <c r="B39" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="50" t="s">
+      <c r="J41" s="67"/>
+    </row>
+    <row r="42" spans="2:10" ht="45">
+      <c r="B42" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E42" s="36">
         <v>42740</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F42" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H42" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="66"/>
-    </row>
-    <row r="40" spans="2:10" ht="45">
-      <c r="B40" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="49" t="s">
+      <c r="I42" s="35"/>
+      <c r="J42" s="66"/>
+    </row>
+    <row r="43" spans="2:10" ht="45">
+      <c r="B43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E43" s="21">
         <v>42745</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F43" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G43" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H43" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="67"/>
-    </row>
-    <row r="41" spans="2:10" ht="45">
-      <c r="B41" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="80" t="s">
+      <c r="J43" s="67"/>
+    </row>
+    <row r="44" spans="2:10" ht="45">
+      <c r="B44" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D44" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E44" s="81">
         <v>42811</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G44" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="84" t="s">
+      <c r="H44" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="83" t="s">
+      <c r="I44" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="82"/>
-    </row>
-    <row r="42" spans="2:10" ht="45">
-      <c r="B42" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="73" t="s">
+      <c r="J44" s="82"/>
+    </row>
+    <row r="45" spans="2:10" ht="45">
+      <c r="B45" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="D45" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E45" s="88">
         <v>42817</v>
       </c>
-      <c r="F42" s="89" t="s">
+      <c r="F45" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G45" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H45" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="78" t="s">
+      <c r="I45" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="J42" s="90"/>
-    </row>
-    <row r="43" spans="2:10" ht="30" customHeight="1">
-      <c r="C43" s="52"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="2:10" ht="30">
-      <c r="B44" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="21">
-        <v>42745</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="67"/>
-    </row>
-    <row r="45" spans="2:10" ht="75">
-      <c r="B45" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="75">
-        <v>42860</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="I45" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="J45" s="77"/>
+      <c r="J45" s="90"/>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1">
       <c r="C46" s="52"/>
@@ -2472,207 +2547,267 @@
       <c r="G46" s="7"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="2:10" ht="45">
+    <row r="47" spans="2:10" ht="30">
       <c r="B47" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E47" s="21">
-        <v>42734</v>
+        <v>42745</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="23"/>
+      <c r="G47" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="H47" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="J47" s="67"/>
     </row>
-    <row r="48" spans="2:10" ht="30" customHeight="1">
-      <c r="C48" s="52"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="2:10" ht="60">
-      <c r="B49" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="44">
-        <v>42709</v>
-      </c>
-      <c r="F49" s="45" t="s">
+    <row r="48" spans="2:10" ht="75">
+      <c r="B48" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="75">
+        <v>42860</v>
+      </c>
+      <c r="F48" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="70" t="s">
-        <v>139</v>
-      </c>
+      <c r="G48" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48" s="77"/>
+    </row>
+    <row r="49" spans="2:10" ht="30" customHeight="1">
+      <c r="C49" s="52"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="2:10" ht="45">
       <c r="B50" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E50" s="21">
-        <v>42749</v>
+        <v>42734</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="20"/>
+      <c r="G50" s="23"/>
       <c r="H50" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="20"/>
+      <c r="J50" s="67"/>
+    </row>
+    <row r="51" spans="2:10" ht="30" customHeight="1">
+      <c r="C51" s="52"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="2:10" ht="60">
+      <c r="B52" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="44">
+        <v>42709</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="46"/>
+      <c r="H52" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="45">
+      <c r="B53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21">
+        <v>42749</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I53" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J50" s="67"/>
-    </row>
-    <row r="51" spans="2:10" ht="30">
-      <c r="B51" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="50" t="s">
+      <c r="J53" s="67"/>
+    </row>
+    <row r="54" spans="2:10" ht="30">
+      <c r="B54" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="36">
+      <c r="D54" s="35"/>
+      <c r="E54" s="36">
         <v>42809</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F54" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="38" t="s">
+      <c r="G54" s="40"/>
+      <c r="H54" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I51" s="38" t="s">
+      <c r="I54" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="J51" s="66"/>
-    </row>
-    <row r="53" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B53" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="54" t="s">
+      <c r="J54" s="66"/>
+    </row>
+    <row r="56" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E56" s="18">
         <v>42781</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G56" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H56" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="69"/>
-    </row>
-    <row r="54" spans="2:10" ht="30">
-      <c r="B54" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="55" t="s">
+      <c r="I56" s="14"/>
+      <c r="J56" s="69"/>
+    </row>
+    <row r="57" spans="2:10" ht="30">
+      <c r="B57" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D57" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E57" s="44">
         <v>42468</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F57" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="G57" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H54" s="47" t="s">
+      <c r="H57" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="I54" s="47"/>
-      <c r="J54" s="70"/>
-    </row>
-    <row r="55" spans="2:10" ht="30">
-      <c r="B55" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="55" t="s">
+      <c r="I57" s="47"/>
+      <c r="J57" s="70"/>
+    </row>
+    <row r="58" spans="2:10" ht="30">
+      <c r="B58" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D58" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E58" s="44">
         <v>42451</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F58" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G58" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="H55" s="47" t="s">
+      <c r="H58" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I55" s="47"/>
-      <c r="J55" s="70"/>
-    </row>
-    <row r="56" spans="2:10" ht="45">
-      <c r="B56" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="55" t="s">
+      <c r="I58" s="47"/>
+      <c r="J58" s="70"/>
+    </row>
+    <row r="59" spans="2:10" ht="45">
+      <c r="B59" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D59" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="44">
+      <c r="E59" s="44">
         <v>42488</v>
       </c>
-      <c r="F56" s="45" t="s">
+      <c r="F59" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G56" s="46" t="s">
+      <c r="G59" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H59" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="47" t="s">
+      <c r="I59" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="70"/>
+      <c r="J59" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2685,10 +2820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M32"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,17 +2842,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="4" spans="2:13" s="8" customFormat="1">
       <c r="B4" s="3" t="s">
@@ -3266,33 +3401,35 @@
       <c r="I28" s="92"/>
       <c r="J28" s="92"/>
     </row>
-    <row r="29" spans="2:10" ht="30" customHeight="1"/>
-    <row r="30" spans="2:10" ht="45">
-      <c r="B30" s="26" t="s">
+    <row r="29" spans="2:10" ht="60">
+      <c r="B29" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="28">
-        <v>42750</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="2:10" ht="60">
+      <c r="C29" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="21">
+        <v>42996</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" s="67"/>
+    </row>
+    <row r="30" spans="2:10" ht="30" customHeight="1"/>
+    <row r="31" spans="2:10" ht="45">
       <c r="B31" s="26" t="s">
         <v>37</v>
       </c>
@@ -3308,18 +3445,16 @@
       <c r="F31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>82</v>
+      <c r="G31" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>80</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I31" s="31"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="2:10" ht="30">
+    <row r="32" spans="2:10" ht="60">
       <c r="B32" s="26" t="s">
         <v>37</v>
       </c>
@@ -3327,7 +3462,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="28">
         <v>42750</v>
@@ -3336,15 +3471,42 @@
         <v>98</v>
       </c>
       <c r="G32" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="32"/>
+    </row>
+    <row r="33" spans="2:10" ht="30">
+      <c r="B33" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="28">
+        <v>42750</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H33" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I33" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J32" s="32"/>
+      <c r="J33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Codebase_Tracker.xlsx
+++ b/Codebase_Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="256">
   <si>
     <t>Module</t>
   </si>
@@ -697,6 +697,93 @@
   </si>
   <si>
     <t>Handling added for all unit conversions, this uses the sceneUnits stored in the file to convert all linear units.</t>
+  </si>
+  <si>
+    <t>added tangent management to the Butterworth filter</t>
+  </si>
+  <si>
+    <t>Butterworth filter code now allows you to set the tangent type used in the UI</t>
+  </si>
+  <si>
+    <t>Insert / Merge</t>
+  </si>
+  <si>
+    <t>Added support for PasteKey methods</t>
+  </si>
+  <si>
+    <t>Now allows you to either "insert" or "merge" the new keys being loaded into the nodes current animCurve data</t>
+  </si>
+  <si>
+    <t>Added Settings Button</t>
+  </si>
+  <si>
+    <t>r9Anim / ReDirector</t>
+  </si>
+  <si>
+    <t>Added settings button to both the AnimSaver and Anim ReDirector Uis that now opens up the Hierarchy Tab in the AnimToolkit</t>
+  </si>
+  <si>
+    <t>This should make it more obvious that the presets are all tied together</t>
+  </si>
+  <si>
+    <t>World Co-ordinates</t>
+  </si>
+  <si>
+    <t>The Pose now includes world space data from the API</t>
+  </si>
+  <si>
+    <t>This will eventually be rolled into the loader also so that data can be loaded in World-Space directly</t>
+  </si>
+  <si>
+    <t>Incorrect global tangent types</t>
+  </si>
+  <si>
+    <t>The code has always used the OpenMayaAnim.MFnAnimCurve.kTangentGlobal when first setting up the tangents, this causes issues if not set to auto or spline due to some of the internal optimizations</t>
+  </si>
+  <si>
+    <t>Loader now uses "auto" as the default tangent type and works from there. This is only a LOAD bug, doesn't affect the save call or any current data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoseData </t>
+  </si>
+  <si>
+    <t>PoseBlend</t>
+  </si>
+  <si>
+    <t>The PoseBlender UI was failing to deal with the floatSlider at zero, causing issues blending back to the original pose</t>
+  </si>
+  <si>
+    <t>Now handled correctly</t>
+  </si>
+  <si>
+    <t>fingerMirrorID_posehandler</t>
+  </si>
+  <si>
+    <t>The custom filngerMirrorID_poseHandler was failing to handle selection, always forcing the finger load to the whole system</t>
+  </si>
+  <si>
+    <t>Now handled correctly and UI call now handled in a new class in the Pose module</t>
+  </si>
+  <si>
+    <t>Tangent management</t>
+  </si>
+  <si>
+    <t>Simple Mode in r9Anim</t>
+  </si>
+  <si>
+    <t>Simple mode now added to the AnimationStore</t>
+  </si>
+  <si>
+    <t>switches to base hierarchy mode to make it easier to handle simple hierarchy node structures</t>
+  </si>
+  <si>
+    <t>float3 handling</t>
+  </si>
+  <si>
+    <t>BUG: mNode.addAttr(attrType='float3')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float3 handling in the addAttr was failing </t>
   </si>
 </sst>
 </file>
@@ -884,7 +971,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,6 +1290,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1520,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M59"/>
+  <dimension ref="A2:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1533,7 +1623,7 @@
     <col min="4" max="4" width="20.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="60.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="62.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="17" style="64" customWidth="1"/>
@@ -1542,17 +1632,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1"/>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -1894,251 +1984,257 @@
       </c>
       <c r="J17" s="67"/>
     </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1">
-      <c r="C18" s="52"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
+    <row r="18" spans="2:10" ht="30">
+      <c r="B18" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="75">
+        <v>43013</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="77"/>
     </row>
     <row r="19" spans="2:10" ht="45">
-      <c r="B19" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="28">
-        <v>42745</v>
+      <c r="B19" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="75">
+        <v>43023</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="s">
+      <c r="G19" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="77"/>
+    </row>
+    <row r="20" spans="2:10" ht="60">
+      <c r="B20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="21">
+        <v>43038</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" customHeight="1">
+      <c r="C21" s="52"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" ht="45">
+      <c r="B22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="28">
+        <v>42745</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="2:10" ht="45">
-      <c r="B20" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="51" t="s">
+      <c r="I22" s="27"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="2:10" ht="45">
+      <c r="B23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D23" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E23" s="28">
         <v>42750</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G23" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H23" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I23" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="2:10" ht="60">
-      <c r="B21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="28">
-        <v>42860</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="2:10" ht="30" customHeight="1">
-      <c r="B22"/>
-      <c r="C22" s="53"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="2:10" ht="45">
-      <c r="B23" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="66"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="2:10" ht="60">
       <c r="B24" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E24" s="28">
-        <v>42724</v>
+        <v>42860</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>191</v>
+      </c>
       <c r="H24" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="27"/>
+        <v>192</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>193</v>
+      </c>
       <c r="J24" s="68"/>
     </row>
-    <row r="25" spans="2:10" ht="45">
-      <c r="B25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="51" t="s">
+    <row r="25" spans="2:10" ht="30" customHeight="1">
+      <c r="B25"/>
+      <c r="C25" s="53"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="2:10" ht="45">
+      <c r="B26" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D26" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="66"/>
+    </row>
+    <row r="27" spans="2:10" ht="60">
+      <c r="B27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="28">
-        <v>42802</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="68"/>
-    </row>
-    <row r="26" spans="2:10" ht="30" customHeight="1">
-      <c r="C26" s="52"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75">
-      <c r="B27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>40</v>
-      </c>
       <c r="E27" s="28">
-        <v>42720</v>
+        <v>42724</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="G27" s="30"/>
       <c r="H27" s="31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="68"/>
     </row>
-    <row r="28" spans="2:10" ht="30">
-      <c r="B28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="21">
-        <v>42724</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="67"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75">
-      <c r="B29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="28">
-        <v>42726</v>
-      </c>
-      <c r="F29" s="29" t="s">
+    <row r="28" spans="2:10" ht="45">
+      <c r="B28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="28">
+        <v>42802</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="68"/>
-    </row>
-    <row r="30" spans="2:10" ht="30">
+      <c r="G28" s="30"/>
+      <c r="H28" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="68"/>
+    </row>
+    <row r="29" spans="2:10" ht="30" customHeight="1">
+      <c r="C29" s="52"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75">
       <c r="B30" s="26" t="s">
         <v>16</v>
       </c>
@@ -2146,82 +2242,74 @@
         <v>17</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="28">
-        <v>42726</v>
+        <v>42720</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G30" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="68"/>
+    </row>
+    <row r="31" spans="2:10" ht="30">
+      <c r="B31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="21">
+        <v>42724</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="67"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75">
+      <c r="B32" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="28">
+        <v>42726</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15.75">
-      <c r="B31" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="28">
-        <v>42726</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="68"/>
-    </row>
-    <row r="32" spans="2:10" ht="45">
-      <c r="B32" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="36">
-        <v>42732</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="45">
+      <c r="H32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="68"/>
+    </row>
+    <row r="33" spans="2:10" ht="30">
       <c r="B33" s="26" t="s">
         <v>16</v>
       </c>
@@ -2229,49 +2317,53 @@
         <v>17</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="28">
-        <v>42755</v>
+        <v>42726</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="68"/>
-    </row>
-    <row r="34" spans="2:10" ht="30">
-      <c r="B34" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75">
+      <c r="B34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="36">
-        <v>42758</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="38"/>
-      <c r="J34" s="66"/>
-    </row>
-    <row r="35" spans="2:10" ht="75">
+      <c r="E34" s="28">
+        <v>42726</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="68"/>
+    </row>
+    <row r="35" spans="2:10" ht="45">
       <c r="B35" s="34" t="s">
         <v>16</v>
       </c>
@@ -2279,24 +2371,26 @@
         <v>17</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E35" s="36">
-        <v>42772</v>
+        <v>42732</v>
       </c>
       <c r="F35" s="37" t="s">
         <v>97</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="J35" s="66"/>
+        <v>45</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="36" spans="2:10" ht="45">
       <c r="B36" s="26" t="s">
@@ -2309,71 +2403,71 @@
         <v>41</v>
       </c>
       <c r="E36" s="28">
-        <v>42795</v>
+        <v>42755</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="68"/>
     </row>
-    <row r="37" spans="2:10" ht="15.75">
-      <c r="B37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="51" t="s">
+    <row r="37" spans="2:10" ht="30">
+      <c r="B37" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="28">
-        <v>42816</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="68"/>
-    </row>
-    <row r="38" spans="2:10" ht="30">
-      <c r="B38" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="49" t="s">
+      <c r="D37" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="36">
+        <v>42758</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="66"/>
+    </row>
+    <row r="38" spans="2:10" ht="75">
+      <c r="B38" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="104">
-        <v>42909</v>
-      </c>
-      <c r="F38" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="91" t="s">
-        <v>211</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" s="105"/>
+      <c r="D38" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="36">
+        <v>42772</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="2:10" ht="45">
       <c r="B39" s="26" t="s">
@@ -2386,220 +2480,237 @@
         <v>41</v>
       </c>
       <c r="E39" s="28">
-        <v>42993</v>
+        <v>42795</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="68"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75">
+      <c r="B40" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="28">
+        <v>42816</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="68"/>
+    </row>
+    <row r="41" spans="2:10" ht="30">
+      <c r="B41" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="104">
+        <v>42909</v>
+      </c>
+      <c r="F41" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="105"/>
+    </row>
+    <row r="42" spans="2:10" ht="45">
+      <c r="B42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="28">
+        <v>42993</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H42" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I42" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="J39" s="68"/>
-    </row>
-    <row r="40" spans="2:10" ht="30" customHeight="1">
-      <c r="C40" s="52"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="2:10" ht="60">
-      <c r="B41" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="49" t="s">
+      <c r="J42" s="68"/>
+    </row>
+    <row r="43" spans="2:10" ht="30" customHeight="1">
+      <c r="C43" s="52"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="2:10" ht="60">
+      <c r="B44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E44" s="21">
         <v>42734</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F44" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G44" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I44" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J41" s="67"/>
-    </row>
-    <row r="42" spans="2:10" ht="45">
-      <c r="B42" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="50" t="s">
+      <c r="J44" s="67"/>
+    </row>
+    <row r="45" spans="2:10" ht="45">
+      <c r="B45" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D45" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E45" s="36">
         <v>42740</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F45" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G45" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="38" t="s">
+      <c r="H45" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="66"/>
-    </row>
-    <row r="43" spans="2:10" ht="45">
-      <c r="B43" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="49" t="s">
+      <c r="I45" s="35"/>
+      <c r="J45" s="66"/>
+    </row>
+    <row r="46" spans="2:10" ht="45">
+      <c r="B46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D46" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E46" s="21">
         <v>42745</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F46" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G46" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H46" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J43" s="67"/>
-    </row>
-    <row r="44" spans="2:10" ht="45">
-      <c r="B44" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="80" t="s">
+      <c r="J46" s="67"/>
+    </row>
+    <row r="47" spans="2:10" ht="45">
+      <c r="B47" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D47" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E47" s="81">
         <v>42811</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G47" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="84" t="s">
+      <c r="H47" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="83" t="s">
+      <c r="I47" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="82"/>
-    </row>
-    <row r="45" spans="2:10" ht="45">
-      <c r="B45" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="73" t="s">
+      <c r="J47" s="82"/>
+    </row>
+    <row r="48" spans="2:10" ht="45">
+      <c r="B48" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D48" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E48" s="88">
         <v>42817</v>
       </c>
-      <c r="F45" s="89" t="s">
+      <c r="F48" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G48" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H48" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="I45" s="78" t="s">
+      <c r="I48" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="J45" s="90"/>
-    </row>
-    <row r="46" spans="2:10" ht="30" customHeight="1">
-      <c r="C46" s="52"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" ht="30">
-      <c r="B47" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="21">
-        <v>42745</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="67"/>
-    </row>
-    <row r="48" spans="2:10" ht="75">
-      <c r="B48" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="75">
-        <v>42860</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="I48" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="J48" s="77"/>
+      <c r="J48" s="90"/>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1">
       <c r="C49" s="52"/>
@@ -2607,207 +2718,321 @@
       <c r="G49" s="7"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="2:10" ht="45">
+    <row r="50" spans="2:10" ht="30">
       <c r="B50" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E50" s="21">
-        <v>42734</v>
+        <v>42745</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="23"/>
+      <c r="G50" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="H50" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="J50" s="67"/>
     </row>
-    <row r="51" spans="2:10" ht="30" customHeight="1">
-      <c r="C51" s="52"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="2:10" ht="60">
-      <c r="B52" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="44">
-        <v>42709</v>
-      </c>
-      <c r="F52" s="45" t="s">
+    <row r="51" spans="2:10" ht="75">
+      <c r="B51" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="75">
+        <v>42860</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="46"/>
-      <c r="H52" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="70" t="s">
-        <v>139</v>
-      </c>
+      <c r="G51" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" s="77"/>
+    </row>
+    <row r="52" spans="2:10" ht="30" customHeight="1">
+      <c r="C52" s="52"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="2:10" ht="45">
       <c r="B53" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E53" s="21">
-        <v>42749</v>
+        <v>42734</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="20"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="67"/>
+    </row>
+    <row r="54" spans="2:10" ht="30" customHeight="1">
+      <c r="C54" s="52"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="2:10" ht="60">
+      <c r="B55" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="44">
+        <v>42709</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="45">
+      <c r="B56" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21">
+        <v>42749</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I56" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J53" s="67"/>
-    </row>
-    <row r="54" spans="2:10" ht="30">
-      <c r="B54" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="50" t="s">
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="2:10" ht="30">
+      <c r="B57" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36">
+      <c r="D57" s="35"/>
+      <c r="E57" s="36">
         <v>42809</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F57" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="38" t="s">
+      <c r="G57" s="40"/>
+      <c r="H57" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I54" s="38" t="s">
+      <c r="I57" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="J54" s="66"/>
-    </row>
-    <row r="56" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B56" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="54" t="s">
+      <c r="J57" s="66"/>
+    </row>
+    <row r="59" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E59" s="18">
         <v>42781</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F59" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G59" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="69"/>
-    </row>
-    <row r="57" spans="2:10" ht="30">
-      <c r="B57" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="55" t="s">
+      <c r="I59" s="14"/>
+      <c r="J59" s="69"/>
+    </row>
+    <row r="60" spans="2:10" ht="30">
+      <c r="B60" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D60" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E60" s="44">
         <v>42468</v>
       </c>
-      <c r="F57" s="45" t="s">
+      <c r="F60" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G60" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H57" s="47" t="s">
+      <c r="H60" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="I57" s="47"/>
-      <c r="J57" s="70"/>
-    </row>
-    <row r="58" spans="2:10" ht="30">
-      <c r="B58" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="55" t="s">
+      <c r="I60" s="47"/>
+      <c r="J60" s="70"/>
+    </row>
+    <row r="61" spans="2:10" ht="30">
+      <c r="B61" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D61" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E61" s="44">
         <v>42451</v>
       </c>
-      <c r="F58" s="45" t="s">
+      <c r="F61" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="G61" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="H58" s="47" t="s">
+      <c r="H61" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I58" s="47"/>
-      <c r="J58" s="70"/>
-    </row>
-    <row r="59" spans="2:10" ht="45">
-      <c r="B59" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="55" t="s">
+      <c r="I61" s="47"/>
+      <c r="J61" s="70"/>
+    </row>
+    <row r="62" spans="2:10" ht="45">
+      <c r="B62" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D62" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E62" s="44">
         <v>42488</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F62" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="G62" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="H59" s="47" t="s">
+      <c r="H62" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I62" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="J59" s="70"/>
+      <c r="J62" s="70"/>
+    </row>
+    <row r="63" spans="2:10" ht="30">
+      <c r="B63" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="28">
+        <v>43013</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J63" s="68"/>
+    </row>
+    <row r="64" spans="2:10" ht="30">
+      <c r="B64" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="28">
+        <v>43047</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J64" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2820,20 +3045,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="55.42578125" customWidth="1"/>
     <col min="9" max="9" width="62.140625" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -2842,17 +3067,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="4" spans="2:13" s="8" customFormat="1">
       <c r="B4" s="3" t="s">
@@ -3377,136 +3602,244 @@
       </c>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" ht="30" customHeight="1"/>
-    <row r="28" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B28" s="92" t="s">
+    <row r="27" spans="2:10" ht="15.75">
+      <c r="B27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C27" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="21">
+        <v>43053</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="2:10" ht="30" customHeight="1"/>
+    <row r="29" spans="2:10" ht="38.25" customHeight="1">
+      <c r="B29" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92">
+      <c r="D29" s="92"/>
+      <c r="E29" s="92">
         <v>42826</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F29" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="92" t="s">
+      <c r="G29" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="96" t="s">
+      <c r="H29" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-    </row>
-    <row r="29" spans="2:10" ht="60">
-      <c r="B29" s="103" t="s">
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+    </row>
+    <row r="30" spans="2:10" ht="60">
+      <c r="B30" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C30" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D30" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="21">
         <v>42996</v>
       </c>
-      <c r="F29" s="93" t="s">
+      <c r="F30" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="G30" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H30" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="I29" s="71" t="s">
+      <c r="I30" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="J29" s="67"/>
-    </row>
-    <row r="30" spans="2:10" ht="30" customHeight="1"/>
-    <row r="31" spans="2:10" ht="45">
-      <c r="B31" s="26" t="s">
+      <c r="J30" s="67"/>
+    </row>
+    <row r="31" spans="2:10" ht="30">
+      <c r="B31" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="28">
-        <v>42750</v>
+      <c r="C31" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="75">
+        <v>43023</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="77"/>
+    </row>
+    <row r="32" spans="2:10" ht="30">
+      <c r="B32" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="21">
+        <v>43047</v>
+      </c>
+      <c r="F32" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="2:10" ht="45">
+      <c r="B33" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="21">
+        <v>43047</v>
+      </c>
+      <c r="F33" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" s="67"/>
+    </row>
+    <row r="34" spans="2:10" ht="30" customHeight="1"/>
+    <row r="35" spans="2:10" ht="45">
+      <c r="B35" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="28">
+        <v>42750</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H35" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="2:10" ht="60">
-      <c r="B32" s="26" t="s">
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="2:10" ht="60">
+      <c r="B36" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C36" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D36" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E36" s="28">
         <v>42750</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F36" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G36" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H36" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I36" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="2:10" ht="30">
-      <c r="B33" s="26" t="s">
+      <c r="J36" s="32"/>
+    </row>
+    <row r="37" spans="2:10" ht="30">
+      <c r="B37" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C37" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D37" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E37" s="28">
         <v>42750</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F37" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G37" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H37" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I37" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="32"/>
+      <c r="J37" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Codebase_Tracker.xlsx
+++ b/Codebase_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ProPack" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
   <si>
     <t>Module</t>
   </si>
@@ -579,18 +579,9 @@
     <t>New Rig Manager</t>
   </si>
   <si>
-    <t>blends_target_missing_indexes_test</t>
-  </si>
-  <si>
     <t>New HealthTest</t>
   </si>
   <si>
-    <t>New test to check for blank/deleted targets on a BlendNode and force fix them</t>
-  </si>
-  <si>
-    <t>This is an issue with the FBX output of blendNodes. If you have a blendshape where you've deleted targets then that will cause issues in the fbx output as these empty indexes get removed from the node data but NOT the animation indexes. Causes issues in Unreal</t>
-  </si>
-  <si>
     <t>dynamic timecode added</t>
   </si>
   <si>
@@ -784,6 +775,96 @@
   </si>
   <si>
     <t xml:space="preserve">float3 handling in the addAttr was failing </t>
+  </si>
+  <si>
+    <t>isMetaNodeInherited</t>
+  </si>
+  <si>
+    <t>Re-written the whole subclass and registry management, added new global var that tracks each classes inheritance map but is able to have the keys looked up in short form rather than full issubclass call</t>
+  </si>
+  <si>
+    <t>This is to by-opass issue where a class may be instanitated several times during boot-up and from different setups. This was failing our internal developoment code as we have 2 branches and couldn't always check subclasses in the standard manner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro_MetaRig_FacialUI </t>
+  </si>
+  <si>
+    <t>BIG update to this base facial class to support custom modelPanel views, camera creation and alignment, imageplane management and a new head_instancer call to allow you to draw front, side_left and side_right in the viewports</t>
+  </si>
+  <si>
+    <t>This all relies on the mClass node being wired to the head meshes via the "renderMeshes" wire on the class</t>
+  </si>
+  <si>
+    <t>FilterNode</t>
+  </si>
+  <si>
+    <t>Possible to have duplicate nodes in the lists if nodeTypes included shape and transforms</t>
+  </si>
+  <si>
+    <t>Added extra catches to the lsSearchNodeTypes call</t>
+  </si>
+  <si>
+    <t>snapTransforms</t>
+  </si>
+  <si>
+    <t>AnimFunctions.snapTransform</t>
+  </si>
+  <si>
+    <t>New flag added additionalFuncs=[] which allows us to pass in a list of additional function calls to the process.</t>
+  </si>
+  <si>
+    <t>This allows us to add new functionality whilst only parsing time once, and managing the threading etc</t>
+  </si>
+  <si>
+    <t>r9General</t>
+  </si>
+  <si>
+    <t>decorator</t>
+  </si>
+  <si>
+    <t>deleteNewNodes</t>
+  </si>
+  <si>
+    <t>New decorator that deletes any nodes generated by the function being decorated</t>
+  </si>
+  <si>
+    <t>P4_sourceControl</t>
+  </si>
+  <si>
+    <t>ALL Properties converted back to function calls</t>
+  </si>
+  <si>
+    <t>With some of the Perforce calls being properties it was massively slowing down code completion in Maya, all properties in the current P4 bindings have been removed, things like .fstat will now need to be called as functions .fstat()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Project call "p4_switch_streams" which now allows you to dynamically change the current P4 stream/client mount. </t>
+  </si>
+  <si>
+    <t>Really useful if you have P4 setup with multiple mounts/clients in the same workspace</t>
+  </si>
+  <si>
+    <t>fk_ik_match and methods for resolving the ik and fk chains have been uplifted</t>
+  </si>
+  <si>
+    <t>ikimatchpnt now has a pointer to the controller it relates too, these used to be hard-coded. New method for matching the toe data added which relies on a new patch.</t>
+  </si>
+  <si>
+    <t>When dealing with mRigs theres now a new popupmenu thats triggered when you rmb click over the "MetaRoot" button. This presents a menu with all found mRigs in the scene to choose from. It also exposes a new "Auto-Resolved" option that will bind all operations to the rig found from the currently selected.</t>
+  </si>
+  <si>
+    <t>This is a workflow speedup, saving animators from having to continually set the MetaRoot in the UI. Instead the pose will load onto the rig found from the selected controller.</t>
+  </si>
+  <si>
+    <t>r9ie.P4_sourceControl</t>
+  </si>
+  <si>
+    <t>Massive update to the P4 handling and how we're wrapping it. All previous property's have been turned back to functions for speed in the Maya scriptEditor. Lots of additional logic in the hadnling added for better debuging and stability in the connection.</t>
+  </si>
+  <si>
+    <t>This is TOTALLY dependent on the PROJECT_DATA object's P4 bindings</t>
+  </si>
+  <si>
+    <t>!!</t>
   </si>
 </sst>
 </file>
@@ -793,7 +874,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +944,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -971,7 +1060,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,8 +1383,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1610,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M64"/>
+  <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1632,17 +1748,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1"/>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -1840,7 +1956,7 @@
         <v>107</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="45">
@@ -1893,7 +2009,7 @@
         <v>107</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H14" s="71" t="s">
         <v>168</v>
@@ -1920,13 +2036,13 @@
         <v>98</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H15" s="78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I15" s="78" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J15" s="77"/>
     </row>
@@ -1938,7 +2054,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E16" s="75">
         <v>42983</v>
@@ -1947,13 +2063,13 @@
         <v>98</v>
       </c>
       <c r="G16" s="102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J16" s="77"/>
     </row>
@@ -1974,13 +2090,13 @@
         <v>107</v>
       </c>
       <c r="G17" s="106" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H17" s="71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I17" s="71" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J17" s="67"/>
     </row>
@@ -2001,13 +2117,13 @@
         <v>98</v>
       </c>
       <c r="G18" s="102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J18" s="77"/>
     </row>
@@ -2019,7 +2135,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E19" s="75">
         <v>43023</v>
@@ -2028,13 +2144,13 @@
         <v>98</v>
       </c>
       <c r="G19" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="78" t="s">
         <v>232</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="78" t="s">
-        <v>235</v>
       </c>
       <c r="J19" s="77"/>
     </row>
@@ -2055,13 +2171,13 @@
         <v>107</v>
       </c>
       <c r="G20" s="106" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H20" s="71" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J20" s="67"/>
     </row>
@@ -2138,13 +2254,13 @@
         <v>98</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J24" s="68"/>
     </row>
@@ -2536,13 +2652,13 @@
         <v>107</v>
       </c>
       <c r="G41" s="91" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H41" s="71" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I41" s="71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J41" s="105"/>
     </row>
@@ -2563,75 +2679,77 @@
         <v>98</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J42" s="68"/>
     </row>
-    <row r="43" spans="2:10" ht="30" customHeight="1">
-      <c r="C43" s="52"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="2:10" ht="60">
-      <c r="B44" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="21">
-        <v>42734</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J44" s="67"/>
-    </row>
-    <row r="45" spans="2:10" ht="45">
-      <c r="B45" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="36">
-        <v>42740</v>
-      </c>
-      <c r="F45" s="37" t="s">
+    <row r="43" spans="2:10" ht="60">
+      <c r="B43" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="28">
+        <v>43080</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" s="68"/>
+    </row>
+    <row r="44" spans="2:10" ht="45">
+      <c r="B44" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="59">
+        <v>43110</v>
+      </c>
+      <c r="F44" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="66"/>
-    </row>
-    <row r="46" spans="2:10" ht="45">
+      <c r="G44" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="J44" s="112"/>
+    </row>
+    <row r="45" spans="2:10" ht="30" customHeight="1">
+      <c r="C45" s="52"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="2:10" ht="60">
       <c r="B46" s="19" t="s">
         <v>16</v>
       </c>
@@ -2642,397 +2760,529 @@
         <v>13</v>
       </c>
       <c r="E46" s="21">
-        <v>42745</v>
+        <v>42734</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>107</v>
       </c>
       <c r="G46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="67"/>
+    </row>
+    <row r="47" spans="2:10" ht="45">
+      <c r="B47" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="36">
+        <v>42740</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="66"/>
+    </row>
+    <row r="48" spans="2:10" ht="45">
+      <c r="B48" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="21">
+        <v>42745</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H48" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J46" s="67"/>
-    </row>
-    <row r="47" spans="2:10" ht="45">
-      <c r="B47" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="80" t="s">
+      <c r="J48" s="67"/>
+    </row>
+    <row r="49" spans="1:10" ht="45">
+      <c r="B49" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D49" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="81">
+      <c r="E49" s="81">
         <v>42811</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G49" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="84" t="s">
+      <c r="H49" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="I47" s="83" t="s">
+      <c r="I49" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="J47" s="82"/>
-    </row>
-    <row r="48" spans="2:10" ht="45">
-      <c r="B48" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="73" t="s">
+      <c r="J49" s="82"/>
+    </row>
+    <row r="50" spans="1:10" ht="45">
+      <c r="B50" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D50" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="88">
+      <c r="E50" s="88">
         <v>42817</v>
       </c>
-      <c r="F48" s="89" t="s">
+      <c r="F50" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G50" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="78" t="s">
+      <c r="H50" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="I48" s="78" t="s">
+      <c r="I50" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="J48" s="90"/>
-    </row>
-    <row r="49" spans="2:10" ht="30" customHeight="1">
-      <c r="C49" s="52"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="2:10" ht="30">
-      <c r="B50" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="21">
-        <v>42745</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J50" s="67"/>
-    </row>
-    <row r="51" spans="2:10" ht="75">
-      <c r="B51" s="72" t="s">
+      <c r="J50" s="90"/>
+    </row>
+    <row r="51" spans="1:10" ht="30">
+      <c r="B51" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="73" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="75">
-        <v>42860</v>
-      </c>
-      <c r="F51" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="88">
+        <v>43110</v>
+      </c>
+      <c r="F51" s="89" t="s">
         <v>98</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="H51" s="78" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="I51" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="J51" s="77"/>
-    </row>
-    <row r="52" spans="2:10" ht="30" customHeight="1">
+        <v>274</v>
+      </c>
+      <c r="J51" s="90"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="C52" s="52"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:10" ht="45">
+    <row r="53" spans="1:10" ht="30">
       <c r="B53" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E53" s="21">
-        <v>42734</v>
+        <v>42745</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G53" s="23"/>
+      <c r="G53" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="H53" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="J53" s="67"/>
     </row>
-    <row r="54" spans="2:10" ht="30" customHeight="1">
-      <c r="C54" s="52"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="2:10" ht="60">
-      <c r="B55" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="44">
-        <v>42709</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="45">
+    <row r="54" spans="1:10" ht="60">
+      <c r="B54" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="75">
+        <v>43110</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="I54" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54" s="77"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" customHeight="1">
+      <c r="C55" s="52"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="45">
       <c r="B56" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="E56" s="21">
-        <v>42749</v>
+        <v>42734</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G56" s="20"/>
+      <c r="G56" s="23"/>
       <c r="H56" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="20"/>
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="1:10" ht="45">
+      <c r="B57" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="21">
+        <v>42734</v>
+      </c>
+      <c r="F57" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="20"/>
+      <c r="J57" s="67"/>
+    </row>
+    <row r="58" spans="1:10" ht="75">
+      <c r="A58" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="75">
+        <v>43110</v>
+      </c>
+      <c r="F58" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" s="114" t="s">
+        <v>280</v>
+      </c>
+      <c r="I58" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="J58" s="77"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" customHeight="1">
+      <c r="C59" s="52"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="60">
+      <c r="B60" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="33"/>
+      <c r="E60" s="44">
+        <v>42709</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45">
+      <c r="B61" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21">
+        <v>42749</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="20"/>
+      <c r="H61" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I61" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J56" s="67"/>
-    </row>
-    <row r="57" spans="2:10" ht="30">
-      <c r="B57" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="50" t="s">
+      <c r="J61" s="67"/>
+    </row>
+    <row r="62" spans="1:10" ht="30">
+      <c r="B62" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36">
+      <c r="D62" s="35"/>
+      <c r="E62" s="36">
         <v>42809</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F62" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="40"/>
-      <c r="H57" s="38" t="s">
+      <c r="G62" s="40"/>
+      <c r="H62" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I57" s="38" t="s">
+      <c r="I62" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="J57" s="66"/>
-    </row>
-    <row r="59" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="54" t="s">
+      <c r="J62" s="66"/>
+    </row>
+    <row r="64" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E64" s="18">
         <v>42781</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F64" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G64" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H64" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="69"/>
-    </row>
-    <row r="60" spans="2:10" ht="30">
-      <c r="B60" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="55" t="s">
+      <c r="I64" s="14"/>
+      <c r="J64" s="69"/>
+    </row>
+    <row r="65" spans="2:10" ht="30">
+      <c r="B65" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D65" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="44">
+      <c r="E65" s="44">
         <v>42468</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F65" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G60" s="46" t="s">
+      <c r="G65" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H60" s="47" t="s">
+      <c r="H65" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="I60" s="47"/>
-      <c r="J60" s="70"/>
-    </row>
-    <row r="61" spans="2:10" ht="30">
-      <c r="B61" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="55" t="s">
+      <c r="I65" s="47"/>
+      <c r="J65" s="70"/>
+    </row>
+    <row r="66" spans="2:10" ht="30">
+      <c r="B66" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D66" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E66" s="44">
         <v>42451</v>
       </c>
-      <c r="F61" s="45" t="s">
+      <c r="F66" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G61" s="46" t="s">
+      <c r="G66" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="H61" s="47" t="s">
+      <c r="H66" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I61" s="47"/>
-      <c r="J61" s="70"/>
-    </row>
-    <row r="62" spans="2:10" ht="45">
-      <c r="B62" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="55" t="s">
+      <c r="I66" s="47"/>
+      <c r="J66" s="70"/>
+    </row>
+    <row r="67" spans="2:10" ht="45">
+      <c r="B67" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D67" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E67" s="44">
         <v>42488</v>
       </c>
-      <c r="F62" s="45" t="s">
+      <c r="F67" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="G67" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H67" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I67" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="J62" s="70"/>
-    </row>
-    <row r="63" spans="2:10" ht="30">
-      <c r="B63" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="51" t="s">
+      <c r="J67" s="70"/>
+    </row>
+    <row r="68" spans="2:10" ht="30">
+      <c r="B68" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D68" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E68" s="28">
         <v>43013</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F68" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G68" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J68" s="68"/>
+    </row>
+    <row r="69" spans="2:10" ht="30">
+      <c r="B69" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="28">
+        <v>43047</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I69" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="I63" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="J63" s="68"/>
-    </row>
-    <row r="64" spans="2:10" ht="30">
-      <c r="B64" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E64" s="28">
-        <v>43047</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="I64" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J64" s="68"/>
+      <c r="J69" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3045,10 +3295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M37"/>
+  <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3067,17 +3317,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
     </row>
     <row r="4" spans="2:13" s="8" customFormat="1">
       <c r="B4" s="3" t="s">
@@ -3145,7 +3395,7 @@
         <v>107</v>
       </c>
       <c r="M6" s="98" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="45">
@@ -3253,7 +3503,7 @@
         <v>101</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J11" s="32"/>
     </row>
@@ -3301,13 +3551,13 @@
         <v>97</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J13" s="32"/>
     </row>
@@ -3319,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E14" s="36">
         <v>42885</v>
@@ -3328,518 +3578,652 @@
         <v>97</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="2:13" ht="30" customHeight="1"/>
-    <row r="16" spans="2:13" ht="45">
-      <c r="B16" s="19" t="s">
+    <row r="15" spans="2:13" ht="30">
+      <c r="B15" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="36">
+        <v>43098</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="2:13" ht="90">
+      <c r="B16" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="28">
+        <v>43128</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1"/>
+    <row r="18" spans="2:10" ht="45">
+      <c r="B18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E18" s="21">
         <v>42761</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H18" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I18" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="2:10" ht="30">
-      <c r="B17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="21">
-        <v>42769</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="2:10" ht="30">
-      <c r="B18" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="59">
-        <v>42853</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="2:10" ht="45">
-      <c r="B19" s="56" t="s">
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="2:10" ht="30">
+      <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="21">
+        <v>42769</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="2:10" ht="30">
+      <c r="B20" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="21">
-        <v>42898</v>
-      </c>
-      <c r="F19" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="I19" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1"/>
-    <row r="21" spans="2:10" ht="60">
+      <c r="D20" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="59">
+        <v>42853</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="2:10" ht="45">
       <c r="B21" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="21">
+        <v>42898</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="2:10" ht="30">
+      <c r="B22" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="21">
+        <v>43097</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="2:10" ht="30" customHeight="1"/>
+    <row r="24" spans="2:10" ht="60">
+      <c r="B24" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D24" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E24" s="59">
         <v>42741</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F24" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H24" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="61" t="s">
+      <c r="I24" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="62"/>
-    </row>
-    <row r="22" spans="2:10" ht="45">
-      <c r="B22" s="19" t="s">
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="2:10" ht="45">
+      <c r="B25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C25" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E25" s="21">
         <v>42745</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F25" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H25" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I25" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="2:10" ht="30">
-      <c r="B23" s="26" t="s">
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="2:10" ht="30">
+      <c r="B26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C26" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28">
+      <c r="D26" s="27"/>
+      <c r="E26" s="28">
         <v>42745</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F26" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G26" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H26" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="2:10" ht="30">
-      <c r="B24" s="26" t="s">
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="2:10" ht="30">
+      <c r="B27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C27" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28">
+      <c r="D27" s="27"/>
+      <c r="E27" s="28">
         <v>42793</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G27" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H27" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I27" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="2:10" ht="30">
-      <c r="B25" s="26" t="s">
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="2:10" ht="30">
+      <c r="B28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C28" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28">
+      <c r="D28" s="27"/>
+      <c r="E28" s="28">
         <v>42802</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F28" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H28" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I28" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="2:10" ht="30">
-      <c r="B26" s="19" t="s">
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="2:10" ht="30">
+      <c r="B29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E29" s="21">
         <v>42839</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="91" t="s">
+      <c r="G29" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H29" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I29" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75">
-      <c r="B27" s="19" t="s">
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75">
+      <c r="B30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C30" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E30" s="21">
         <v>43053</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F30" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G30" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" ht="60">
+      <c r="B31" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="59">
+        <v>43080</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="H31" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="I27" s="71" t="s">
+      <c r="I31" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="2:10" ht="30" customHeight="1"/>
-    <row r="29" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B29" s="92" t="s">
+      <c r="J31" s="62"/>
+    </row>
+    <row r="32" spans="2:10" ht="30" customHeight="1"/>
+    <row r="33" spans="2:10" ht="38.25" customHeight="1">
+      <c r="B33" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C33" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92">
+      <c r="D33" s="92"/>
+      <c r="E33" s="92">
         <v>42826</v>
       </c>
-      <c r="F29" s="92" t="s">
+      <c r="F33" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="92" t="s">
+      <c r="G33" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-    </row>
-    <row r="30" spans="2:10" ht="60">
-      <c r="B30" s="103" t="s">
+      <c r="H33" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+    </row>
+    <row r="34" spans="2:10" ht="60">
+      <c r="B34" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C34" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="D34" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="21">
         <v>42996</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F34" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="J30" s="67"/>
-    </row>
-    <row r="31" spans="2:10" ht="30">
-      <c r="B31" s="107" t="s">
+      <c r="G34" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" s="67"/>
+    </row>
+    <row r="35" spans="2:10" ht="30">
+      <c r="B35" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C35" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" s="75">
+      <c r="D35" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="75">
         <v>43023</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="I31" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="J31" s="77"/>
-    </row>
-    <row r="32" spans="2:10" ht="30">
-      <c r="B32" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="21">
-        <v>43047</v>
-      </c>
-      <c r="F32" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="106" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="I32" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" s="67"/>
-    </row>
-    <row r="33" spans="2:10" ht="45">
-      <c r="B33" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="101" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="21">
-        <v>43047</v>
-      </c>
-      <c r="F33" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="I33" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="J33" s="67"/>
-    </row>
-    <row r="34" spans="2:10" ht="30" customHeight="1"/>
-    <row r="35" spans="2:10" ht="45">
-      <c r="B35" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="28">
-        <v>42750</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="77"/>
+    </row>
+    <row r="36" spans="2:10" ht="30">
+      <c r="B36" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="21">
+        <v>43047</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="J36" s="67"/>
+    </row>
+    <row r="37" spans="2:10" ht="45">
+      <c r="B37" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="21">
+        <v>43047</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="67"/>
+    </row>
+    <row r="38" spans="2:10" ht="29.25" customHeight="1"/>
+    <row r="39" spans="2:10" ht="30">
+      <c r="B39" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="75">
+        <v>43110</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="78"/>
+      <c r="J39" s="108"/>
+    </row>
+    <row r="40" spans="2:10" ht="30" customHeight="1"/>
+    <row r="41" spans="2:10" ht="45">
+      <c r="B41" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="28">
+        <v>42750</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H41" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" spans="2:10" ht="60">
-      <c r="B36" s="26" t="s">
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="2:10" ht="60">
+      <c r="B42" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C42" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D42" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E42" s="28">
         <v>42750</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F42" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G42" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H42" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I42" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="2:10" ht="30">
-      <c r="B37" s="26" t="s">
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="2:10" ht="30">
+      <c r="B43" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C43" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D43" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E43" s="28">
         <v>42750</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F43" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G43" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H43" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I43" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J37" s="32"/>
+      <c r="J43" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Codebase_Tracker.xlsx
+++ b/Codebase_Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="292">
   <si>
     <t>Module</t>
   </si>
@@ -865,6 +865,33 @@
   </si>
   <si>
     <t>!!</t>
+  </si>
+  <si>
+    <t>Added direct exposure of the animPointCloud to the Pro_MetaRig so that we can use it to transpose world space on the fly</t>
+  </si>
+  <si>
+    <t>this isn't yet exposed except in code but is a really key function to allow us to change data on the fly without it effecting the rigs pose</t>
+  </si>
+  <si>
+    <t>anim_point_cloud  - code</t>
+  </si>
+  <si>
+    <t>switch_attr_compensated - code</t>
+  </si>
+  <si>
+    <t>a wrapper over the anim_point_cloud, allowing an attribute on a node to be changed whilst compensating for that change in the rigs transforms</t>
+  </si>
+  <si>
+    <t>this will eventually be exposed to allow us to change Parent spaces on the fly, both static and over time</t>
+  </si>
+  <si>
+    <t>ik_fk_match, fk_ik_match</t>
+  </si>
+  <si>
+    <t>new timerange flag added to allow us to directly pass in the timerange to process</t>
+  </si>
+  <si>
+    <t>previously time was just a bool which triggered a get of the current timeline bounds only</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1087,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,11 +1434,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1726,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M69"/>
+  <dimension ref="A2:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1748,17 +1784,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" customHeight="1"/>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -2610,7 +2646,7 @@
       <c r="I39" s="31"/>
       <c r="J39" s="68"/>
     </row>
-    <row r="40" spans="2:10" ht="15.75">
+    <row r="40" spans="2:10" ht="21" customHeight="1">
       <c r="B40" s="26" t="s">
         <v>16</v>
       </c>
@@ -2743,231 +2779,252 @@
       </c>
       <c r="J44" s="112"/>
     </row>
-    <row r="45" spans="2:10" ht="30" customHeight="1">
-      <c r="C45" s="52"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="2:10" ht="60">
-      <c r="B46" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="49" t="s">
+    <row r="45" spans="2:10" ht="45">
+      <c r="B45" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="75">
+        <v>43154</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="J45" s="120"/>
+    </row>
+    <row r="46" spans="2:10" ht="45">
+      <c r="B46" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="75">
+        <v>43154</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J46" s="120"/>
+    </row>
+    <row r="47" spans="2:10" ht="30">
+      <c r="B47" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="75">
+        <v>43154</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="J47" s="120"/>
+    </row>
+    <row r="48" spans="2:10" ht="30" customHeight="1">
+      <c r="C48" s="52"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" ht="60">
+      <c r="B49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E49" s="21">
         <v>42734</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F49" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G49" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H49" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I49" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="67"/>
-    </row>
-    <row r="47" spans="2:10" ht="45">
-      <c r="B47" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="50" t="s">
+      <c r="J49" s="67"/>
+    </row>
+    <row r="50" spans="1:10" ht="45">
+      <c r="B50" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D50" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E50" s="36">
         <v>42740</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F50" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G50" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="H50" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="66"/>
-    </row>
-    <row r="48" spans="2:10" ht="45">
-      <c r="B48" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="49" t="s">
+      <c r="I50" s="35"/>
+      <c r="J50" s="66"/>
+    </row>
+    <row r="51" spans="1:10" ht="45">
+      <c r="B51" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D51" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E51" s="21">
         <v>42745</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F51" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G51" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I51" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="67"/>
-    </row>
-    <row r="49" spans="1:10" ht="45">
-      <c r="B49" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="80" t="s">
+      <c r="J51" s="67"/>
+    </row>
+    <row r="52" spans="1:10" ht="45">
+      <c r="B52" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="83" t="s">
+      <c r="D52" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="81">
+      <c r="E52" s="81">
         <v>42811</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F52" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G52" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H49" s="84" t="s">
+      <c r="H52" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="I49" s="83" t="s">
+      <c r="I52" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="J49" s="82"/>
-    </row>
-    <row r="50" spans="1:10" ht="45">
-      <c r="B50" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="73" t="s">
+      <c r="J52" s="82"/>
+    </row>
+    <row r="53" spans="1:10" ht="45">
+      <c r="B53" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="87" t="s">
+      <c r="D53" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="88">
+      <c r="E53" s="88">
         <v>42817</v>
       </c>
-      <c r="F50" s="89" t="s">
+      <c r="F53" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="G53" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H50" s="78" t="s">
+      <c r="H53" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="I50" s="78" t="s">
+      <c r="I53" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="J50" s="90"/>
-    </row>
-    <row r="51" spans="1:10" ht="30">
-      <c r="B51" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="73" t="s">
+      <c r="J53" s="90"/>
+    </row>
+    <row r="54" spans="1:10" ht="30">
+      <c r="B54" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="87" t="s">
+      <c r="D54" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="88">
+      <c r="E54" s="88">
         <v>43110</v>
       </c>
-      <c r="F51" s="89" t="s">
+      <c r="F54" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G54" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H51" s="78" t="s">
+      <c r="H54" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="I51" s="78" t="s">
+      <c r="I54" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="J51" s="90"/>
-    </row>
-    <row r="52" spans="1:10" ht="30" customHeight="1">
-      <c r="C52" s="52"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" ht="30">
-      <c r="B53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="21">
-        <v>42745</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53" s="67"/>
-    </row>
-    <row r="54" spans="1:10" ht="60">
-      <c r="B54" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="75">
-        <v>43110</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H54" s="78" t="s">
-        <v>271</v>
-      </c>
-      <c r="I54" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="J54" s="77"/>
+      <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="C55" s="52"/>
@@ -2975,314 +3032,374 @@
       <c r="G55" s="7"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:10" ht="45">
+    <row r="56" spans="1:10" ht="30">
       <c r="B56" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E56" s="21">
-        <v>42734</v>
+        <v>42745</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G56" s="23"/>
+      <c r="G56" s="23" t="s">
+        <v>121</v>
+      </c>
       <c r="H56" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="1:10" ht="60">
+      <c r="B57" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="75">
+        <v>43110</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="I57" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="J57" s="77"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" customHeight="1">
+      <c r="C58" s="52"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" ht="45">
+      <c r="B59" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="21">
+        <v>42734</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="67"/>
-    </row>
-    <row r="57" spans="1:10" ht="45">
-      <c r="B57" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="49" t="s">
+      <c r="I59" s="20"/>
+      <c r="J59" s="67"/>
+    </row>
+    <row r="60" spans="1:10" ht="45">
+      <c r="B60" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D60" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E60" s="21">
         <v>42734</v>
       </c>
-      <c r="F57" s="93" t="s">
+      <c r="F60" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24" t="s">
+      <c r="G60" s="23"/>
+      <c r="H60" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="67"/>
-    </row>
-    <row r="58" spans="1:10" ht="75">
-      <c r="A58" s="115" t="s">
+      <c r="I60" s="20"/>
+      <c r="J60" s="67"/>
+    </row>
+    <row r="61" spans="1:10" ht="75">
+      <c r="A61" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="B58" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="117" t="s">
+      <c r="B61" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="74" t="s">
+      <c r="D61" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="75">
+      <c r="E61" s="75">
         <v>43110</v>
       </c>
-      <c r="F58" s="113" t="s">
+      <c r="F61" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="76" t="s">
+      <c r="G61" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="H58" s="114" t="s">
+      <c r="H61" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="I58" s="74" t="s">
+      <c r="I61" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="J58" s="77"/>
-    </row>
-    <row r="59" spans="1:10" ht="30" customHeight="1">
-      <c r="C59" s="52"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:10" ht="60">
-      <c r="B60" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="55" t="s">
+      <c r="J61" s="77"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" customHeight="1">
+      <c r="C62" s="52"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" ht="60">
+      <c r="B63" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="44">
+      <c r="D63" s="33"/>
+      <c r="E63" s="44">
         <v>42709</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F63" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="46"/>
-      <c r="H60" s="47" t="s">
+      <c r="G63" s="46"/>
+      <c r="H63" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I63" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="70" t="s">
+      <c r="J63" s="70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="45">
-      <c r="B61" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="49" t="s">
+    <row r="64" spans="1:10" ht="45">
+      <c r="B64" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21">
+      <c r="D64" s="20"/>
+      <c r="E64" s="21">
         <v>42749</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F64" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="24" t="s">
+      <c r="G64" s="20"/>
+      <c r="H64" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I61" s="24" t="s">
+      <c r="I64" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J61" s="67"/>
-    </row>
-    <row r="62" spans="1:10" ht="30">
-      <c r="B62" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="50" t="s">
+      <c r="J64" s="67"/>
+    </row>
+    <row r="65" spans="2:10" ht="30">
+      <c r="B65" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="36">
+      <c r="D65" s="35"/>
+      <c r="E65" s="36">
         <v>42809</v>
       </c>
-      <c r="F62" s="37" t="s">
+      <c r="F65" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="38" t="s">
+      <c r="G65" s="40"/>
+      <c r="H65" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I62" s="38" t="s">
+      <c r="I65" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="J62" s="66"/>
-    </row>
-    <row r="64" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B64" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="54" t="s">
+      <c r="J65" s="66"/>
+    </row>
+    <row r="67" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B67" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D67" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E67" s="18">
         <v>42781</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F67" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G67" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H67" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="69"/>
-    </row>
-    <row r="65" spans="2:10" ht="30">
-      <c r="B65" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="55" t="s">
+      <c r="I67" s="14"/>
+      <c r="J67" s="69"/>
+    </row>
+    <row r="68" spans="2:10" ht="30">
+      <c r="B68" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D68" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E68" s="44">
         <v>42468</v>
       </c>
-      <c r="F65" s="45" t="s">
+      <c r="F68" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G65" s="46" t="s">
+      <c r="G68" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H65" s="47" t="s">
+      <c r="H68" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="I65" s="47"/>
-      <c r="J65" s="70"/>
-    </row>
-    <row r="66" spans="2:10" ht="30">
-      <c r="B66" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="55" t="s">
+      <c r="I68" s="47"/>
+      <c r="J68" s="70"/>
+    </row>
+    <row r="69" spans="2:10" ht="30">
+      <c r="B69" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D69" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E69" s="44">
         <v>42451</v>
       </c>
-      <c r="F66" s="45" t="s">
+      <c r="F69" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="G69" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="H66" s="47" t="s">
+      <c r="H69" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="47"/>
-      <c r="J66" s="70"/>
-    </row>
-    <row r="67" spans="2:10" ht="45">
-      <c r="B67" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="55" t="s">
+      <c r="I69" s="47"/>
+      <c r="J69" s="70"/>
+    </row>
+    <row r="70" spans="2:10" ht="45">
+      <c r="B70" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D70" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E70" s="44">
         <v>42488</v>
       </c>
-      <c r="F67" s="45" t="s">
+      <c r="F70" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G67" s="46" t="s">
+      <c r="G70" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="H70" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="I67" s="47" t="s">
+      <c r="I70" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="J67" s="70"/>
-    </row>
-    <row r="68" spans="2:10" ht="30">
-      <c r="B68" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="51" t="s">
+      <c r="J70" s="70"/>
+    </row>
+    <row r="71" spans="2:10" ht="30">
+      <c r="B71" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D71" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E71" s="28">
         <v>43013</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F71" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G71" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H71" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="I68" s="31" t="s">
+      <c r="I71" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="J68" s="68"/>
-    </row>
-    <row r="69" spans="2:10" ht="30">
-      <c r="B69" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="51" t="s">
+      <c r="J71" s="68"/>
+    </row>
+    <row r="72" spans="2:10" ht="30">
+      <c r="B72" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D72" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E72" s="28">
         <v>43047</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F72" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G72" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H72" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="I69" s="31" t="s">
+      <c r="I72" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="J69" s="68"/>
+      <c r="J72" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3317,17 +3434,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="4" spans="2:13" s="8" customFormat="1">
       <c r="B4" s="3" t="s">

--- a/Codebase_Tracker.xlsx
+++ b/Codebase_Tracker.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Pending" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProPack!$A$2:$J$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProPack!$A$2:$J$115</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="469">
   <si>
     <t>Module</t>
   </si>
@@ -1391,6 +1391,87 @@
   </si>
   <si>
     <t>New feature that allows you to interactively modify the re-direct path with the live data bound to it, changing the animation live rather than having to apply the cache to see the results.</t>
+  </si>
+  <si>
+    <t>Imageplane support</t>
+  </si>
+  <si>
+    <t>ImagePlane support has now been added to the r9Anim handlers, currently limited to just Facial rigs bound to the Pro_MetaRig_FacilUI class.</t>
+  </si>
+  <si>
+    <t>Stores and restores imageplane data with the r9anim file</t>
+  </si>
+  <si>
+    <t>FrameRate validations</t>
+  </si>
+  <si>
+    <t>Because the start and end times are set agains a given Maya scene, if the framerate should change then this has never been reflected in the loop times. New Health test aded to the UI that compares the stored framerate against the current Maya unit and prompts to auto-fix the current loop timings for you</t>
+  </si>
+  <si>
+    <t>This is a simple health test added to r9opt along with a new framerate attr added to the ExportLoop class</t>
+  </si>
+  <si>
+    <t>New ImagePlane MetaClass for handling and loading imagePlanes correctly in Maya</t>
+  </si>
+  <si>
+    <t>__createnode__</t>
+  </si>
+  <si>
+    <t>New call that's responsible for creating the node. This used to just be a cmds.createNode(nodeType) call in the __init__ but by exposing it as a function we can overload per class if needed</t>
+  </si>
+  <si>
+    <t>__init__</t>
+  </si>
+  <si>
+    <t>Changes that now allow you to create a node of ANY type regardless of it being registered in the RED9_META_REGISTERY. This is for speed if you want to use the call during a rig build for example</t>
+  </si>
+  <si>
+    <t>r9Meta.MetaClass(nodeType='multiDivide') will now return a standard wrapped MetaClass node whilst also creating the muliDivide node at the same time</t>
+  </si>
+  <si>
+    <t>__new__</t>
+  </si>
+  <si>
+    <t>Changes to the way that nodes are registered such that if there's a registered class who's name matches a Maya nodeType (thats registered) then the code will automatically return that class.... Assuming that the node doens't have an mClas attr already set</t>
+  </si>
+  <si>
+    <t>This was added so that imageplanes can be automatically returned in ProPack as a class without having to reply on them being created by a MetaClass, ie, they haven't got the mClass data and are still Maya native</t>
+  </si>
+  <si>
+    <t>Z up support</t>
+  </si>
+  <si>
+    <t>Addded support for Maya Z-up scenes in the reDirector, this was hard coded to Y-up built paths</t>
+  </si>
+  <si>
+    <t>New Epic ART v1 support</t>
+  </si>
+  <si>
+    <t>Added new prest option to allow Epic ART v1 base rigs to be wired to ProPack in a single click in the top menu. More base systems coming soon</t>
+  </si>
+  <si>
+    <t>This setups up all the mirror handlers, the Pro_MetaRig nodes, filter priorities and everything needed to run. Only limitations are the IKFK switches won't work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when using the stripPrefix method the code never actually did an initial name=name pass before relaxinig the search method. </t>
+  </si>
+  <si>
+    <t>We now do this, fixing issues where we may have several possible resolves in a heirarchy ie: "hip_ctrl", "LF_hip_ctrl", "RF_hip_ctrl" all of which would pass when matched against "hip_ctrl". The new initail base pass prevents this.</t>
+  </si>
+  <si>
+    <t>timecode_maya_toggle_timeline(</t>
+  </si>
+  <si>
+    <t>Timecode toggle (cmds.animDisplay) args changed in Maya2018, causing this to bail. This is triggered when you RMB in the timeslider and run "Red9 PRO:Timecode: PRO : Toggle Timecode"</t>
+  </si>
+  <si>
+    <t>relative offset now uses the "projected" space similar to the PoseSaver's functionality</t>
+  </si>
+  <si>
+    <t>when loading in relative space the code wasn't projecting the space as expected. All offsets were in "absolute" space which gave inconsistent results if the reference object was rotated in all axis. This could result in the whole character animation being rotated at an arbitary angle</t>
+  </si>
+  <si>
+    <t>Load Relative Calculations</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1684,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1827,12 +1908,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1851,9 +1926,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2250,9 +2322,6 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2304,49 +2373,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2355,38 +2394,86 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2702,11 +2789,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2724,19 +2811,19 @@
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="204" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="261" t="s">
+    <row r="1" spans="1:10" s="201" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A1" s="248" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="37.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -2770,35 +2857,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60">
-      <c r="B3" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="57" t="s">
+    <row r="3" spans="1:10" ht="75">
+      <c r="B3" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="E3" s="58">
-        <v>43432</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>440</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>436</v>
-      </c>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:10" ht="60">
-      <c r="B4" s="78" t="s">
+      <c r="D3" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="46">
+        <v>43486</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="239" t="s">
+        <v>468</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="J3" s="240"/>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="B4" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="57" t="s">
@@ -2808,2809 +2895,2808 @@
         <v>409</v>
       </c>
       <c r="E4" s="58">
+        <v>43475</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:10" ht="45">
+      <c r="B5" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="247">
+        <v>43472</v>
+      </c>
+      <c r="F5" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="244" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" s="194" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="194" t="s">
+        <v>444</v>
+      </c>
+      <c r="J5" s="222"/>
+    </row>
+    <row r="6" spans="1:10" ht="60">
+      <c r="B6" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="58">
+        <v>43432</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" ht="60">
+      <c r="B7" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="185" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="207">
         <v>43428</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="73" t="s">
+      <c r="F7" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="244" t="s">
         <v>437</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H7" s="194" t="s">
         <v>439</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I7" s="194" t="s">
         <v>438</v>
       </c>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:10" ht="60">
-      <c r="B5" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="J7" s="246"/>
+    </row>
+    <row r="8" spans="1:10" ht="60">
+      <c r="B8" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D8" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E8" s="207">
         <v>43425</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="73" t="s">
+      <c r="F8" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="244" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H8" s="194" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I8" s="194" t="s">
         <v>432</v>
       </c>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="B6" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="J8" s="246"/>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="B9" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D9" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E9" s="242">
         <v>43425</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F9" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="258" t="s">
+      <c r="G9" s="243" t="s">
         <v>410</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H9" s="208" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="259"/>
-    </row>
-    <row r="7" spans="1:10" ht="60">
-      <c r="B7" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="I9" s="208"/>
+      <c r="J9" s="245"/>
+    </row>
+    <row r="10" spans="1:10" ht="60">
+      <c r="B10" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D10" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E10" s="207">
         <v>43425</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="73" t="s">
+      <c r="F10" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="244" t="s">
         <v>427</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H10" s="194" t="s">
         <v>428</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I10" s="194" t="s">
         <v>431</v>
       </c>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:10" ht="60">
-      <c r="B8" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="J10" s="246"/>
+    </row>
+    <row r="11" spans="1:10" ht="60">
+      <c r="B11" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D11" s="206" t="s">
         <v>409</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E11" s="242">
         <v>43416</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F11" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="258" t="s">
+      <c r="G11" s="243" t="s">
         <v>410</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H11" s="208" t="s">
         <v>411</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="259"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="I11" s="208"/>
+      <c r="J11" s="245"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A12" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="B12" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D12" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E12" s="128">
         <v>43285</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F12" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G12" s="235" t="s">
         <v>359</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H12" s="157" t="s">
         <v>360</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I12" s="157" t="s">
         <v>361</v>
       </c>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="B10" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="105" t="s">
+      <c r="J12" s="170"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="B13" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D13" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E13" s="125">
         <v>43250</v>
       </c>
-      <c r="F10" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="149" t="s">
+      <c r="F13" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="146" t="s">
         <v>321</v>
       </c>
-      <c r="H10" s="156" t="s">
+      <c r="H13" s="153" t="s">
         <v>326</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="170"/>
-    </row>
-    <row r="11" spans="1:10" ht="45">
-      <c r="B11" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="105" t="s">
+      <c r="I13" s="153"/>
+      <c r="J13" s="167"/>
+    </row>
+    <row r="14" spans="1:10" ht="45">
+      <c r="B14" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D14" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E14" s="125">
         <v>43244</v>
       </c>
-      <c r="F11" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="149" t="s">
+      <c r="F14" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="146" t="s">
         <v>321</v>
       </c>
-      <c r="H11" s="156" t="s">
+      <c r="H14" s="153" t="s">
         <v>350</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="170"/>
-    </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="B12" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="108" t="s">
+      <c r="I14" s="153"/>
+      <c r="J14" s="167"/>
+    </row>
+    <row r="15" spans="1:10" ht="60">
+      <c r="B15" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="229" t="s">
+      <c r="D15" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E15" s="128">
         <v>43038</v>
       </c>
-      <c r="F12" s="143" t="s">
+      <c r="F15" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="249" t="s">
+      <c r="G15" s="235" t="s">
         <v>234</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H15" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="I12" s="160" t="s">
+      <c r="I15" s="157" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="173"/>
-    </row>
-    <row r="13" spans="1:10" ht="45">
-      <c r="B13" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="105" t="s">
+      <c r="J15" s="170"/>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="B16" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D16" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E16" s="125">
         <v>43023</v>
       </c>
-      <c r="F13" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="149" t="s">
+      <c r="F16" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="H13" s="156" t="s">
+      <c r="H16" s="153" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="156" t="s">
+      <c r="I16" s="153" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="170"/>
-    </row>
-    <row r="14" spans="1:10" ht="30">
-      <c r="B14" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="105" t="s">
+      <c r="J16" s="167"/>
+    </row>
+    <row r="17" spans="1:13" ht="30">
+      <c r="B17" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D17" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E17" s="125">
         <v>43013</v>
       </c>
-      <c r="F14" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="149" t="s">
+      <c r="F17" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="156" t="s">
+      <c r="H17" s="153" t="s">
         <v>225</v>
       </c>
-      <c r="I14" s="156" t="s">
+      <c r="I17" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="170"/>
-    </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="B15" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="108" t="s">
+      <c r="J17" s="167"/>
+    </row>
+    <row r="18" spans="1:13" ht="30">
+      <c r="B18" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="229" t="s">
+      <c r="D18" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E18" s="128">
         <v>42996</v>
       </c>
-      <c r="F15" s="143" t="s">
+      <c r="F18" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="249" t="s">
+      <c r="G18" s="235" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="160" t="s">
+      <c r="H18" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="160" t="s">
+      <c r="I18" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="J15" s="173"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="B16" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="105" t="s">
+      <c r="J18" s="170"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1">
+      <c r="B19" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D19" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="128">
+      <c r="E19" s="125">
         <v>42983</v>
       </c>
-      <c r="F16" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="149" t="s">
+      <c r="F19" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="146" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="156" t="s">
+      <c r="H19" s="153" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="156" t="s">
+      <c r="I19" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="J16" s="170"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1">
-      <c r="B17" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="105" t="s">
+      <c r="J19" s="167"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
+      <c r="B20" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D20" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="128">
+      <c r="E20" s="125">
         <v>42867</v>
       </c>
-      <c r="F17" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="151" t="s">
+      <c r="F20" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="156" t="s">
+      <c r="H20" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="156" t="s">
+      <c r="I20" s="153" t="s">
         <v>192</v>
       </c>
-      <c r="J17" s="170"/>
-    </row>
-    <row r="18" spans="1:13" ht="60">
-      <c r="B18" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="108" t="s">
+      <c r="J20" s="167"/>
+    </row>
+    <row r="21" spans="1:13" ht="60">
+      <c r="B21" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="229" t="s">
+      <c r="D21" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="131">
+      <c r="E21" s="128">
         <v>42839</v>
       </c>
-      <c r="F18" s="143" t="s">
+      <c r="F21" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="231" t="s">
+      <c r="G21" s="227" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="160" t="s">
+      <c r="H21" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="160" t="s">
+      <c r="I21" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="J18" s="173"/>
-      <c r="L18" s="68" t="s">
+      <c r="J21" s="170"/>
+      <c r="L21" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="M18" s="69" t="s">
+      <c r="M21" s="69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="45">
-      <c r="B19" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="105" t="s">
+    <row r="22" spans="1:13" ht="45">
+      <c r="B22" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="242" t="s">
+      <c r="D22" s="234" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E22" s="125">
         <v>42797</v>
       </c>
-      <c r="F19" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="250" t="s">
+      <c r="F22" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="156" t="s">
+      <c r="H22" s="153" t="s">
         <v>379</v>
       </c>
-      <c r="I19" s="156" t="s">
+      <c r="I22" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="170"/>
-      <c r="L19" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="71" t="s">
+      <c r="J22" s="167"/>
+      <c r="L22" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="71" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="45">
-      <c r="B20" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="108" t="s">
+    <row r="23" spans="1:13" ht="45">
+      <c r="B23" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="189" t="s">
+      <c r="D23" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="131">
+      <c r="E23" s="128">
         <v>42761</v>
       </c>
-      <c r="F20" s="192" t="s">
+      <c r="F23" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="194" t="s">
+      <c r="G23" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="160" t="s">
+      <c r="H23" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="160" t="s">
+      <c r="I23" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="J20" s="173"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
-      <c r="B21" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="106" t="s">
+      <c r="J23" s="170"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75">
+      <c r="B24" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D24" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E24" s="126">
         <v>42720</v>
       </c>
-      <c r="F21" s="141" t="s">
+      <c r="F24" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="141"/>
-      <c r="H21" s="157" t="s">
+      <c r="G24" s="138"/>
+      <c r="H24" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="117"/>
-      <c r="J21" s="171"/>
-    </row>
-    <row r="22" spans="1:13" ht="45">
-      <c r="A22" s="81"/>
-      <c r="B22" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="39" t="s">
+      <c r="I24" s="114"/>
+      <c r="J24" s="168"/>
+    </row>
+    <row r="25" spans="1:13" ht="60">
+      <c r="A25" s="79"/>
+      <c r="B25" s="224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D25" s="225" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="226">
+        <v>43483</v>
+      </c>
+      <c r="F25" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="227" t="s">
+        <v>464</v>
+      </c>
+      <c r="H25" s="157" t="s">
+        <v>465</v>
+      </c>
+      <c r="I25" s="157"/>
+      <c r="J25" s="228"/>
+    </row>
+    <row r="26" spans="1:13" ht="45">
+      <c r="A26" s="79"/>
+      <c r="B26" s="224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E26" s="226">
         <v>43383</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F26" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G26" s="227" t="s">
         <v>397</v>
       </c>
-      <c r="H22" s="55" t="s">
+      <c r="H26" s="157" t="s">
         <v>398</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I26" s="157" t="s">
         <v>399</v>
       </c>
-      <c r="J22" s="76"/>
-    </row>
-    <row r="23" spans="1:13" ht="45">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="44" t="s">
+      <c r="J26" s="228"/>
+    </row>
+    <row r="27" spans="1:13" ht="45">
+      <c r="A27" s="79"/>
+      <c r="B27" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="231" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D27" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E27" s="126">
         <v>43383</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F27" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G27" s="147" t="s">
         <v>404</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H27" s="208" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="83"/>
-    </row>
-    <row r="24" spans="1:13" ht="45">
-      <c r="A24" s="81"/>
-      <c r="B24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="40" t="s">
+      <c r="I27" s="208"/>
+      <c r="J27" s="237"/>
+    </row>
+    <row r="28" spans="1:13" ht="45">
+      <c r="A28" s="79"/>
+      <c r="B28" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D28" s="114" t="s">
         <v>400</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E28" s="126">
         <v>43383</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F28" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G28" s="147" t="s">
         <v>401</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H28" s="154" t="s">
         <v>402</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I28" s="154" t="s">
         <v>403</v>
       </c>
-      <c r="J24" s="216"/>
-    </row>
-    <row r="25" spans="1:13" ht="33.75">
-      <c r="A25" s="81" t="s">
+      <c r="J28" s="168"/>
+    </row>
+    <row r="29" spans="1:13" ht="33.75">
+      <c r="A29" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="107" t="s">
+      <c r="B29" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D29" s="116" t="s">
         <v>348</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E29" s="127">
         <v>43225</v>
       </c>
-      <c r="F25" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="151" t="s">
+      <c r="F29" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="148" t="s">
         <v>348</v>
       </c>
-      <c r="H25" s="159" t="s">
+      <c r="H29" s="156" t="s">
         <v>349</v>
       </c>
-      <c r="I25" s="159"/>
-      <c r="J25" s="172"/>
-    </row>
-    <row r="26" spans="1:13" ht="60">
-      <c r="B26" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="107" t="s">
+      <c r="I29" s="156"/>
+      <c r="J29" s="169"/>
+    </row>
+    <row r="30" spans="1:13" ht="60">
+      <c r="B30" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D30" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E30" s="127">
         <v>42860</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="151" t="s">
+      <c r="F30" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="159" t="s">
+      <c r="H30" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="I26" s="159" t="s">
+      <c r="I30" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="J26" s="172"/>
-    </row>
-    <row r="27" spans="1:13" ht="45">
-      <c r="B27" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="107" t="s">
+      <c r="J30" s="169"/>
+    </row>
+    <row r="31" spans="1:13" ht="45">
+      <c r="B31" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D31" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="130">
+      <c r="E31" s="127">
         <v>42750</v>
       </c>
-      <c r="F27" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="151" t="s">
+      <c r="F31" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="159" t="s">
+      <c r="H31" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="159" t="s">
+      <c r="I31" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="172"/>
-    </row>
-    <row r="28" spans="1:13" ht="45">
-      <c r="B28" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="107" t="s">
+      <c r="J31" s="169"/>
+    </row>
+    <row r="32" spans="1:13" ht="45">
+      <c r="B32" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D32" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="130">
+      <c r="E32" s="127">
         <v>42745</v>
       </c>
-      <c r="F28" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="159" t="s">
+      <c r="F32" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="148"/>
+      <c r="H32" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="119"/>
-      <c r="J28" s="172"/>
-    </row>
-    <row r="29" spans="1:13" ht="45">
-      <c r="B29" s="202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="185" t="s">
+      <c r="I32" s="116"/>
+      <c r="J32" s="169"/>
+    </row>
+    <row r="33" spans="1:10" ht="45">
+      <c r="B33" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D33" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="190">
+      <c r="E33" s="187">
         <v>43414</v>
       </c>
-      <c r="F29" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="188" t="s">
+      <c r="F33" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="185" t="s">
         <v>425</v>
       </c>
-      <c r="H29" s="197" t="s">
+      <c r="H33" s="194" t="s">
         <v>426</v>
       </c>
-      <c r="I29" s="197"/>
-      <c r="J29" s="203"/>
-    </row>
-    <row r="30" spans="1:13" ht="30">
-      <c r="B30" s="228" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="108" t="s">
+      <c r="I33" s="194"/>
+      <c r="J33" s="200"/>
+    </row>
+    <row r="34" spans="1:10" ht="30">
+      <c r="B34" s="224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="105" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="229" t="s">
+      <c r="D34" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="230">
+      <c r="E34" s="226">
         <v>43230</v>
       </c>
-      <c r="F30" s="143" t="s">
+      <c r="F34" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="229" t="s">
+      <c r="G34" s="225" t="s">
         <v>304</v>
       </c>
-      <c r="H30" s="160" t="s">
+      <c r="H34" s="157" t="s">
         <v>305</v>
       </c>
-      <c r="I30" s="160" t="s">
+      <c r="I34" s="157" t="s">
         <v>306</v>
       </c>
-      <c r="J30" s="232"/>
-    </row>
-    <row r="31" spans="1:13" ht="45">
-      <c r="B31" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="107" t="s">
+      <c r="J34" s="228"/>
+    </row>
+    <row r="35" spans="1:10" ht="45">
+      <c r="B35" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="104" t="s">
         <v>294</v>
       </c>
-      <c r="D31" s="119" t="s">
+      <c r="D35" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="130">
+      <c r="E35" s="127">
         <v>43179</v>
       </c>
-      <c r="F31" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="119" t="s">
+      <c r="F35" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="H31" s="159" t="s">
+      <c r="H35" s="156" t="s">
         <v>296</v>
       </c>
-      <c r="I31" s="159" t="s">
+      <c r="I35" s="156" t="s">
         <v>297</v>
       </c>
-      <c r="J31" s="172"/>
-    </row>
-    <row r="32" spans="1:13" ht="45">
-      <c r="A32" s="81" t="s">
+      <c r="J35" s="169"/>
+    </row>
+    <row r="36" spans="1:10" ht="45">
+      <c r="A36" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="183" t="s">
+      <c r="B36" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D36" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="190">
+      <c r="E36" s="187">
         <v>43203</v>
       </c>
-      <c r="F32" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="181" t="s">
+      <c r="F36" s="178" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="178" t="s">
         <v>291</v>
       </c>
-      <c r="H32" s="212" t="s">
+      <c r="H36" s="209" t="s">
         <v>292</v>
       </c>
-      <c r="I32" s="212" t="s">
+      <c r="I36" s="209" t="s">
         <v>293</v>
       </c>
-      <c r="J32" s="212"/>
-    </row>
-    <row r="33" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B33" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="183" t="s">
+      <c r="J36" s="209"/>
+    </row>
+    <row r="37" spans="1:10" ht="75">
+      <c r="B37" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="186" t="s">
+      <c r="D37" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="190">
+      <c r="E37" s="187">
+        <v>43473</v>
+      </c>
+      <c r="F37" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="190" t="s">
+        <v>445</v>
+      </c>
+      <c r="H37" s="192" t="s">
+        <v>446</v>
+      </c>
+      <c r="I37" s="192" t="s">
+        <v>447</v>
+      </c>
+      <c r="J37" s="197"/>
+    </row>
+    <row r="38" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B38" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="187">
         <v>43419</v>
       </c>
-      <c r="F33" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="193" t="s">
+      <c r="F38" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="190" t="s">
         <v>424</v>
       </c>
-      <c r="H33" s="195" t="s">
+      <c r="H38" s="192" t="s">
         <v>423</v>
       </c>
-      <c r="I33" s="195"/>
-      <c r="J33" s="200"/>
-    </row>
-    <row r="34" spans="1:10" ht="33.75">
-      <c r="A34" s="81"/>
-      <c r="B34" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="44" t="s">
+      <c r="I38" s="192"/>
+      <c r="J38" s="197"/>
+    </row>
+    <row r="39" spans="1:10" ht="33.75">
+      <c r="A39" s="79"/>
+      <c r="B39" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="231" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D39" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E39" s="126">
         <v>43417</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F39" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G39" s="147" t="s">
         <v>414</v>
       </c>
-      <c r="H34" s="66" t="s">
+      <c r="H39" s="208" t="s">
         <v>415</v>
       </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="83"/>
-    </row>
-    <row r="35" spans="1:10" ht="33.75">
-      <c r="A35" s="81"/>
-      <c r="B35" s="202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="185" t="s">
+      <c r="I39" s="208"/>
+      <c r="J39" s="237"/>
+    </row>
+    <row r="40" spans="1:10" ht="33.75">
+      <c r="A40" s="79"/>
+      <c r="B40" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="188" t="s">
+      <c r="D40" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="190">
+      <c r="E40" s="187">
         <v>43362</v>
       </c>
-      <c r="F35" s="191" t="s">
+      <c r="F40" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="193" t="s">
+      <c r="G40" s="190" t="s">
         <v>389</v>
       </c>
-      <c r="H35" s="197" t="s">
+      <c r="H40" s="194" t="s">
         <v>390</v>
       </c>
-      <c r="I35" s="197"/>
-      <c r="J35" s="203"/>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1">
-      <c r="A36" s="81"/>
-      <c r="B36" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="104" t="s">
+      <c r="I40" s="194"/>
+      <c r="J40" s="200"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" customHeight="1">
+      <c r="A41" s="79"/>
+      <c r="B41" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="118" t="s">
+      <c r="D41" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="135">
+      <c r="E41" s="132">
         <v>43264</v>
       </c>
-      <c r="F36" s="142" t="s">
+      <c r="F41" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="152" t="s">
+      <c r="G41" s="149" t="s">
         <v>337</v>
       </c>
-      <c r="H36" s="158" t="s">
+      <c r="H41" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="I36" s="158"/>
-      <c r="J36" s="177"/>
-    </row>
-    <row r="37" spans="1:10" ht="45">
-      <c r="A37" s="81"/>
-      <c r="B37" s="202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="185" t="s">
+      <c r="I41" s="155"/>
+      <c r="J41" s="174"/>
+    </row>
+    <row r="42" spans="1:10" ht="45">
+      <c r="A42" s="79"/>
+      <c r="B42" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="188" t="s">
+      <c r="D42" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="190">
+      <c r="E42" s="187">
         <v>43256</v>
       </c>
-      <c r="F37" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="193" t="s">
+      <c r="F42" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="190" t="s">
         <v>334</v>
       </c>
-      <c r="H37" s="197" t="s">
+      <c r="H42" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="I37" s="197" t="s">
+      <c r="I42" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="J37" s="203"/>
-    </row>
-    <row r="38" spans="1:10" ht="75">
-      <c r="A38" s="81" t="s">
+      <c r="J42" s="200"/>
+    </row>
+    <row r="43" spans="1:10" ht="75">
+      <c r="A43" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="185" t="s">
+      <c r="B43" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="188" t="s">
+      <c r="D43" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="190">
+      <c r="E43" s="187">
         <v>43250</v>
       </c>
-      <c r="F38" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="193" t="s">
+      <c r="F43" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="190" t="s">
         <v>327</v>
       </c>
-      <c r="H38" s="197" t="s">
+      <c r="H43" s="194" t="s">
         <v>328</v>
       </c>
-      <c r="I38" s="197" t="s">
+      <c r="I43" s="194" t="s">
         <v>329</v>
       </c>
-      <c r="J38" s="203"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75">
-      <c r="B39" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="123" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="132">
-        <v>43240</v>
-      </c>
-      <c r="F39" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="153" t="s">
-        <v>323</v>
-      </c>
-      <c r="H39" s="165" t="s">
-        <v>324</v>
-      </c>
-      <c r="I39" s="123" t="s">
-        <v>325</v>
-      </c>
-      <c r="J39" s="180"/>
-    </row>
-    <row r="40" spans="1:10" ht="45">
-      <c r="B40" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="135">
-        <v>43237</v>
-      </c>
-      <c r="F40" s="142" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="152"/>
-      <c r="H40" s="158" t="s">
-        <v>307</v>
-      </c>
-      <c r="I40" s="118"/>
-      <c r="J40" s="177"/>
-    </row>
-    <row r="41" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B41" s="202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="185" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="188" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="190">
-        <v>43237</v>
-      </c>
-      <c r="F41" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="193" t="s">
-        <v>316</v>
-      </c>
-      <c r="H41" s="197" t="s">
-        <v>314</v>
-      </c>
-      <c r="I41" s="188" t="s">
-        <v>316</v>
-      </c>
-      <c r="J41" s="203"/>
-    </row>
-    <row r="42" spans="1:10" ht="45">
-      <c r="B42" s="202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="185" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="188" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="190">
-        <v>43237</v>
-      </c>
-      <c r="F42" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="193" t="s">
-        <v>315</v>
-      </c>
-      <c r="H42" s="197" t="s">
-        <v>317</v>
-      </c>
-      <c r="I42" s="188" t="s">
-        <v>315</v>
-      </c>
-      <c r="J42" s="203"/>
-    </row>
-    <row r="43" spans="1:10" ht="45">
-      <c r="B43" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="183" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="186" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="190">
-        <v>42894</v>
-      </c>
-      <c r="F43" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="193"/>
-      <c r="H43" s="195" t="s">
-        <v>308</v>
-      </c>
-      <c r="I43" s="195" t="s">
-        <v>309</v>
-      </c>
       <c r="J43" s="200"/>
     </row>
-    <row r="44" spans="1:10" ht="30" customHeight="1">
-      <c r="B44" s="93" t="s">
+    <row r="44" spans="1:10" ht="15.75">
+      <c r="B44" s="96" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="129">
+        <v>43240</v>
+      </c>
+      <c r="F44" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="150" t="s">
+        <v>323</v>
+      </c>
+      <c r="H44" s="162" t="s">
+        <v>324</v>
+      </c>
+      <c r="I44" s="120" t="s">
+        <v>325</v>
+      </c>
+      <c r="J44" s="177"/>
+    </row>
+    <row r="45" spans="1:10" ht="45">
+      <c r="B45" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="132">
+        <v>43237</v>
+      </c>
+      <c r="F45" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="149"/>
+      <c r="H45" s="155" t="s">
+        <v>307</v>
+      </c>
+      <c r="I45" s="115"/>
+      <c r="J45" s="174"/>
+    </row>
+    <row r="46" spans="1:10" ht="29.25" customHeight="1">
+      <c r="B46" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="187">
+        <v>43237</v>
+      </c>
+      <c r="F46" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="190" t="s">
+        <v>316</v>
+      </c>
+      <c r="H46" s="194" t="s">
+        <v>314</v>
+      </c>
+      <c r="I46" s="185" t="s">
+        <v>316</v>
+      </c>
+      <c r="J46" s="200"/>
+    </row>
+    <row r="47" spans="1:10" ht="45">
+      <c r="B47" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="187">
+        <v>43237</v>
+      </c>
+      <c r="F47" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="190" t="s">
+        <v>315</v>
+      </c>
+      <c r="H47" s="194" t="s">
+        <v>317</v>
+      </c>
+      <c r="I47" s="185" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" s="200"/>
+    </row>
+    <row r="48" spans="1:10" ht="45">
+      <c r="B48" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="187">
+        <v>42894</v>
+      </c>
+      <c r="F48" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="190"/>
+      <c r="H48" s="192" t="s">
+        <v>308</v>
+      </c>
+      <c r="I48" s="192" t="s">
+        <v>309</v>
+      </c>
+      <c r="J48" s="197"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" customHeight="1">
+      <c r="B49" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="132">
+      <c r="E49" s="129">
         <v>42860</v>
       </c>
-      <c r="F44" s="144" t="s">
+      <c r="F49" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="120"/>
-      <c r="H44" s="161" t="s">
+      <c r="G49" s="117"/>
+      <c r="H49" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="120" t="s">
+      <c r="I49" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="174"/>
-    </row>
-    <row r="45" spans="1:10" ht="45">
-      <c r="B45" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="183" t="s">
+      <c r="J49" s="171"/>
+    </row>
+    <row r="50" spans="1:10" ht="45">
+      <c r="B50" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="186" t="s">
+      <c r="D50" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="190">
+      <c r="E50" s="187">
         <v>42802</v>
       </c>
-      <c r="F45" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="193"/>
-      <c r="H45" s="195" t="s">
+      <c r="F50" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="190"/>
+      <c r="H50" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="186"/>
-      <c r="J45" s="200"/>
-    </row>
-    <row r="46" spans="1:10" ht="60">
-      <c r="B46" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="183" t="s">
+      <c r="I50" s="183"/>
+      <c r="J50" s="197"/>
+    </row>
+    <row r="51" spans="1:10" ht="60">
+      <c r="B51" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="186" t="s">
+      <c r="D51" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="190">
+      <c r="E51" s="187">
         <v>42724</v>
       </c>
-      <c r="F46" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="193"/>
-      <c r="H46" s="195" t="s">
+      <c r="F51" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="190"/>
+      <c r="H51" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="186"/>
-      <c r="J46" s="200"/>
-    </row>
-    <row r="47" spans="1:10" ht="75">
-      <c r="A47" s="80" t="s">
+      <c r="I51" s="183"/>
+      <c r="J51" s="197"/>
+    </row>
+    <row r="52" spans="1:10" ht="75">
+      <c r="A52" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B47" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="205" t="s">
+      <c r="B52" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="123" t="s">
+      <c r="D52" s="120" t="s">
         <v>374</v>
       </c>
-      <c r="E47" s="136">
+      <c r="E52" s="133">
         <v>43334</v>
       </c>
-      <c r="F47" s="144" t="s">
+      <c r="F52" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="153" t="s">
+      <c r="G52" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="H47" s="165" t="s">
+      <c r="H52" s="162" t="s">
         <v>376</v>
       </c>
-      <c r="I47" s="165" t="s">
+      <c r="I52" s="162" t="s">
         <v>375</v>
       </c>
-      <c r="J47" s="179"/>
-    </row>
-    <row r="48" spans="1:10" ht="75">
-      <c r="A48" s="80" t="s">
+      <c r="J52" s="176"/>
+    </row>
+    <row r="53" spans="1:10" ht="75">
+      <c r="A53" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="205" t="s">
+      <c r="B53" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="206" t="s">
+      <c r="D53" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="136">
+      <c r="E53" s="133">
         <v>43110</v>
       </c>
-      <c r="F48" s="144" t="s">
+      <c r="F53" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="207" t="s">
+      <c r="G53" s="204" t="s">
         <v>277</v>
       </c>
-      <c r="H48" s="208" t="s">
+      <c r="H53" s="205" t="s">
         <v>278</v>
       </c>
-      <c r="I48" s="206" t="s">
+      <c r="I53" s="203" t="s">
         <v>279</v>
       </c>
-      <c r="J48" s="179"/>
-    </row>
-    <row r="49" spans="1:10" ht="45">
-      <c r="B49" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="104" t="s">
+      <c r="J53" s="176"/>
+    </row>
+    <row r="54" spans="1:10" ht="45">
+      <c r="B54" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="240" t="s">
+      <c r="D54" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="127">
+      <c r="E54" s="124">
         <v>42734</v>
       </c>
-      <c r="F49" s="246" t="s">
+      <c r="F54" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="248"/>
-      <c r="H49" s="251" t="s">
+      <c r="G54" s="259"/>
+      <c r="H54" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="240"/>
-      <c r="J49" s="169"/>
-    </row>
-    <row r="50" spans="1:10" ht="45">
-      <c r="B50" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="104" t="s">
+      <c r="I54" s="253"/>
+      <c r="J54" s="166"/>
+    </row>
+    <row r="55" spans="1:10" ht="45">
+      <c r="B55" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="240" t="s">
+      <c r="D55" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="127">
+      <c r="E55" s="124">
         <v>42734</v>
       </c>
-      <c r="F50" s="142" t="s">
+      <c r="F55" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="248"/>
-      <c r="H50" s="251" t="s">
+      <c r="G55" s="259"/>
+      <c r="H55" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="240"/>
-      <c r="J50" s="169"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
-      <c r="B51" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="109" t="s">
+      <c r="I55" s="253"/>
+      <c r="J55" s="166"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="B56" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="120" t="s">
+      <c r="D56" s="117" t="s">
         <v>396</v>
       </c>
-      <c r="E51" s="132">
+      <c r="E56" s="129">
         <v>43009</v>
       </c>
-      <c r="F51" s="93" t="s">
+      <c r="F56" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="93" t="s">
+      <c r="G56" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="199" t="s">
+      <c r="H56" s="196" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="164"/>
-      <c r="J51" s="164"/>
-    </row>
-    <row r="52" spans="1:10" ht="45">
-      <c r="B52" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="109" t="s">
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+    </row>
+    <row r="57" spans="1:10" ht="45">
+      <c r="B57" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="120"/>
-      <c r="E52" s="132">
+      <c r="D57" s="117"/>
+      <c r="E57" s="129">
         <v>42780</v>
       </c>
-      <c r="F52" s="93" t="s">
+      <c r="F57" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="93" t="s">
+      <c r="G57" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="199" t="s">
+      <c r="H57" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="164" t="s">
+      <c r="I57" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="J52" s="164"/>
-    </row>
-    <row r="53" spans="1:10" ht="30">
-      <c r="B53" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="109" t="s">
+      <c r="J57" s="161"/>
+    </row>
+    <row r="58" spans="1:10" ht="30">
+      <c r="B58" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="120"/>
-      <c r="E53" s="132">
+      <c r="D58" s="117"/>
+      <c r="E58" s="129">
         <v>42780</v>
       </c>
-      <c r="F53" s="93" t="s">
+      <c r="F58" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="G53" s="93" t="s">
+      <c r="G58" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="199" t="s">
+      <c r="H58" s="196" t="s">
         <v>128</v>
       </c>
-      <c r="I53" s="164" t="s">
+      <c r="I58" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="164"/>
-    </row>
-    <row r="54" spans="1:10" ht="30">
-      <c r="B54" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="260" t="s">
+      <c r="J58" s="161"/>
+    </row>
+    <row r="59" spans="1:10" ht="30">
+      <c r="B59" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D59" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="133">
+        <v>43473</v>
+      </c>
+      <c r="F59" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="158" t="s">
+        <v>448</v>
+      </c>
+      <c r="I59" s="158"/>
+      <c r="J59" s="175"/>
+    </row>
+    <row r="60" spans="1:10" ht="30">
+      <c r="B60" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="241" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E60" s="125">
         <v>43425</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="22" t="s">
+      <c r="F60" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="148" t="s">
         <v>434</v>
       </c>
-      <c r="H54" s="60" t="s">
+      <c r="H60" s="153" t="s">
         <v>435</v>
       </c>
-      <c r="I54" s="60"/>
-      <c r="J54" s="59"/>
-    </row>
-    <row r="55" spans="1:10" ht="60">
-      <c r="B55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="257" t="s">
+      <c r="I60" s="153"/>
+      <c r="J60" s="167"/>
+    </row>
+    <row r="61" spans="1:10" ht="60">
+      <c r="B61" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="72" t="s">
+      <c r="D61" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E61" s="124">
         <v>43417</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F61" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="62" t="s">
+      <c r="G61" s="149" t="s">
         <v>416</v>
       </c>
-      <c r="H55" s="55" t="s">
+      <c r="H61" s="155" t="s">
         <v>417</v>
       </c>
-      <c r="I55" s="55" t="s">
+      <c r="I61" s="155" t="s">
         <v>418</v>
       </c>
-      <c r="J55" s="52"/>
-    </row>
-    <row r="56" spans="1:10" ht="30">
-      <c r="B56" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="111" t="s">
+      <c r="J61" s="166"/>
+    </row>
+    <row r="62" spans="1:10" ht="30">
+      <c r="B62" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="D62" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="136">
+      <c r="E62" s="133">
         <v>43268</v>
       </c>
-      <c r="F56" s="144" t="s">
+      <c r="F62" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="153" t="s">
+      <c r="G62" s="150" t="s">
         <v>284</v>
       </c>
-      <c r="H56" s="161" t="s">
+      <c r="H62" s="158" t="s">
         <v>355</v>
       </c>
-      <c r="I56" s="161"/>
-      <c r="J56" s="178"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="182" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="184" t="s">
+      <c r="I62" s="158"/>
+      <c r="J62" s="175"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="187" t="s">
+      <c r="D63" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="190">
+      <c r="E63" s="187">
         <v>43264</v>
       </c>
-      <c r="F57" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="193" t="s">
+      <c r="F63" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="190" t="s">
         <v>339</v>
       </c>
-      <c r="H57" s="195" t="s">
+      <c r="H63" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="I57" s="195" t="s">
+      <c r="I63" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="J57" s="201"/>
-    </row>
-    <row r="58" spans="1:10" ht="60">
-      <c r="A58" s="81" t="s">
+      <c r="J63" s="198"/>
+    </row>
+    <row r="64" spans="1:10" ht="60">
+      <c r="A64" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B58" s="235" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="238" t="s">
+      <c r="B64" s="230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="241" t="s">
+      <c r="D64" s="233" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E64" s="20">
         <v>43264</v>
       </c>
-      <c r="F58" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="22" t="s">
+      <c r="F64" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H64" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I64" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="J58" s="255"/>
-    </row>
-    <row r="59" spans="1:10" ht="30">
-      <c r="B59" s="182" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="184" t="s">
+      <c r="J64" s="238"/>
+    </row>
+    <row r="65" spans="2:10" ht="30">
+      <c r="B65" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="187" t="s">
+      <c r="D65" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="190">
+      <c r="E65" s="187">
         <v>43236</v>
       </c>
-      <c r="F59" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="193" t="s">
+      <c r="F65" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="190" t="s">
         <v>344</v>
       </c>
-      <c r="H59" s="195" t="s">
+      <c r="H65" s="192" t="s">
         <v>332</v>
       </c>
-      <c r="I59" s="195" t="s">
+      <c r="I65" s="192" t="s">
         <v>333</v>
       </c>
-      <c r="J59" s="201"/>
-    </row>
-    <row r="60" spans="1:10" ht="31.5" customHeight="1">
-      <c r="B60" s="182" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="184" t="s">
+      <c r="J65" s="198"/>
+    </row>
+    <row r="66" spans="2:10" ht="31.5" customHeight="1">
+      <c r="B66" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="187" t="s">
+      <c r="D66" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="210">
+      <c r="E66" s="207">
         <v>43154</v>
       </c>
-      <c r="F60" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="193" t="s">
+      <c r="F66" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="190" t="s">
         <v>283</v>
       </c>
-      <c r="H60" s="195" t="s">
+      <c r="H66" s="192" t="s">
         <v>281</v>
       </c>
-      <c r="I60" s="195" t="s">
+      <c r="I66" s="192" t="s">
         <v>282</v>
       </c>
-      <c r="J60" s="201"/>
-    </row>
-    <row r="61" spans="1:10" ht="21" customHeight="1">
-      <c r="B61" s="182" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="184" t="s">
+      <c r="J66" s="198"/>
+    </row>
+    <row r="67" spans="2:10" ht="21" customHeight="1">
+      <c r="B67" s="230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="187" t="s">
+      <c r="D67" s="233" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="210">
+      <c r="E67" s="58">
         <v>43154</v>
       </c>
-      <c r="F61" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="193" t="s">
+      <c r="F67" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="H61" s="195" t="s">
+      <c r="H67" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="I61" s="195" t="s">
+      <c r="I67" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="J61" s="201"/>
-    </row>
-    <row r="62" spans="1:10" ht="30">
-      <c r="B62" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="111" t="s">
+      <c r="J67" s="238"/>
+    </row>
+    <row r="68" spans="2:10" ht="30">
+      <c r="B68" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="122" t="s">
+      <c r="D68" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="136">
+      <c r="E68" s="133">
         <v>43154</v>
       </c>
-      <c r="F62" s="144" t="s">
+      <c r="F68" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G62" s="153" t="s">
+      <c r="G68" s="150" t="s">
         <v>287</v>
       </c>
-      <c r="H62" s="161" t="s">
+      <c r="H68" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="I62" s="161" t="s">
+      <c r="I68" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="J62" s="178"/>
-    </row>
-    <row r="63" spans="1:10" ht="45">
-      <c r="B63" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="111" t="s">
+      <c r="J68" s="175"/>
+    </row>
+    <row r="69" spans="2:10" ht="45">
+      <c r="B69" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="122" t="s">
+      <c r="D69" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="136">
+      <c r="E69" s="133">
         <v>43110</v>
       </c>
-      <c r="F63" s="144" t="s">
+      <c r="F69" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G63" s="153" t="s">
+      <c r="G69" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="161" t="s">
+      <c r="H69" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="I63" s="161" t="s">
+      <c r="I69" s="158" t="s">
         <v>274</v>
       </c>
-      <c r="J63" s="178"/>
-    </row>
-    <row r="64" spans="1:10" ht="60">
-      <c r="B64" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="183" t="s">
+      <c r="J69" s="175"/>
+    </row>
+    <row r="70" spans="2:10" ht="60">
+      <c r="B70" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="186" t="s">
+      <c r="D70" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="190">
+      <c r="E70" s="187">
         <v>43080</v>
       </c>
-      <c r="F64" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="193" t="s">
+      <c r="F70" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="190" t="s">
         <v>254</v>
       </c>
-      <c r="H64" s="195" t="s">
+      <c r="H70" s="192" t="s">
         <v>255</v>
       </c>
-      <c r="I64" s="195" t="s">
+      <c r="I70" s="192" t="s">
         <v>256</v>
       </c>
-      <c r="J64" s="200"/>
-    </row>
-    <row r="65" spans="1:10" ht="45">
-      <c r="B65" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="183" t="s">
+      <c r="J70" s="197"/>
+    </row>
+    <row r="71" spans="2:10" ht="45">
+      <c r="B71" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="186" t="s">
+      <c r="D71" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="190">
+      <c r="E71" s="187">
         <v>42993</v>
       </c>
-      <c r="F65" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="193" t="s">
+      <c r="F71" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="H65" s="195" t="s">
+      <c r="H71" s="192" t="s">
         <v>216</v>
       </c>
-      <c r="I65" s="195" t="s">
+      <c r="I71" s="192" t="s">
         <v>217</v>
       </c>
-      <c r="J65" s="200"/>
-    </row>
-    <row r="66" spans="1:10" ht="30">
-      <c r="B66" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="104" t="s">
+      <c r="J71" s="197"/>
+    </row>
+    <row r="72" spans="2:10" ht="30">
+      <c r="B72" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="118" t="s">
+      <c r="D72" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="135">
+      <c r="E72" s="132">
         <v>42909</v>
       </c>
-      <c r="F66" s="142" t="s">
+      <c r="F72" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="G66" s="152" t="s">
+      <c r="G72" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="H66" s="158" t="s">
+      <c r="H72" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="158" t="s">
+      <c r="I72" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="J66" s="177"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
-      <c r="B67" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="183" t="s">
+      <c r="J72" s="174"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75">
+      <c r="B73" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="186" t="s">
+      <c r="D73" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="190">
+      <c r="E73" s="187">
         <v>42816</v>
       </c>
-      <c r="F67" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="193" t="s">
+      <c r="F73" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="H67" s="195" t="s">
+      <c r="H73" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="I67" s="195"/>
-      <c r="J67" s="200"/>
-    </row>
-    <row r="68" spans="1:10" ht="45">
-      <c r="B68" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="183" t="s">
+      <c r="I73" s="192"/>
+      <c r="J73" s="197"/>
+    </row>
+    <row r="74" spans="2:10" ht="45">
+      <c r="B74" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="186" t="s">
+      <c r="D74" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="190">
+      <c r="E74" s="187">
         <v>42795</v>
       </c>
-      <c r="F68" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="193" t="s">
+      <c r="F74" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="H68" s="195" t="s">
+      <c r="H74" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="I68" s="195"/>
-      <c r="J68" s="200"/>
-    </row>
-    <row r="69" spans="1:10" ht="75">
-      <c r="B69" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="109" t="s">
+      <c r="I74" s="192"/>
+      <c r="J74" s="197"/>
+    </row>
+    <row r="75" spans="2:10" ht="75">
+      <c r="B75" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="120" t="s">
+      <c r="D75" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="132">
+      <c r="E75" s="129">
         <v>42772</v>
       </c>
-      <c r="F69" s="144" t="s">
+      <c r="F75" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="153" t="s">
+      <c r="G75" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="H69" s="161" t="s">
+      <c r="H75" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="I69" s="161" t="s">
+      <c r="I75" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="J69" s="174"/>
-    </row>
-    <row r="70" spans="1:10" ht="30">
-      <c r="B70" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="109" t="s">
+      <c r="J75" s="171"/>
+    </row>
+    <row r="76" spans="2:10" ht="30">
+      <c r="B76" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="120" t="s">
+      <c r="D76" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="132">
+      <c r="E76" s="129">
         <v>42758</v>
       </c>
-      <c r="F70" s="144" t="s">
+      <c r="F76" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G70" s="153" t="s">
+      <c r="G76" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="H70" s="161" t="s">
+      <c r="H76" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="I70" s="161"/>
-      <c r="J70" s="174"/>
-    </row>
-    <row r="71" spans="1:10" ht="21" customHeight="1">
-      <c r="B71" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="183" t="s">
+      <c r="I76" s="158"/>
+      <c r="J76" s="171"/>
+    </row>
+    <row r="77" spans="2:10" ht="21" customHeight="1">
+      <c r="B77" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="186" t="s">
+      <c r="D77" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="190">
+      <c r="E77" s="187">
         <v>42755</v>
       </c>
-      <c r="F71" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="193" t="s">
+      <c r="F77" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="H71" s="195" t="s">
+      <c r="H77" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="195"/>
-      <c r="J71" s="200"/>
-    </row>
-    <row r="72" spans="1:10" ht="45">
-      <c r="B72" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="109" t="s">
+      <c r="I77" s="192"/>
+      <c r="J77" s="197"/>
+    </row>
+    <row r="78" spans="2:10" ht="45">
+      <c r="B78" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="120" t="s">
+      <c r="D78" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="132">
+      <c r="E78" s="129">
         <v>42732</v>
       </c>
-      <c r="F72" s="144" t="s">
+      <c r="F78" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G72" s="153" t="s">
+      <c r="G78" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="161" t="s">
+      <c r="H78" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="161" t="s">
+      <c r="I78" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="J72" s="174" t="s">
+      <c r="J78" s="171" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75">
-      <c r="B73" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="183" t="s">
+    <row r="79" spans="2:10" ht="15.75">
+      <c r="B79" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="186" t="s">
+      <c r="D79" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="190">
+      <c r="E79" s="187">
         <v>42726</v>
       </c>
-      <c r="F73" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="193" t="s">
+      <c r="F79" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="195" t="s">
+      <c r="H79" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="I73" s="186"/>
-      <c r="J73" s="200"/>
-    </row>
-    <row r="74" spans="1:10" ht="30">
-      <c r="B74" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="183" t="s">
+      <c r="I79" s="183"/>
+      <c r="J79" s="197"/>
+    </row>
+    <row r="80" spans="2:10" ht="30">
+      <c r="B80" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="186" t="s">
+      <c r="D80" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="190">
+      <c r="E80" s="187">
         <v>42726</v>
       </c>
-      <c r="F74" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="193" t="s">
+      <c r="F80" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="H74" s="195" t="s">
+      <c r="H80" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="I74" s="195" t="s">
+      <c r="I80" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="J74" s="200" t="s">
+      <c r="J80" s="197" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75">
-      <c r="B75" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="183" t="s">
+    <row r="81" spans="1:10" ht="15.75">
+      <c r="B81" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="186" t="s">
+      <c r="D81" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="190">
+      <c r="E81" s="187">
         <v>42726</v>
       </c>
-      <c r="F75" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="193" t="s">
+      <c r="F81" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="H75" s="195" t="s">
+      <c r="H81" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="I75" s="186"/>
-      <c r="J75" s="200"/>
-    </row>
-    <row r="76" spans="1:10" ht="30">
-      <c r="B76" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="104" t="s">
+      <c r="I81" s="183"/>
+      <c r="J81" s="197"/>
+    </row>
+    <row r="82" spans="1:10" ht="30">
+      <c r="B82" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="240" t="s">
+      <c r="D82" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="E76" s="127">
+      <c r="E82" s="124">
         <v>42724</v>
       </c>
-      <c r="F76" s="246" t="s">
+      <c r="F82" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G76" s="248" t="s">
+      <c r="G82" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="H76" s="251" t="s">
+      <c r="H82" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="I76" s="240"/>
-      <c r="J76" s="169"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75">
-      <c r="B77" s="181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="183" t="s">
+      <c r="I82" s="253"/>
+      <c r="J82" s="166"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
+      <c r="B83" s="178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="186" t="s">
+      <c r="D83" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="E77" s="190">
+      <c r="E83" s="187">
         <v>42720</v>
       </c>
-      <c r="F77" s="191" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="193" t="s">
+      <c r="F83" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="195" t="s">
+      <c r="H83" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="I77" s="186"/>
-      <c r="J77" s="200"/>
-    </row>
-    <row r="78" spans="1:10" ht="60">
-      <c r="B78" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="112" t="s">
+      <c r="I83" s="183"/>
+      <c r="J83" s="197"/>
+    </row>
+    <row r="84" spans="1:10" ht="60">
+      <c r="B84" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="D78" s="123" t="s">
+      <c r="D84" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="136">
+      <c r="E84" s="133">
         <v>43110</v>
       </c>
-      <c r="F78" s="144" t="s">
+      <c r="F84" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G78" s="153" t="s">
+      <c r="G84" s="150" t="s">
         <v>268</v>
       </c>
-      <c r="H78" s="165" t="s">
+      <c r="H84" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="I78" s="165" t="s">
+      <c r="I84" s="162" t="s">
         <v>270</v>
       </c>
-      <c r="J78" s="179"/>
-    </row>
-    <row r="79" spans="1:10" ht="30">
-      <c r="B79" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="104" t="s">
+      <c r="J84" s="176"/>
+    </row>
+    <row r="85" spans="1:10" ht="30">
+      <c r="B85" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="D79" s="240" t="s">
+      <c r="D85" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="127">
+      <c r="E85" s="124">
         <v>42745</v>
       </c>
-      <c r="F79" s="246" t="s">
+      <c r="F85" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="248" t="s">
+      <c r="G85" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="H79" s="251" t="s">
+      <c r="H85" s="260" t="s">
         <v>122</v>
       </c>
-      <c r="I79" s="240" t="s">
+      <c r="I85" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="J79" s="169"/>
-    </row>
-    <row r="80" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A80" s="81"/>
-      <c r="B80" s="217" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="185" t="s">
+      <c r="J85" s="166"/>
+    </row>
+    <row r="86" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A86" s="79"/>
+      <c r="B86" s="213" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="188" t="s">
+      <c r="D86" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="190">
+      <c r="E86" s="187">
         <v>43355</v>
       </c>
-      <c r="F80" s="222" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" s="193" t="s">
+      <c r="F86" s="218" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="190" t="s">
         <v>391</v>
       </c>
-      <c r="H80" s="197" t="s">
+      <c r="H86" s="194" t="s">
         <v>392</v>
       </c>
-      <c r="I80" s="197" t="s">
+      <c r="I86" s="194" t="s">
         <v>393</v>
       </c>
-      <c r="J80" s="226"/>
-    </row>
-    <row r="81" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A81" s="81"/>
-      <c r="B81" s="217" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="185" t="s">
+      <c r="J86" s="222"/>
+    </row>
+    <row r="87" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A87" s="79"/>
+      <c r="B87" s="213" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="188" t="s">
+      <c r="D87" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="190">
+      <c r="E87" s="187">
         <v>43342</v>
       </c>
-      <c r="F81" s="222" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="193" t="s">
+      <c r="F87" s="218" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="190" t="s">
         <v>412</v>
       </c>
-      <c r="H81" s="197" t="s">
+      <c r="H87" s="194" t="s">
         <v>413</v>
       </c>
-      <c r="I81" s="197" t="s">
+      <c r="I87" s="194" t="s">
         <v>394</v>
       </c>
-      <c r="J81" s="226"/>
-    </row>
-    <row r="82" spans="1:10" ht="60">
-      <c r="A82" s="81"/>
-      <c r="B82" s="213" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="105" t="s">
+      <c r="J87" s="222"/>
+    </row>
+    <row r="88" spans="1:10" ht="60">
+      <c r="A88" s="79"/>
+      <c r="B88" s="210" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="116" t="s">
+      <c r="D88" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="134">
+      <c r="E88" s="131">
         <v>43334</v>
       </c>
-      <c r="F82" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H82" s="156" t="s">
-        <v>371</v>
-      </c>
-      <c r="I82" s="156" t="s">
-        <v>380</v>
-      </c>
-      <c r="J82" s="176"/>
-    </row>
-    <row r="83" spans="1:10" ht="30" customHeight="1">
-      <c r="A83" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="B83" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="134">
-        <v>43252</v>
-      </c>
-      <c r="F83" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H83" s="156" t="s">
-        <v>331</v>
-      </c>
-      <c r="I83" s="156" t="s">
-        <v>330</v>
-      </c>
-      <c r="J83" s="176"/>
-    </row>
-    <row r="84" spans="1:10" ht="45">
-      <c r="B84" s="234" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="229" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="244">
-        <v>43230</v>
-      </c>
-      <c r="F84" s="247" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" s="231" t="s">
-        <v>149</v>
-      </c>
-      <c r="H84" s="160" t="s">
-        <v>298</v>
-      </c>
-      <c r="I84" s="160" t="s">
-        <v>299</v>
-      </c>
-      <c r="J84" s="254"/>
-    </row>
-    <row r="85" spans="1:10" ht="30">
-      <c r="B85" s="234" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="229" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="244">
-        <v>43230</v>
-      </c>
-      <c r="F85" s="247" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" s="231" t="s">
-        <v>149</v>
-      </c>
-      <c r="H85" s="160" t="s">
-        <v>300</v>
-      </c>
-      <c r="I85" s="160" t="s">
-        <v>301</v>
-      </c>
-      <c r="J85" s="254"/>
-    </row>
-    <row r="86" spans="1:10" ht="30">
-      <c r="B86" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="134">
-        <v>43110</v>
-      </c>
-      <c r="F86" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H86" s="156" t="s">
-        <v>271</v>
-      </c>
-      <c r="I86" s="156" t="s">
-        <v>272</v>
-      </c>
-      <c r="J86" s="176"/>
-    </row>
-    <row r="87" spans="1:10" ht="45">
-      <c r="B87" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="134">
-        <v>42817</v>
-      </c>
-      <c r="F87" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H87" s="156" t="s">
-        <v>159</v>
-      </c>
-      <c r="I87" s="156" t="s">
-        <v>160</v>
-      </c>
-      <c r="J87" s="176"/>
-    </row>
-    <row r="88" spans="1:10" ht="45">
-      <c r="B88" s="236" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="239" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="243" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="245">
-        <v>42811</v>
-      </c>
-      <c r="F88" s="94" t="s">
-        <v>136</v>
+      <c r="F88" s="142" t="s">
+        <v>98</v>
       </c>
       <c r="G88" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="H88" s="252" t="s">
+      <c r="H88" s="153" t="s">
+        <v>371</v>
+      </c>
+      <c r="I88" s="153" t="s">
+        <v>380</v>
+      </c>
+      <c r="J88" s="173"/>
+    </row>
+    <row r="89" spans="1:10" ht="30" customHeight="1">
+      <c r="A89" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="131">
+        <v>43252</v>
+      </c>
+      <c r="F89" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="H89" s="153" t="s">
+        <v>331</v>
+      </c>
+      <c r="I89" s="153" t="s">
+        <v>330</v>
+      </c>
+      <c r="J89" s="173"/>
+    </row>
+    <row r="90" spans="1:10" ht="45">
+      <c r="B90" s="249" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="255">
+        <v>43230</v>
+      </c>
+      <c r="F90" s="258" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" s="227" t="s">
+        <v>149</v>
+      </c>
+      <c r="H90" s="157" t="s">
+        <v>298</v>
+      </c>
+      <c r="I90" s="157" t="s">
+        <v>299</v>
+      </c>
+      <c r="J90" s="262"/>
+    </row>
+    <row r="91" spans="1:10" ht="30">
+      <c r="B91" s="249" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="255">
+        <v>43230</v>
+      </c>
+      <c r="F91" s="258" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="227" t="s">
+        <v>149</v>
+      </c>
+      <c r="H91" s="157" t="s">
+        <v>300</v>
+      </c>
+      <c r="I91" s="157" t="s">
+        <v>301</v>
+      </c>
+      <c r="J91" s="262"/>
+    </row>
+    <row r="92" spans="1:10" ht="30">
+      <c r="B92" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="131">
+        <v>43110</v>
+      </c>
+      <c r="F92" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="H92" s="153" t="s">
+        <v>271</v>
+      </c>
+      <c r="I92" s="153" t="s">
+        <v>272</v>
+      </c>
+      <c r="J92" s="173"/>
+    </row>
+    <row r="93" spans="1:10" ht="45">
+      <c r="B93" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="131">
+        <v>42817</v>
+      </c>
+      <c r="F93" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="I93" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="J93" s="173"/>
+    </row>
+    <row r="94" spans="1:10" ht="45">
+      <c r="B94" s="250" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="254" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="256">
+        <v>42811</v>
+      </c>
+      <c r="F94" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G94" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" s="261" t="s">
         <v>150</v>
       </c>
-      <c r="I88" s="243" t="s">
+      <c r="I94" s="254" t="s">
         <v>151</v>
       </c>
-      <c r="J88" s="256"/>
-    </row>
-    <row r="89" spans="1:10" ht="45">
-      <c r="B89" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="108" t="s">
+      <c r="J94" s="263"/>
+    </row>
+    <row r="95" spans="1:10" ht="45">
+      <c r="B95" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="189" t="s">
+      <c r="D95" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="131">
+      <c r="E95" s="128">
         <v>42745</v>
       </c>
-      <c r="F89" s="192" t="s">
+      <c r="F95" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="194" t="s">
+      <c r="G95" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="H89" s="198" t="s">
+      <c r="H95" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="I89" s="189" t="s">
+      <c r="I95" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="J89" s="173"/>
-    </row>
-    <row r="90" spans="1:10" ht="45">
-      <c r="B90" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="106" t="s">
+      <c r="J95" s="170"/>
+    </row>
+    <row r="96" spans="1:10" ht="45">
+      <c r="B96" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="117" t="s">
+      <c r="D96" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="129">
+      <c r="E96" s="126">
         <v>42740</v>
       </c>
-      <c r="F90" s="141" t="s">
+      <c r="F96" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G90" s="150" t="s">
+      <c r="G96" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="H90" s="157" t="s">
+      <c r="H96" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="I90" s="117"/>
-      <c r="J90" s="171"/>
-    </row>
-    <row r="91" spans="1:10" ht="60">
-      <c r="B91" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="108" t="s">
+      <c r="I96" s="114"/>
+      <c r="J96" s="168"/>
+    </row>
+    <row r="97" spans="1:10" ht="60">
+      <c r="B97" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="189" t="s">
+      <c r="D97" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="131">
+      <c r="E97" s="128">
         <v>42734</v>
       </c>
-      <c r="F91" s="192" t="s">
+      <c r="F97" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="G91" s="194" t="s">
+      <c r="G97" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="H91" s="198" t="s">
+      <c r="H97" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="198" t="s">
+      <c r="I97" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="J91" s="173"/>
-    </row>
-    <row r="92" spans="1:10" ht="30">
-      <c r="B92" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="44" t="s">
+      <c r="J97" s="170"/>
+    </row>
+    <row r="98" spans="1:10" ht="30">
+      <c r="B98" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="65" t="s">
+      <c r="D98" s="206" t="s">
         <v>320</v>
       </c>
-      <c r="E92" s="28">
+      <c r="E98" s="126">
         <v>43334</v>
       </c>
-      <c r="F92" s="29" t="s">
+      <c r="F98" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G98" s="147" t="s">
         <v>372</v>
       </c>
-      <c r="H92" s="66" t="s">
+      <c r="H98" s="208" t="s">
         <v>373</v>
       </c>
-      <c r="I92" s="66"/>
-      <c r="J92" s="83"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75">
-      <c r="B93" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="44" t="s">
+      <c r="I98" s="208"/>
+      <c r="J98" s="237"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75">
+      <c r="B99" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="65" t="s">
+      <c r="D99" s="206" t="s">
         <v>320</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E99" s="126">
         <v>43261</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F99" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G93" s="32" t="s">
+      <c r="G99" s="147" t="s">
         <v>369</v>
       </c>
-      <c r="H93" s="66" t="s">
+      <c r="H99" s="208" t="s">
         <v>370</v>
       </c>
-      <c r="I93" s="66"/>
-      <c r="J93" s="83"/>
-    </row>
-    <row r="94" spans="1:10" ht="30" customHeight="1">
-      <c r="B94" s="233" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="237" t="s">
+      <c r="I99" s="208"/>
+      <c r="J99" s="237"/>
+    </row>
+    <row r="100" spans="1:10" ht="30" customHeight="1">
+      <c r="B100" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="209" t="s">
+      <c r="D100" s="206" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="129">
+      <c r="E100" s="126">
         <v>43242</v>
       </c>
-      <c r="F94" s="141" t="s">
+      <c r="F100" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G94" s="150" t="s">
+      <c r="G100" s="147" t="s">
         <v>318</v>
       </c>
-      <c r="H94" s="211" t="s">
+      <c r="H100" s="208" t="s">
         <v>319</v>
       </c>
-      <c r="I94" s="211"/>
-      <c r="J94" s="253"/>
-    </row>
-    <row r="95" spans="1:10" ht="30" customHeight="1">
-      <c r="B95" s="228" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="108" t="s">
+      <c r="I100" s="208"/>
+      <c r="J100" s="237"/>
+    </row>
+    <row r="101" spans="1:10" ht="30" customHeight="1">
+      <c r="B101" s="224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="229" t="s">
+      <c r="D101" s="225" t="s">
         <v>320</v>
       </c>
-      <c r="E95" s="230">
+      <c r="E101" s="226">
         <v>43237</v>
       </c>
-      <c r="F95" s="143" t="s">
+      <c r="F101" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="G95" s="231"/>
-      <c r="H95" s="160" t="s">
+      <c r="G101" s="227"/>
+      <c r="H101" s="157" t="s">
         <v>311</v>
       </c>
-      <c r="I95" s="160" t="s">
+      <c r="I101" s="157" t="s">
         <v>310</v>
       </c>
-      <c r="J95" s="232"/>
-    </row>
-    <row r="96" spans="1:10" ht="30" customHeight="1">
-      <c r="B96" s="233" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="237" t="s">
+      <c r="J101" s="228"/>
+    </row>
+    <row r="102" spans="1:10" ht="30" customHeight="1">
+      <c r="B102" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="231" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="209" t="s">
+      <c r="D102" s="206" t="s">
         <v>320</v>
       </c>
-      <c r="E96" s="129">
+      <c r="E102" s="126">
         <v>43237</v>
       </c>
-      <c r="F96" s="141" t="s">
+      <c r="F102" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G96" s="150"/>
-      <c r="H96" s="211" t="s">
+      <c r="G102" s="147"/>
+      <c r="H102" s="208" t="s">
         <v>312</v>
       </c>
-      <c r="I96" s="211" t="s">
+      <c r="I102" s="208" t="s">
         <v>313</v>
       </c>
-      <c r="J96" s="253"/>
-    </row>
-    <row r="97" spans="1:10" ht="30">
-      <c r="B97" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="106" t="s">
+      <c r="J102" s="237"/>
+    </row>
+    <row r="103" spans="1:10" ht="30">
+      <c r="B103" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="117" t="s">
+      <c r="D103" s="114" t="s">
         <v>320</v>
       </c>
-      <c r="E97" s="129">
+      <c r="E103" s="126">
         <v>42809</v>
       </c>
-      <c r="F97" s="141" t="s">
+      <c r="F103" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="G97" s="150"/>
-      <c r="H97" s="157" t="s">
+      <c r="G103" s="147"/>
+      <c r="H103" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="I97" s="157" t="s">
+      <c r="I103" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="J97" s="171"/>
-    </row>
-    <row r="98" spans="1:10" ht="45">
-      <c r="B98" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="108" t="s">
+      <c r="J103" s="168"/>
+    </row>
+    <row r="104" spans="1:10" ht="45">
+      <c r="B104" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="189" t="s">
+      <c r="D104" s="186" t="s">
         <v>320</v>
       </c>
-      <c r="E98" s="131">
+      <c r="E104" s="128">
         <v>42749</v>
       </c>
-      <c r="F98" s="192" t="s">
+      <c r="F104" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="G98" s="189"/>
-      <c r="H98" s="198" t="s">
+      <c r="G104" s="186"/>
+      <c r="H104" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="I98" s="198" t="s">
+      <c r="I104" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="173"/>
-    </row>
-    <row r="99" spans="1:10" ht="30" customHeight="1">
-      <c r="B99" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="107" t="s">
+      <c r="J104" s="170"/>
+    </row>
+    <row r="105" spans="1:10" ht="30" customHeight="1">
+      <c r="B105" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="119" t="s">
+      <c r="D105" s="116" t="s">
         <v>320</v>
       </c>
-      <c r="E99" s="130">
+      <c r="E105" s="127">
         <v>42709</v>
       </c>
-      <c r="F99" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G99" s="151"/>
-      <c r="H99" s="159" t="s">
+      <c r="F105" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G105" s="148"/>
+      <c r="H105" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="I99" s="159" t="s">
+      <c r="I105" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="J99" s="172" t="s">
+      <c r="J105" s="169" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="75">
-      <c r="B100" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="106" t="s">
+    <row r="106" spans="1:10" ht="75">
+      <c r="B106" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="117" t="s">
+      <c r="D106" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="E100" s="129">
+      <c r="E106" s="126">
         <v>42816</v>
       </c>
-      <c r="F100" s="90" t="s">
+      <c r="F106" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="G100" s="90" t="s">
+      <c r="G106" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="H100" s="196" t="s">
+      <c r="H106" s="193" t="s">
         <v>154</v>
       </c>
-      <c r="I100" s="196" t="s">
+      <c r="I106" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="J100" s="196"/>
-    </row>
-    <row r="101" spans="1:10" ht="60">
-      <c r="B101" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="106" t="s">
+      <c r="J106" s="193"/>
+    </row>
+    <row r="107" spans="1:10" ht="60">
+      <c r="B107" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="117" t="s">
+      <c r="D107" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="E101" s="129">
+      <c r="E107" s="126">
         <v>42705</v>
       </c>
-      <c r="F101" s="90" t="s">
+      <c r="F107" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="G101" s="90" t="s">
+      <c r="G107" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="H101" s="196" t="s">
+      <c r="H107" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="I101" s="196" t="s">
+      <c r="I107" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="J101" s="196"/>
-    </row>
-    <row r="102" spans="1:10" ht="60">
-      <c r="B102" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="107" t="s">
+      <c r="J107" s="193"/>
+    </row>
+    <row r="108" spans="1:10" ht="45">
+      <c r="B108" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="119" t="s">
+      <c r="D108" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="E102" s="130">
+      <c r="E108" s="123">
+        <v>43475</v>
+      </c>
+      <c r="F108" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G108" s="145" t="s">
+        <v>459</v>
+      </c>
+      <c r="H108" s="160" t="s">
+        <v>460</v>
+      </c>
+      <c r="I108" s="160" t="s">
+        <v>461</v>
+      </c>
+      <c r="J108" s="165"/>
+    </row>
+    <row r="109" spans="1:10" ht="60">
+      <c r="B109" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E109" s="127">
         <v>43381</v>
       </c>
-      <c r="F102" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G102" s="151" t="s">
+      <c r="F109" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G109" s="148" t="s">
         <v>387</v>
       </c>
-      <c r="H102" s="159" t="s">
+      <c r="H109" s="156" t="s">
         <v>388</v>
       </c>
-      <c r="I102" s="159"/>
-      <c r="J102" s="172"/>
-    </row>
-    <row r="103" spans="1:10" ht="30" customHeight="1">
-      <c r="A103" s="80" t="s">
+      <c r="I109" s="156"/>
+      <c r="J109" s="169"/>
+    </row>
+    <row r="110" spans="1:10" ht="30" customHeight="1">
+      <c r="A110" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B103" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E103" s="34">
-        <v>43269</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="G103" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="H103" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="I103" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="J103" s="54"/>
-    </row>
-    <row r="104" spans="1:10" ht="45">
-      <c r="A104" s="80" t="s">
-        <v>280</v>
-      </c>
-      <c r="B104" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D104" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="E104" s="130">
-        <v>43264</v>
-      </c>
-      <c r="F104" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G104" s="151" t="s">
-        <v>351</v>
-      </c>
-      <c r="H104" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="I104" s="159"/>
-      <c r="J104" s="172"/>
-    </row>
-    <row r="105" spans="1:10" ht="30">
-      <c r="B105" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D105" s="119" t="s">
-        <v>175</v>
-      </c>
-      <c r="E105" s="130">
-        <v>43198</v>
-      </c>
-      <c r="F105" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G105" s="151" t="s">
-        <v>302</v>
-      </c>
-      <c r="H105" s="159" t="s">
-        <v>303</v>
-      </c>
-      <c r="I105" s="159"/>
-      <c r="J105" s="172"/>
-    </row>
-    <row r="106" spans="1:10" ht="30">
-      <c r="B106" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D106" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="E106" s="130">
-        <v>43047</v>
-      </c>
-      <c r="F106" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G106" s="151" t="s">
-        <v>245</v>
-      </c>
-      <c r="H106" s="159" t="s">
-        <v>246</v>
-      </c>
-      <c r="I106" s="159" t="s">
-        <v>247</v>
-      </c>
-      <c r="J106" s="172"/>
-    </row>
-    <row r="107" spans="1:10" ht="30">
-      <c r="B107" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="E107" s="130">
-        <v>43013</v>
-      </c>
-      <c r="F107" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="G107" s="151" t="s">
-        <v>244</v>
-      </c>
-      <c r="H107" s="159" t="s">
-        <v>222</v>
-      </c>
-      <c r="I107" s="159" t="s">
-        <v>223</v>
-      </c>
-      <c r="J107" s="172"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75">
-      <c r="B108" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="110" t="s">
-        <v>174</v>
-      </c>
-      <c r="D108" s="121" t="s">
-        <v>133</v>
-      </c>
-      <c r="E108" s="133">
-        <v>42781</v>
-      </c>
-      <c r="F108" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="G108" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="H108" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="I108" s="121"/>
-      <c r="J108" s="175"/>
-    </row>
-    <row r="109" spans="1:10" ht="36">
-      <c r="A109" s="80"/>
-      <c r="B109" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E109" s="20">
-        <v>42555</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="H109" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="I109" s="23"/>
-      <c r="J109" s="53"/>
-    </row>
-    <row r="110" spans="1:10" ht="45">
       <c r="B110" s="33" t="s">
         <v>16</v>
       </c>
@@ -5621,109 +5707,294 @@
         <v>179</v>
       </c>
       <c r="E110" s="34">
+        <v>43269</v>
+      </c>
+      <c r="F110" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G110" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H110" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="I110" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="J110" s="54"/>
+    </row>
+    <row r="111" spans="1:10" ht="45">
+      <c r="A111" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" s="127">
+        <v>43264</v>
+      </c>
+      <c r="F111" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G111" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="H111" s="146" t="s">
+        <v>354</v>
+      </c>
+      <c r="I111" s="156"/>
+      <c r="J111" s="169"/>
+    </row>
+    <row r="112" spans="1:10" ht="30">
+      <c r="B112" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" s="127">
+        <v>43198</v>
+      </c>
+      <c r="F112" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G112" s="148" t="s">
+        <v>302</v>
+      </c>
+      <c r="H112" s="156" t="s">
+        <v>303</v>
+      </c>
+      <c r="I112" s="156"/>
+      <c r="J112" s="169"/>
+    </row>
+    <row r="113" spans="1:10" ht="30">
+      <c r="B113" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="E113" s="127">
+        <v>43047</v>
+      </c>
+      <c r="F113" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G113" s="148" t="s">
+        <v>245</v>
+      </c>
+      <c r="H113" s="156" t="s">
+        <v>246</v>
+      </c>
+      <c r="I113" s="156" t="s">
+        <v>247</v>
+      </c>
+      <c r="J113" s="169"/>
+    </row>
+    <row r="114" spans="1:10" ht="30">
+      <c r="B114" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" s="127">
+        <v>43013</v>
+      </c>
+      <c r="F114" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="G114" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="H114" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="I114" s="156" t="s">
+        <v>223</v>
+      </c>
+      <c r="J114" s="169"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75">
+      <c r="B115" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="130">
+        <v>42781</v>
+      </c>
+      <c r="F115" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G115" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="H115" s="159" t="s">
+        <v>135</v>
+      </c>
+      <c r="I115" s="118"/>
+      <c r="J115" s="172"/>
+    </row>
+    <row r="116" spans="1:10" ht="36">
+      <c r="A116" s="78"/>
+      <c r="B116" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" s="20">
+        <v>42555</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H116" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="I116" s="23"/>
+      <c r="J116" s="53"/>
+    </row>
+    <row r="117" spans="1:10" ht="45">
+      <c r="B117" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E117" s="34">
         <v>42488</v>
       </c>
-      <c r="F110" s="35" t="s">
+      <c r="F117" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G110" s="36" t="s">
+      <c r="G117" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="H110" s="37" t="s">
+      <c r="H117" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="I110" s="37" t="s">
+      <c r="I117" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="J110" s="54"/>
-    </row>
-    <row r="111" spans="1:10" ht="30">
-      <c r="B111" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="103" t="s">
+      <c r="J117" s="54"/>
+    </row>
+    <row r="118" spans="1:10" ht="30">
+      <c r="B118" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="115" t="s">
+      <c r="D118" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="E111" s="126">
+      <c r="E118" s="123">
         <v>42468</v>
       </c>
-      <c r="F111" s="139" t="s">
+      <c r="F118" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="G111" s="148" t="s">
+      <c r="G118" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="H111" s="163" t="s">
+      <c r="H118" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="I111" s="163"/>
-      <c r="J111" s="168"/>
-    </row>
-    <row r="112" spans="1:10" ht="30">
-      <c r="B112" s="218" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="219" t="s">
+      <c r="I118" s="160"/>
+      <c r="J118" s="165"/>
+    </row>
+    <row r="119" spans="1:10" ht="30">
+      <c r="B119" s="214" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="215" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="220" t="s">
+      <c r="D119" s="216" t="s">
         <v>177</v>
       </c>
-      <c r="E112" s="221">
+      <c r="E119" s="217">
         <v>42451</v>
       </c>
-      <c r="F112" s="223" t="s">
+      <c r="F119" s="219" t="s">
         <v>136</v>
       </c>
-      <c r="G112" s="224" t="s">
+      <c r="G119" s="220" t="s">
         <v>183</v>
       </c>
-      <c r="H112" s="225" t="s">
+      <c r="H119" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="I112" s="225"/>
-      <c r="J112" s="227"/>
-    </row>
-    <row r="113" spans="2:10" ht="15.75">
-      <c r="B113" s="86"/>
-      <c r="C113" s="101"/>
-      <c r="D113" s="114"/>
-      <c r="E113" s="125"/>
-      <c r="F113" s="137"/>
-      <c r="G113" s="146"/>
-      <c r="H113" s="154"/>
-      <c r="I113" s="114"/>
-      <c r="J113" s="166"/>
-    </row>
-    <row r="114" spans="2:10" ht="15.75">
-      <c r="B114" s="85"/>
-      <c r="C114" s="102"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="124"/>
-      <c r="F114" s="138"/>
-      <c r="G114" s="147"/>
-      <c r="H114" s="155"/>
-      <c r="I114" s="113"/>
-      <c r="J114" s="167"/>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="85"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="124"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="113"/>
-      <c r="H115" s="113"/>
-      <c r="I115" s="113"/>
-      <c r="J115" s="167"/>
+      <c r="I119" s="221"/>
+      <c r="J119" s="223"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75">
+      <c r="B120" s="83"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="111"/>
+      <c r="E120" s="122"/>
+      <c r="F120" s="134"/>
+      <c r="G120" s="143"/>
+      <c r="H120" s="151"/>
+      <c r="I120" s="111"/>
+      <c r="J120" s="163"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75">
+      <c r="B121" s="82"/>
+      <c r="C121" s="99"/>
+      <c r="D121" s="110"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="135"/>
+      <c r="G121" s="144"/>
+      <c r="H121" s="152"/>
+      <c r="I121" s="110"/>
+      <c r="J121" s="164"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="B122" s="82"/>
+      <c r="C122" s="97"/>
+      <c r="D122" s="110"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="110"/>
+      <c r="H122" s="110"/>
+      <c r="I122" s="110"/>
+      <c r="J122" s="164"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J108">
-    <sortState ref="A3:J106">
-      <sortCondition ref="C2:C102"/>
+  <autoFilter ref="A2:J115">
+    <sortState ref="A3:J119">
+      <sortCondition ref="C2:C115"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -5737,10 +6008,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:M50"/>
+  <dimension ref="B1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5759,17 +6030,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="33" customHeight="1">
-      <c r="B1" s="261" t="s">
+      <c r="B1" s="248" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
     </row>
     <row r="2" spans="2:13" s="6" customFormat="1" ht="41.25" customHeight="1">
       <c r="B2" s="3" t="s">
@@ -6145,7 +6416,7 @@
       <c r="C17" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="214" t="s">
+      <c r="D17" s="211" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="58">
@@ -6154,14 +6425,14 @@
       <c r="F17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="215"/>
+      <c r="G17" s="212"/>
       <c r="H17" s="60" t="s">
         <v>377</v>
       </c>
       <c r="I17" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="J17" s="79"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" spans="2:10" ht="30">
       <c r="B18" s="11" t="s">
@@ -6376,83 +6647,87 @@
       </c>
       <c r="J26" s="49"/>
     </row>
-    <row r="27" spans="2:10" ht="30" customHeight="1"/>
-    <row r="28" spans="2:10" ht="60">
-      <c r="B28" s="43" t="s">
+    <row r="27" spans="2:10" ht="60">
+      <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C27" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="13">
+        <v>43481</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="2:10" ht="30" customHeight="1"/>
+    <row r="29" spans="2:10" ht="60">
+      <c r="B29" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E29" s="46">
         <v>42741</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F29" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G29" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H29" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="49"/>
-    </row>
-    <row r="29" spans="2:10" ht="45">
-      <c r="B29" s="11" t="s">
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="2:10" ht="45">
+      <c r="B30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C30" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>42745</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H30" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="2:10" ht="30">
-      <c r="B30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20">
-        <v>42745</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="2:10" ht="30">
       <c r="B31" s="18" t="s">
@@ -6463,20 +6738,18 @@
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="20">
-        <v>42793</v>
+        <v>42745</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>98</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I31" s="23"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:10" ht="30">
@@ -6488,50 +6761,48 @@
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="20">
+        <v>42793</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="2:10" ht="30">
+      <c r="B33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20">
         <v>42802</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="F33" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H33" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I33" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="2:10" ht="30">
-      <c r="B33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="13">
-        <v>42839</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75">
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="2:10" ht="30">
       <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
@@ -6542,180 +6813,178 @@
         <v>56</v>
       </c>
       <c r="E34" s="13">
-        <v>43053</v>
+        <v>42839</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G34" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75">
+      <c r="B35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="13">
+        <v>43053</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="H34" s="55" t="s">
+      <c r="H35" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I35" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="2:10" ht="60">
-      <c r="B35" s="43" t="s">
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:10" ht="60">
+      <c r="B36" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C36" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E36" s="46">
         <v>43080</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F36" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="H35" s="66" t="s">
+      <c r="H36" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="I35" s="66" t="s">
+      <c r="I36" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="J35" s="49"/>
-    </row>
-    <row r="36" spans="2:10" ht="30" customHeight="1"/>
-    <row r="37" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B37" s="63" t="s">
+      <c r="J36" s="49"/>
+    </row>
+    <row r="37" spans="2:10" ht="60">
+      <c r="B37" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="46">
+        <v>43470</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="I37" s="66"/>
+      <c r="J37" s="49"/>
+    </row>
+    <row r="38" spans="2:10" ht="60">
+      <c r="B38" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="46">
+        <v>43470</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="J38" s="49"/>
+    </row>
+    <row r="39" spans="2:10" ht="75">
+      <c r="B39" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="46">
+        <v>43470</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="I39" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="J39" s="49"/>
+    </row>
+    <row r="40" spans="2:10" ht="30" customHeight="1"/>
+    <row r="41" spans="2:10" ht="38.25" customHeight="1">
+      <c r="B41" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63">
+      <c r="D41" s="63"/>
+      <c r="E41" s="63">
         <v>42826</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F41" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G41" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H41" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-    </row>
-    <row r="38" spans="2:10" ht="60">
-      <c r="B38" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="13">
-        <v>42996</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="I38" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="J38" s="52"/>
-    </row>
-    <row r="39" spans="2:10" ht="30">
-      <c r="B39" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="58">
-        <v>43023</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="J39" s="59"/>
-    </row>
-    <row r="40" spans="2:10" ht="30">
-      <c r="B40" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="13">
-        <v>43047</v>
-      </c>
-      <c r="F40" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="J40" s="52"/>
-    </row>
-    <row r="41" spans="2:10" ht="45">
-      <c r="B41" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="13">
-        <v>43047</v>
-      </c>
-      <c r="F41" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="H41" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="I41" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="J41" s="52"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
     </row>
     <row r="42" spans="2:10" ht="60">
       <c r="B42" s="74" t="s">
@@ -6725,180 +6994,288 @@
         <v>164</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E42" s="13">
-        <v>43411</v>
+        <v>42996</v>
       </c>
       <c r="F42" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" s="52"/>
+    </row>
+    <row r="43" spans="2:10" ht="30">
+      <c r="B43" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="58">
+        <v>43023</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="J43" s="59"/>
+    </row>
+    <row r="44" spans="2:10" ht="30">
+      <c r="B44" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" s="13">
+        <v>43047</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" s="52"/>
+    </row>
+    <row r="45" spans="2:10" ht="45">
+      <c r="B45" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="13">
+        <v>43047</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="J45" s="52"/>
+    </row>
+    <row r="46" spans="2:10" ht="60">
+      <c r="B46" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="13">
+        <v>43411</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="75" t="s">
         <v>406</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="H46" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="I42" s="55" t="s">
+      <c r="I46" s="55" t="s">
         <v>408</v>
       </c>
-      <c r="J42" s="52"/>
-    </row>
-    <row r="43" spans="2:10" ht="29.25" customHeight="1"/>
-    <row r="44" spans="2:10" ht="30">
-      <c r="B44" s="56" t="s">
+      <c r="J46" s="52"/>
+    </row>
+    <row r="47" spans="2:10" ht="29.25" customHeight="1"/>
+    <row r="48" spans="2:10" ht="30">
+      <c r="B48" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C48" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D48" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E48" s="58">
         <v>43110</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="22" t="s">
+      <c r="F48" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H44" s="60" t="s">
+      <c r="H48" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="I44" s="60"/>
-      <c r="J44" s="79"/>
-    </row>
-    <row r="45" spans="2:10" ht="45">
-      <c r="B45" s="56" t="s">
+      <c r="I48" s="60"/>
+      <c r="J48" s="77"/>
+    </row>
+    <row r="49" spans="2:10" ht="45">
+      <c r="B49" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C49" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D49" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E49" s="58">
         <v>43264</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="22" t="s">
+      <c r="F49" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H49" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="I45" s="60"/>
-      <c r="J45" s="79"/>
-    </row>
-    <row r="46" spans="2:10" ht="45">
-      <c r="B46" s="56" t="s">
+      <c r="I49" s="60"/>
+      <c r="J49" s="77"/>
+    </row>
+    <row r="50" spans="2:10" ht="45">
+      <c r="B50" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C50" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D50" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E50" s="58">
         <v>43381</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="22" t="s">
+      <c r="F50" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H50" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="I46" s="60"/>
-      <c r="J46" s="79"/>
-    </row>
-    <row r="47" spans="2:10" ht="30" customHeight="1"/>
-    <row r="48" spans="2:10" ht="45">
-      <c r="B48" s="18" t="s">
+      <c r="I50" s="60"/>
+      <c r="J50" s="77"/>
+    </row>
+    <row r="51" spans="2:10" ht="30" customHeight="1"/>
+    <row r="52" spans="2:10" ht="45">
+      <c r="B52" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C52" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D52" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E52" s="20">
         <v>42750</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="19" t="s">
+      <c r="F52" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H52" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" spans="2:10" ht="60">
-      <c r="B49" s="18" t="s">
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="2:10" ht="60">
+      <c r="B53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C53" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D53" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E53" s="20">
         <v>42750</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="22" t="s">
+      <c r="F53" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H53" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="23" t="s">
+      <c r="I53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="2:10" ht="30">
-      <c r="B50" s="18" t="s">
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="2:10" ht="30">
+      <c r="B54" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C54" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E54" s="20">
         <v>42750</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="22" t="s">
+      <c r="F54" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I54" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="24"/>
+      <c r="J54" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Codebase_Tracker.xlsx
+++ b/Codebase_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProPack" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="Pending" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProPack!$A$2:$J$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StudioPack!$B$2:$J$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProPack!$A$2:$J$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StudioPack!$B$2:$J$70</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="577">
   <si>
     <t>Module</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>HIK support extended within the Pro_TO_BND functionality such that you can now add HIK property presets.</t>
   </si>
   <si>
-    <t>Added multiple r9Anim file hanldiong with the browser, for triggering the exporter calls directly from the r9Anim data itself.</t>
-  </si>
-  <si>
     <t>Allows for Playblasting, exporting, converting to Maya file etc.</t>
   </si>
   <si>
@@ -1718,9 +1715,6 @@
     <t>r9Data</t>
   </si>
   <si>
-    <t>Class handling tightened up as there was a leak in the code when the settings dicts were first  being instantiated.</t>
-  </si>
-  <si>
     <t>Bug fix</t>
   </si>
   <si>
@@ -1733,12 +1727,6 @@
     <t>globals, uibase, r9pro</t>
   </si>
   <si>
-    <t>r9Pro / r9co files and boot sequence modified to handle new licensing system.</t>
-  </si>
-  <si>
-    <t>Big update to all the r9Co setup and the r0Pro management internally</t>
-  </si>
-  <si>
     <t>Pro_to_BND</t>
   </si>
   <si>
@@ -1749,6 +1737,66 @@
   </si>
   <si>
     <t>it used to be that if the flag was on you'd get both blends and meshes regardless of the other flags. Now if just this flag is set you just get the blend data and the basejnts, not all meshes regardless</t>
+  </si>
+  <si>
+    <t>Class handling tightened up as there was a leak in the code when the settings dicts were first  being instantiated. Lots of internal code updates to make this a more solid codebase</t>
+  </si>
+  <si>
+    <t>Big update to all the r9Co setup and the r9Pro management internally</t>
+  </si>
+  <si>
+    <t>r9Pro / r9co files and boot sequence modified to handle new licensing system. R9co format changed</t>
+  </si>
+  <si>
+    <t>modified all codebase to be more compliant with 4k setups</t>
+  </si>
+  <si>
+    <t>animMap_restore_export_data                 animMap_restore_audio_data                  animMap_validate</t>
+  </si>
+  <si>
+    <t>These are all designed to tighten up the support for the r9Anim data flow</t>
+  </si>
+  <si>
+    <t>Allows you to properly resolve bad audio paths before loading</t>
+  </si>
+  <si>
+    <t>resolve_path</t>
+  </si>
+  <si>
+    <t>new function to dynamically resolve bad paths. This will expand the filename existance search to either a given 'path_hint' list of folders, the Maya workspace mounts for the relevant filetype, or the current maya scene location.</t>
+  </si>
+  <si>
+    <t>This loosely mimics the Maya file handling, allowing paths to be corrected in code. Currently run in the r9Anim postload UI</t>
+  </si>
+  <si>
+    <t>The handling of the presets has been tightened, previously if you'd built a new preset in the StudioPack AnimUI hierarchy tab but deleted after Maya was closed then this would bail the ProPack Uis as they're looking to load the last used preset.</t>
+  </si>
+  <si>
+    <t>Logic updated, if the last used preset no longer exists we default to the current PROJECT_DATA.data.pose_basePreset</t>
+  </si>
+  <si>
+    <t>AnimationStore UI, Anim_Redirect UI</t>
+  </si>
+  <si>
+    <t>AnimationStore UI</t>
+  </si>
+  <si>
+    <t>The Animation postload UI now allows you to resolve invalid audio paths before load. These get mapped via a new function in importexport "resolve_path"</t>
+  </si>
+  <si>
+    <t>updates to the way we handle the extraction and management of the animMap_restore functions. The validate call never used to build the internal times which it now does. The restore methods now properly return times as floats. The Mrig.loadAnimation call can also now take an already instantiated AnimMap() class to use rather than always reading from disc (new **kws: ANIMMAP)</t>
+  </si>
+  <si>
+    <t>Added multiple r9Anim file hanlding with the browser, for triggering the exporter calls directly from the r9Anim data itself.</t>
+  </si>
+  <si>
+    <t>AnimationLayerContext</t>
+  </si>
+  <si>
+    <t>This wasn'tdealing with locked layers correctly</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
@@ -2817,9 +2865,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2828,6 +2873,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3143,11 +3191,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3166,18 +3214,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="162" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="285" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -3211,447 +3259,449 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="B3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="E3" s="271">
-        <v>43695</v>
-      </c>
-      <c r="F3" s="17" t="s">
+    <row r="3" spans="1:10" ht="60">
+      <c r="B3" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="259">
+        <v>43728</v>
+      </c>
+      <c r="F3" s="260" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="258" t="s">
+        <v>569</v>
+      </c>
+      <c r="H3" s="262" t="s">
+        <v>567</v>
+      </c>
+      <c r="I3" s="262" t="s">
+        <v>568</v>
+      </c>
+      <c r="J3" s="279"/>
+    </row>
+    <row r="4" spans="1:10" ht="60">
+      <c r="A4" s="40"/>
+      <c r="B4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="94">
+        <v>43605</v>
+      </c>
+      <c r="F4" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>556</v>
-      </c>
-      <c r="J3" s="278"/>
-    </row>
-    <row r="4" spans="1:10" ht="30">
-      <c r="B4" s="275" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="257" t="s">
-        <v>549</v>
-      </c>
-      <c r="D4" s="258" t="s">
-        <v>549</v>
-      </c>
-      <c r="E4" s="259">
-        <v>43695</v>
-      </c>
-      <c r="F4" s="260" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="258" t="s">
-        <v>549</v>
-      </c>
-      <c r="H4" s="262" t="s">
-        <v>550</v>
-      </c>
-      <c r="I4" s="262" t="s">
-        <v>551</v>
-      </c>
-      <c r="J4" s="279"/>
-    </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="B5" s="275" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="257" t="s">
+      <c r="G4" s="111" t="s">
+        <v>564</v>
+      </c>
+      <c r="H4" s="123" t="s">
+        <v>565</v>
+      </c>
+      <c r="I4" s="123" t="s">
+        <v>566</v>
+      </c>
+      <c r="J4" s="137"/>
+    </row>
+    <row r="5" spans="1:10" ht="45">
+      <c r="B5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="258" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="259">
-        <v>43692</v>
-      </c>
-      <c r="F5" s="260" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="280" t="s">
-        <v>557</v>
-      </c>
-      <c r="H5" s="262" t="s">
-        <v>558</v>
-      </c>
-      <c r="I5" s="262"/>
-      <c r="J5" s="281"/>
-    </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="B6" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="271">
+        <v>43728</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="J5" s="278"/>
+    </row>
+    <row r="6" spans="1:10" ht="105">
+      <c r="A6" s="40"/>
+      <c r="B6" s="268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="269" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="270" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="271">
-        <v>43637</v>
+        <v>43728</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>543</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="J6" s="278"/>
-    </row>
-    <row r="7" spans="1:10" ht="30">
+      <c r="G6" s="194" t="s">
+        <v>561</v>
+      </c>
+      <c r="H6" s="272" t="s">
+        <v>572</v>
+      </c>
+      <c r="I6" s="272" t="s">
+        <v>562</v>
+      </c>
+      <c r="J6" s="273"/>
+    </row>
+    <row r="7" spans="1:10" ht="36">
+      <c r="A7" s="40" t="s">
+        <v>280</v>
+      </c>
       <c r="B7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>28</v>
+        <v>550</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="E7" s="27">
-        <v>43637</v>
+        <v>551</v>
+      </c>
+      <c r="E7" s="271">
+        <v>43695</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="194" t="s">
+      <c r="G7" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="J7" s="278"/>
+    </row>
+    <row r="8" spans="1:10" ht="45">
+      <c r="B8" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="257" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="258" t="s">
+        <v>548</v>
+      </c>
+      <c r="E8" s="259">
+        <v>43695</v>
+      </c>
+      <c r="F8" s="260" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="258" t="s">
+        <v>548</v>
+      </c>
+      <c r="H8" s="262" t="s">
+        <v>557</v>
+      </c>
+      <c r="I8" s="262" t="s">
+        <v>549</v>
+      </c>
+      <c r="J8" s="279"/>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="B9" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="258" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="259">
+        <v>43692</v>
+      </c>
+      <c r="F9" s="260" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="280" t="s">
+        <v>553</v>
+      </c>
+      <c r="H9" s="262" t="s">
+        <v>554</v>
+      </c>
+      <c r="I9" s="262"/>
+      <c r="J9" s="281"/>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="B10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="271">
+        <v>43637</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="J10" s="278"/>
+    </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="B11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="27">
+        <v>43637</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="194" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>548</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="J7" s="195"/>
-    </row>
-    <row r="8" spans="1:10" ht="45">
-      <c r="B8" s="268" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="269" t="s">
+      <c r="J11" s="195"/>
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="B12" s="268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="270" t="s">
+      <c r="D12" s="270" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" s="87">
+        <v>43630</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="194" t="s">
         <v>538</v>
       </c>
-      <c r="E8" s="87">
+      <c r="H12" s="272" t="s">
+        <v>539</v>
+      </c>
+      <c r="I12" s="272" t="s">
+        <v>556</v>
+      </c>
+      <c r="J12" s="273"/>
+    </row>
+    <row r="13" spans="1:10" ht="90">
+      <c r="A13" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="264" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="265" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="E13" s="176">
         <v>43630</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="266" t="s">
+        <v>533</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="J13" s="267"/>
+    </row>
+    <row r="14" spans="1:10" ht="33.75">
+      <c r="A14" s="41"/>
+      <c r="B14" s="282" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="185">
+        <v>43617</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="186" t="s">
+        <v>525</v>
+      </c>
+      <c r="H14" s="118" t="s">
+        <v>526</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>527</v>
+      </c>
+      <c r="J14" s="284"/>
+    </row>
+    <row r="15" spans="1:10" ht="45">
+      <c r="A15" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="94">
+        <v>43605</v>
+      </c>
+      <c r="F15" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="194" t="s">
-        <v>539</v>
-      </c>
-      <c r="H8" s="272" t="s">
-        <v>540</v>
-      </c>
-      <c r="I8" s="272" t="s">
-        <v>560</v>
-      </c>
-      <c r="J8" s="273"/>
-    </row>
-    <row r="9" spans="1:10" ht="90">
-      <c r="A9" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="264" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="265" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="E9" s="176">
-        <v>43630</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="G15" s="111" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="123" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>375</v>
+      </c>
+      <c r="J15" s="137"/>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="B16" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="189" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="87">
+        <v>43562</v>
+      </c>
+      <c r="F16" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="167" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="169" t="s">
+        <v>573</v>
+      </c>
+      <c r="I16" s="169" t="s">
+        <v>510</v>
+      </c>
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="B17" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="143" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="146" t="s">
+        <v>505</v>
+      </c>
+      <c r="E17" s="148">
+        <v>43560</v>
+      </c>
+      <c r="F17" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="155" t="s">
+        <v>509</v>
+      </c>
+      <c r="I17" s="155" t="s">
+        <v>506</v>
+      </c>
+      <c r="J17" s="161"/>
+    </row>
+    <row r="18" spans="1:10" ht="60">
+      <c r="B18" s="255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="247" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="248" t="s">
+        <v>505</v>
+      </c>
+      <c r="E18" s="84">
+        <v>43557</v>
+      </c>
+      <c r="F18" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="266" t="s">
-        <v>534</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="J9" s="267"/>
-    </row>
-    <row r="10" spans="1:10" ht="33.75">
-      <c r="A10" s="41"/>
-      <c r="B10" s="283" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="184" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="185">
-        <v>43617</v>
-      </c>
-      <c r="F10" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="186" t="s">
-        <v>526</v>
-      </c>
-      <c r="H10" s="118" t="s">
-        <v>527</v>
-      </c>
-      <c r="I10" s="118" t="s">
-        <v>528</v>
-      </c>
-      <c r="J10" s="285"/>
-    </row>
-    <row r="11" spans="1:10" ht="45">
-      <c r="A11" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="163" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" s="94">
-        <v>43605</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="111" t="s">
-        <v>277</v>
-      </c>
-      <c r="H11" s="123" t="s">
-        <v>525</v>
-      </c>
-      <c r="I11" s="123" t="s">
-        <v>375</v>
-      </c>
-      <c r="J11" s="137"/>
-    </row>
-    <row r="12" spans="1:10" ht="45">
-      <c r="B12" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="189" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="167" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="87">
-        <v>43562</v>
-      </c>
-      <c r="F12" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="167" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="169" t="s">
-        <v>510</v>
-      </c>
-      <c r="I12" s="169" t="s">
-        <v>511</v>
-      </c>
-      <c r="J12" s="193"/>
-    </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="B13" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="143" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="146" t="s">
-        <v>505</v>
-      </c>
-      <c r="E13" s="148">
-        <v>43560</v>
-      </c>
-      <c r="F13" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="146" t="s">
+      <c r="G18" s="248" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="155" t="s">
-        <v>509</v>
-      </c>
-      <c r="I13" s="155" t="s">
-        <v>506</v>
-      </c>
-      <c r="J13" s="161"/>
-    </row>
-    <row r="14" spans="1:10" ht="60">
-      <c r="B14" s="255" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="247" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="248" t="s">
-        <v>505</v>
-      </c>
-      <c r="E14" s="84">
-        <v>43557</v>
-      </c>
-      <c r="F14" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="248" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="251" t="s">
+      <c r="H18" s="251" t="s">
         <v>507</v>
       </c>
-      <c r="I14" s="251" t="s">
+      <c r="I18" s="251" t="s">
         <v>508</v>
       </c>
-      <c r="J14" s="284"/>
-    </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="B15" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="148">
-        <v>43539</v>
-      </c>
-      <c r="F15" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="151" t="s">
-        <v>495</v>
-      </c>
-      <c r="H15" s="153" t="s">
-        <v>496</v>
-      </c>
-      <c r="I15" s="153" t="s">
-        <v>497</v>
-      </c>
-      <c r="J15" s="158"/>
-    </row>
-    <row r="16" spans="1:10" ht="45">
-      <c r="B16" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="148">
-        <v>43539</v>
-      </c>
-      <c r="F16" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="151" t="s">
-        <v>492</v>
-      </c>
-      <c r="H16" s="153" t="s">
-        <v>493</v>
-      </c>
-      <c r="I16" s="153" t="s">
-        <v>494</v>
-      </c>
-      <c r="J16" s="158"/>
-    </row>
-    <row r="17" spans="1:13" ht="36">
-      <c r="A17" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="84">
-        <v>43539</v>
-      </c>
-      <c r="F17" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="106" t="s">
-        <v>486</v>
-      </c>
-      <c r="H17" s="121" t="s">
-        <v>487</v>
-      </c>
-      <c r="I17" s="121" t="s">
-        <v>500</v>
-      </c>
-      <c r="J17" s="126"/>
-    </row>
-    <row r="18" spans="1:13" ht="45">
-      <c r="B18" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="88">
-        <v>43535</v>
-      </c>
-      <c r="F18" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="109" t="s">
-        <v>483</v>
-      </c>
-      <c r="H18" s="117" t="s">
-        <v>484</v>
-      </c>
-      <c r="I18" s="117" t="s">
-        <v>485</v>
-      </c>
-      <c r="J18" s="130"/>
-    </row>
-    <row r="19" spans="1:13" ht="45">
+      <c r="J18" s="283"/>
+    </row>
+    <row r="19" spans="1:10" ht="30">
       <c r="B19" s="139" t="s">
         <v>16</v>
       </c>
@@ -3662,314 +3712,321 @@
         <v>35</v>
       </c>
       <c r="E19" s="148">
-        <v>43535</v>
+        <v>43539</v>
       </c>
       <c r="F19" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G19" s="151" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="H19" s="153" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="I19" s="153" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="J19" s="158"/>
     </row>
-    <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:10" ht="45">
+      <c r="B20" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="148">
+        <v>43539</v>
+      </c>
+      <c r="F20" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="153" t="s">
+        <v>493</v>
+      </c>
+      <c r="I20" s="153" t="s">
+        <v>494</v>
+      </c>
+      <c r="J20" s="158"/>
+    </row>
+    <row r="21" spans="1:10" ht="36">
+      <c r="A21" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="255" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="248" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="250">
-        <v>43534</v>
-      </c>
-      <c r="F20" s="97" t="s">
+      <c r="B21" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="84">
+        <v>43539</v>
+      </c>
+      <c r="F21" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="256" t="s">
-        <v>498</v>
-      </c>
-      <c r="H20" s="251" t="s">
-        <v>499</v>
-      </c>
-      <c r="I20" s="251" t="s">
-        <v>488</v>
-      </c>
-      <c r="J20" s="252"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.6" customHeight="1">
-      <c r="B21" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="184" t="s">
-        <v>501</v>
-      </c>
-      <c r="E21" s="185">
-        <v>43534</v>
-      </c>
-      <c r="F21" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="184" t="s">
-        <v>502</v>
-      </c>
-      <c r="H21" s="118" t="s">
-        <v>503</v>
-      </c>
-      <c r="I21" s="118" t="s">
-        <v>504</v>
-      </c>
-      <c r="J21" s="187"/>
-    </row>
-    <row r="22" spans="1:13" ht="45">
-      <c r="B22" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>11</v>
+      <c r="G21" s="106" t="s">
+        <v>486</v>
+      </c>
+      <c r="H21" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="I21" s="121" t="s">
+        <v>500</v>
+      </c>
+      <c r="J21" s="126"/>
+    </row>
+    <row r="22" spans="1:10" ht="45">
+      <c r="B22" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>35</v>
       </c>
       <c r="E22" s="88">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="F22" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="109" t="s">
+        <v>483</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>484</v>
+      </c>
+      <c r="I22" s="117" t="s">
+        <v>485</v>
+      </c>
+      <c r="J22" s="130"/>
+    </row>
+    <row r="23" spans="1:10" ht="45">
+      <c r="B23" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="148">
+        <v>43535</v>
+      </c>
+      <c r="F23" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="151" t="s">
+        <v>480</v>
+      </c>
+      <c r="H23" s="153" t="s">
+        <v>481</v>
+      </c>
+      <c r="I23" s="153" t="s">
+        <v>482</v>
+      </c>
+      <c r="J23" s="158"/>
+    </row>
+    <row r="24" spans="1:10" ht="60">
+      <c r="A24" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="248" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="250">
+        <v>43534</v>
+      </c>
+      <c r="F24" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="256" t="s">
+        <v>498</v>
+      </c>
+      <c r="H24" s="251" t="s">
+        <v>499</v>
+      </c>
+      <c r="I24" s="251" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24" s="252"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" customHeight="1">
+      <c r="B25" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="184" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" s="185">
+        <v>43534</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="184" t="s">
+        <v>502</v>
+      </c>
+      <c r="H25" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="I25" s="118" t="s">
+        <v>504</v>
+      </c>
+      <c r="J25" s="187"/>
+    </row>
+    <row r="26" spans="1:10" ht="45">
+      <c r="B26" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="88">
+        <v>43534</v>
+      </c>
+      <c r="F26" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="H22" s="114" t="s">
+      <c r="H26" s="114" t="s">
         <v>491</v>
       </c>
-      <c r="I22" s="114" t="s">
+      <c r="I26" s="114" t="s">
         <v>490</v>
       </c>
-      <c r="J22" s="243"/>
-    </row>
-    <row r="23" spans="1:13" ht="30">
-      <c r="B23" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="64" t="s">
+      <c r="J26" s="243"/>
+    </row>
+    <row r="27" spans="1:10" ht="30">
+      <c r="B27" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D27" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E27" s="87">
         <v>43534</v>
       </c>
-      <c r="F23" s="99" t="s">
+      <c r="F27" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G27" s="108" t="s">
         <v>478</v>
       </c>
-      <c r="H23" s="115" t="s">
+      <c r="H27" s="115" t="s">
         <v>479</v>
       </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="129"/>
-    </row>
-    <row r="24" spans="1:13" ht="45">
-      <c r="B24" s="229" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="231" t="s">
+      <c r="I27" s="115"/>
+      <c r="J27" s="129"/>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="B28" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D28" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E28" s="88">
         <v>43524</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F28" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="109" t="s">
+      <c r="G28" s="109" t="s">
         <v>476</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H28" s="117" t="s">
         <v>477</v>
       </c>
-      <c r="I24" s="117"/>
-      <c r="J24" s="246"/>
-    </row>
-    <row r="25" spans="1:13" ht="75">
-      <c r="B25" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="189" t="s">
+      <c r="I28" s="117"/>
+      <c r="J28" s="246"/>
+    </row>
+    <row r="29" spans="1:10" ht="75">
+      <c r="B29" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="167" t="s">
+      <c r="D29" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="197">
+      <c r="E29" s="197">
         <v>43486</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F29" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="198" t="s">
+      <c r="G29" s="198" t="s">
         <v>468</v>
       </c>
-      <c r="H25" s="169" t="s">
+      <c r="H29" s="169" t="s">
         <v>467</v>
       </c>
-      <c r="I25" s="169" t="s">
+      <c r="I29" s="169" t="s">
         <v>466</v>
       </c>
-      <c r="J25" s="200"/>
-    </row>
-    <row r="26" spans="1:13" ht="60">
-      <c r="A26" s="41"/>
-      <c r="B26" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="66" t="s">
+      <c r="J29" s="200"/>
+    </row>
+    <row r="30" spans="1:10" ht="60">
+      <c r="A30" s="41"/>
+      <c r="B30" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="184" t="s">
+      <c r="D30" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="185">
+      <c r="E30" s="185">
         <v>43483</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F30" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="186" t="s">
+      <c r="G30" s="186" t="s">
         <v>464</v>
       </c>
-      <c r="H26" s="118" t="s">
+      <c r="H30" s="118" t="s">
         <v>465</v>
       </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="187"/>
-    </row>
-    <row r="27" spans="1:13" ht="30">
-      <c r="B27" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="E27" s="86">
-        <v>43475</v>
-      </c>
-      <c r="F27" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>457</v>
-      </c>
-      <c r="H27" s="114" t="s">
-        <v>458</v>
-      </c>
-      <c r="I27" s="114"/>
-      <c r="J27" s="128"/>
-    </row>
-    <row r="28" spans="1:13" ht="45">
-      <c r="B28" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="84">
-        <v>43475</v>
-      </c>
-      <c r="F28" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="106" t="s">
-        <v>459</v>
-      </c>
-      <c r="H28" s="121" t="s">
-        <v>460</v>
-      </c>
-      <c r="I28" s="121" t="s">
-        <v>461</v>
-      </c>
-      <c r="J28" s="126"/>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="B29" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="88">
-        <v>43473</v>
-      </c>
-      <c r="F29" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="109" t="s">
-        <v>445</v>
-      </c>
-      <c r="H29" s="117" t="s">
-        <v>446</v>
-      </c>
-      <c r="I29" s="117" t="s">
-        <v>447</v>
-      </c>
-      <c r="J29" s="130"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="B30" s="229" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="231" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="86">
-        <v>43473</v>
-      </c>
-      <c r="F30" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="117" t="s">
-        <v>448</v>
-      </c>
-      <c r="I30" s="117"/>
-      <c r="J30" s="246"/>
-    </row>
-    <row r="31" spans="1:13" ht="45">
+      <c r="I30" s="118"/>
+      <c r="J30" s="187"/>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="B31" s="171" t="s">
         <v>16</v>
       </c>
@@ -3977,144 +4034,136 @@
         <v>28</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="92">
-        <v>43472</v>
+        <v>409</v>
+      </c>
+      <c r="E31" s="86">
+        <v>43475</v>
       </c>
       <c r="F31" s="98" t="s">
         <v>98</v>
       </c>
       <c r="G31" s="107" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="H31" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="I31" s="114" t="s">
-        <v>444</v>
-      </c>
-      <c r="J31" s="134"/>
-      <c r="L31" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="60">
-      <c r="B32" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="E32" s="86">
-        <v>43432</v>
-      </c>
-      <c r="F32" s="98" t="s">
+        <v>458</v>
+      </c>
+      <c r="I31" s="114"/>
+      <c r="J31" s="128"/>
+    </row>
+    <row r="32" spans="1:10" ht="45">
+      <c r="B32" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="84">
+        <v>43475</v>
+      </c>
+      <c r="F32" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="107" t="s">
-        <v>440</v>
-      </c>
-      <c r="H32" s="114" t="s">
-        <v>441</v>
-      </c>
-      <c r="I32" s="114" t="s">
-        <v>436</v>
-      </c>
-      <c r="J32" s="128"/>
-      <c r="L32" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="M32" s="38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="60">
-      <c r="B33" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="E33" s="86">
-        <v>43428</v>
+      <c r="G32" s="106" t="s">
+        <v>459</v>
+      </c>
+      <c r="H32" s="121" t="s">
+        <v>460</v>
+      </c>
+      <c r="I32" s="121" t="s">
+        <v>461</v>
+      </c>
+      <c r="J32" s="126"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1">
+      <c r="B33" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="88">
+        <v>43473</v>
       </c>
       <c r="F33" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="107" t="s">
-        <v>437</v>
-      </c>
-      <c r="H33" s="114" t="s">
-        <v>439</v>
-      </c>
-      <c r="I33" s="114" t="s">
-        <v>438</v>
-      </c>
-      <c r="J33" s="128"/>
-    </row>
-    <row r="34" spans="1:10" ht="60">
-      <c r="B34" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>5</v>
+      <c r="G33" s="109" t="s">
+        <v>445</v>
+      </c>
+      <c r="H33" s="117" t="s">
+        <v>446</v>
+      </c>
+      <c r="I33" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="J33" s="130"/>
+    </row>
+    <row r="34" spans="1:13" ht="18.75" customHeight="1">
+      <c r="B34" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="231" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>52</v>
       </c>
       <c r="E34" s="86">
-        <v>43425</v>
+        <v>43473</v>
       </c>
       <c r="F34" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="H34" s="114" t="s">
-        <v>430</v>
-      </c>
-      <c r="I34" s="114" t="s">
-        <v>432</v>
-      </c>
-      <c r="J34" s="128"/>
-    </row>
-    <row r="35" spans="1:10" ht="30">
-      <c r="B35" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="189" t="s">
+      <c r="G34" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="I34" s="117"/>
+      <c r="J34" s="246"/>
+    </row>
+    <row r="35" spans="1:13" ht="45">
+      <c r="B35" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="167" t="s">
+      <c r="D35" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="197">
-        <v>43425</v>
-      </c>
-      <c r="F35" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="198" t="s">
-        <v>410</v>
-      </c>
-      <c r="H35" s="169" t="s">
-        <v>433</v>
-      </c>
-      <c r="I35" s="169"/>
-      <c r="J35" s="200"/>
-    </row>
-    <row r="36" spans="1:10" ht="60">
+      <c r="E35" s="92">
+        <v>43472</v>
+      </c>
+      <c r="F35" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="107" t="s">
+        <v>442</v>
+      </c>
+      <c r="H35" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="I35" s="114" t="s">
+        <v>444</v>
+      </c>
+      <c r="J35" s="134"/>
+      <c r="L35" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60">
       <c r="B36" s="171" t="s">
         <v>16</v>
       </c>
@@ -4122,1532 +4171,1536 @@
         <v>28</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>5</v>
+        <v>409</v>
       </c>
       <c r="E36" s="86">
-        <v>43425</v>
+        <v>43432</v>
       </c>
       <c r="F36" s="98" t="s">
         <v>98</v>
       </c>
       <c r="G36" s="107" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="H36" s="114" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="I36" s="114" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="J36" s="128"/>
-    </row>
-    <row r="37" spans="1:10" ht="30">
-      <c r="B37" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="196" t="s">
-        <v>17</v>
+      <c r="L36" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="60">
+      <c r="B37" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="D37" s="74" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="E37" s="86">
-        <v>43425</v>
+        <v>43428</v>
       </c>
       <c r="F37" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="109" t="s">
-        <v>434</v>
+      <c r="G37" s="107" t="s">
+        <v>437</v>
       </c>
       <c r="H37" s="114" t="s">
-        <v>435</v>
-      </c>
-      <c r="I37" s="114"/>
+        <v>439</v>
+      </c>
+      <c r="I37" s="114" t="s">
+        <v>438</v>
+      </c>
       <c r="J37" s="128"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
-      <c r="B38" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="88">
-        <v>43419</v>
+    <row r="38" spans="1:13" ht="60">
+      <c r="B38" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="86">
+        <v>43425</v>
       </c>
       <c r="F38" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="109" t="s">
-        <v>424</v>
-      </c>
-      <c r="H38" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="I38" s="117"/>
-      <c r="J38" s="130"/>
-    </row>
-    <row r="39" spans="1:10" ht="33.75">
-      <c r="A39" s="41"/>
+      <c r="G38" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="H38" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="I38" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="J38" s="128"/>
+    </row>
+    <row r="39" spans="1:13" ht="30">
       <c r="B39" s="188" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="189" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D39" s="167" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="87">
-        <v>43417</v>
+        <v>5</v>
+      </c>
+      <c r="E39" s="197">
+        <v>43425</v>
       </c>
       <c r="F39" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="108" t="s">
-        <v>414</v>
+      <c r="G39" s="198" t="s">
+        <v>410</v>
       </c>
       <c r="H39" s="169" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="I39" s="169"/>
-      <c r="J39" s="193"/>
-    </row>
-    <row r="40" spans="1:10" ht="60">
-      <c r="B40" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="232" t="s">
+      <c r="J39" s="200"/>
+    </row>
+    <row r="40" spans="1:13" ht="60">
+      <c r="B40" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="86">
+        <v>43425</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="107" t="s">
+        <v>427</v>
+      </c>
+      <c r="H40" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="I40" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="J40" s="128"/>
+    </row>
+    <row r="41" spans="1:13" ht="30">
+      <c r="B41" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="184" t="s">
+      <c r="D41" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="89">
-        <v>43417</v>
-      </c>
-      <c r="F40" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="186" t="s">
-        <v>416</v>
-      </c>
-      <c r="H40" s="118" t="s">
-        <v>417</v>
-      </c>
-      <c r="I40" s="118" t="s">
-        <v>418</v>
-      </c>
-      <c r="J40" s="131"/>
-    </row>
-    <row r="41" spans="1:10" ht="60">
-      <c r="B41" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="167" t="s">
-        <v>409</v>
-      </c>
-      <c r="E41" s="197">
-        <v>43416</v>
-      </c>
-      <c r="F41" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="198" t="s">
-        <v>410</v>
-      </c>
-      <c r="H41" s="169" t="s">
-        <v>411</v>
-      </c>
-      <c r="I41" s="169"/>
-      <c r="J41" s="200"/>
-    </row>
-    <row r="42" spans="1:10" ht="45">
-      <c r="B42" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="74" t="s">
-        <v>11</v>
+      <c r="E41" s="86">
+        <v>43425</v>
+      </c>
+      <c r="F41" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="109" t="s">
+        <v>434</v>
+      </c>
+      <c r="H41" s="114" t="s">
+        <v>435</v>
+      </c>
+      <c r="I41" s="114"/>
+      <c r="J41" s="128"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75">
+      <c r="B42" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>35</v>
       </c>
       <c r="E42" s="88">
-        <v>43414</v>
+        <v>43419</v>
       </c>
       <c r="F42" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="74" t="s">
-        <v>425</v>
-      </c>
-      <c r="H42" s="114" t="s">
-        <v>426</v>
-      </c>
-      <c r="I42" s="114"/>
-      <c r="J42" s="243"/>
-    </row>
-    <row r="43" spans="1:10" ht="45">
+      <c r="G42" s="109" t="s">
+        <v>424</v>
+      </c>
+      <c r="H42" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="I42" s="117"/>
+      <c r="J42" s="130"/>
+    </row>
+    <row r="43" spans="1:13" ht="33.75">
       <c r="A43" s="41"/>
-      <c r="B43" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="184" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="185">
-        <v>43383</v>
-      </c>
-      <c r="F43" s="101" t="s">
+      <c r="B43" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="167" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="87">
+        <v>43417</v>
+      </c>
+      <c r="F43" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="108" t="s">
+        <v>414</v>
+      </c>
+      <c r="H43" s="169" t="s">
+        <v>415</v>
+      </c>
+      <c r="I43" s="169"/>
+      <c r="J43" s="193"/>
+    </row>
+    <row r="44" spans="1:13" ht="60">
+      <c r="B44" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="232" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="184" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="89">
+        <v>43417</v>
+      </c>
+      <c r="F44" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="186" t="s">
-        <v>397</v>
-      </c>
-      <c r="H43" s="118" t="s">
-        <v>398</v>
-      </c>
-      <c r="I43" s="118" t="s">
-        <v>399</v>
-      </c>
-      <c r="J43" s="187"/>
-    </row>
-    <row r="44" spans="1:10" ht="45">
-      <c r="A44" s="41"/>
-      <c r="B44" s="188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="189" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="167" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="87">
-        <v>43383</v>
-      </c>
-      <c r="F44" s="99" t="s">
+      <c r="G44" s="186" t="s">
+        <v>416</v>
+      </c>
+      <c r="H44" s="118" t="s">
+        <v>417</v>
+      </c>
+      <c r="I44" s="118" t="s">
+        <v>418</v>
+      </c>
+      <c r="J44" s="131"/>
+    </row>
+    <row r="45" spans="1:13" ht="60">
+      <c r="B45" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="167" t="s">
+        <v>409</v>
+      </c>
+      <c r="E45" s="197">
+        <v>43416</v>
+      </c>
+      <c r="F45" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="108" t="s">
-        <v>404</v>
-      </c>
-      <c r="H44" s="169" t="s">
-        <v>405</v>
-      </c>
-      <c r="I44" s="169"/>
-      <c r="J44" s="193"/>
-    </row>
-    <row r="45" spans="1:10" ht="45">
-      <c r="A45" s="41"/>
-      <c r="B45" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="E45" s="90">
-        <v>43383</v>
-      </c>
-      <c r="F45" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G45" s="111" t="s">
-        <v>401</v>
-      </c>
-      <c r="H45" s="119" t="s">
-        <v>402</v>
-      </c>
-      <c r="I45" s="119" t="s">
-        <v>403</v>
-      </c>
-      <c r="J45" s="132"/>
-    </row>
-    <row r="46" spans="1:10" ht="60">
-      <c r="B46" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="141" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="144" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="148">
-        <v>43381</v>
+      <c r="G45" s="198" t="s">
+        <v>410</v>
+      </c>
+      <c r="H45" s="169" t="s">
+        <v>411</v>
+      </c>
+      <c r="I45" s="169"/>
+      <c r="J45" s="200"/>
+    </row>
+    <row r="46" spans="1:13" ht="45">
+      <c r="B46" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="88">
+        <v>43414</v>
       </c>
       <c r="F46" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="H46" s="153" t="s">
-        <v>388</v>
-      </c>
-      <c r="I46" s="153"/>
-      <c r="J46" s="158"/>
-    </row>
-    <row r="47" spans="1:10" ht="33.75">
+      <c r="G46" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="H46" s="114" t="s">
+        <v>426</v>
+      </c>
+      <c r="I46" s="114"/>
+      <c r="J46" s="243"/>
+    </row>
+    <row r="47" spans="1:13" ht="45">
       <c r="A47" s="41"/>
-      <c r="B47" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="148">
-        <v>43362</v>
-      </c>
-      <c r="F47" s="98" t="s">
+      <c r="B47" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="185">
+        <v>43383</v>
+      </c>
+      <c r="F47" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="186" t="s">
+        <v>397</v>
+      </c>
+      <c r="H47" s="118" t="s">
+        <v>398</v>
+      </c>
+      <c r="I47" s="118" t="s">
+        <v>399</v>
+      </c>
+      <c r="J47" s="187"/>
+    </row>
+    <row r="48" spans="1:13" ht="45">
+      <c r="A48" s="41"/>
+      <c r="B48" s="188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="87">
+        <v>43383</v>
+      </c>
+      <c r="F48" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="151" t="s">
-        <v>389</v>
-      </c>
-      <c r="H47" s="155" t="s">
-        <v>390</v>
-      </c>
-      <c r="I47" s="155"/>
-      <c r="J47" s="161"/>
-    </row>
-    <row r="48" spans="1:10" ht="75">
-      <c r="A48" s="41"/>
-      <c r="B48" s="172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="148">
-        <v>43355</v>
-      </c>
-      <c r="F48" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="151" t="s">
-        <v>391</v>
-      </c>
-      <c r="H48" s="155" t="s">
-        <v>392</v>
-      </c>
-      <c r="I48" s="155" t="s">
-        <v>393</v>
-      </c>
-      <c r="J48" s="181"/>
+      <c r="G48" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="H48" s="169" t="s">
+        <v>405</v>
+      </c>
+      <c r="I48" s="169"/>
+      <c r="J48" s="193"/>
     </row>
     <row r="49" spans="1:10" ht="45">
       <c r="A49" s="41"/>
-      <c r="B49" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="88">
-        <v>43342</v>
-      </c>
-      <c r="F49" s="103" t="s">
+      <c r="B49" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="E49" s="90">
+        <v>43383</v>
+      </c>
+      <c r="F49" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="111" t="s">
+        <v>401</v>
+      </c>
+      <c r="H49" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="I49" s="119" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" s="132"/>
+    </row>
+    <row r="50" spans="1:10" ht="60">
+      <c r="B50" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="141" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="148">
+        <v>43381</v>
+      </c>
+      <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="109" t="s">
-        <v>412</v>
-      </c>
-      <c r="H49" s="114" t="s">
-        <v>413</v>
-      </c>
-      <c r="I49" s="114" t="s">
-        <v>394</v>
-      </c>
-      <c r="J49" s="134"/>
-    </row>
-    <row r="50" spans="1:10" ht="75">
-      <c r="A50" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B50" s="203" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="233" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="167" t="s">
-        <v>374</v>
-      </c>
-      <c r="E50" s="197">
-        <v>43334</v>
-      </c>
-      <c r="F50" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="H50" s="169" t="s">
-        <v>376</v>
-      </c>
-      <c r="I50" s="169" t="s">
-        <v>375</v>
-      </c>
-      <c r="J50" s="200"/>
-    </row>
-    <row r="51" spans="1:10" ht="60">
+      <c r="G50" s="151" t="s">
+        <v>387</v>
+      </c>
+      <c r="H50" s="153" t="s">
+        <v>388</v>
+      </c>
+      <c r="I50" s="153"/>
+      <c r="J50" s="158"/>
+    </row>
+    <row r="51" spans="1:10" ht="33.75">
       <c r="A51" s="41"/>
       <c r="B51" s="160" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="148">
+        <v>43362</v>
+      </c>
+      <c r="F51" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="151" t="s">
+        <v>389</v>
+      </c>
+      <c r="H51" s="155" t="s">
+        <v>390</v>
+      </c>
+      <c r="I51" s="155"/>
+      <c r="J51" s="161"/>
+    </row>
+    <row r="52" spans="1:10" ht="75">
+      <c r="A52" s="41"/>
+      <c r="B52" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="146" t="s">
+      <c r="D52" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="202">
-        <v>43334</v>
-      </c>
-      <c r="F51" s="177" t="s">
+      <c r="E52" s="148">
+        <v>43355</v>
+      </c>
+      <c r="F52" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="G51" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="155" t="s">
-        <v>371</v>
-      </c>
-      <c r="I51" s="155" t="s">
-        <v>380</v>
-      </c>
-      <c r="J51" s="181"/>
-    </row>
-    <row r="52" spans="1:10" ht="30">
-      <c r="B52" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="E52" s="90">
-        <v>43334</v>
-      </c>
-      <c r="F52" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="111" t="s">
-        <v>372</v>
-      </c>
-      <c r="H52" s="123" t="s">
-        <v>373</v>
-      </c>
-      <c r="I52" s="123"/>
-      <c r="J52" s="138"/>
-    </row>
-    <row r="53" spans="1:10" ht="60">
-      <c r="A53" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B53" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="85">
-        <v>43285</v>
-      </c>
-      <c r="F53" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="239" t="s">
-        <v>359</v>
-      </c>
-      <c r="H53" s="116" t="s">
-        <v>360</v>
-      </c>
-      <c r="I53" s="116" t="s">
-        <v>361</v>
-      </c>
-      <c r="J53" s="127"/>
-    </row>
-    <row r="54" spans="1:10" ht="36">
+      <c r="G52" s="151" t="s">
+        <v>391</v>
+      </c>
+      <c r="H52" s="155" t="s">
+        <v>392</v>
+      </c>
+      <c r="I52" s="155" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" s="181"/>
+    </row>
+    <row r="53" spans="1:10" ht="45">
+      <c r="A53" s="41"/>
+      <c r="B53" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="88">
+        <v>43342</v>
+      </c>
+      <c r="F53" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="109" t="s">
+        <v>412</v>
+      </c>
+      <c r="H53" s="114" t="s">
+        <v>413</v>
+      </c>
+      <c r="I53" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="J53" s="134"/>
+    </row>
+    <row r="54" spans="1:10" ht="75">
       <c r="A54" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="B54" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="174" t="s">
+      <c r="B54" s="203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="233" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="167" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="197">
+        <v>43334</v>
+      </c>
+      <c r="F54" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="H54" s="169" t="s">
+        <v>376</v>
+      </c>
+      <c r="I54" s="169" t="s">
+        <v>375</v>
+      </c>
+      <c r="J54" s="200"/>
+    </row>
+    <row r="55" spans="1:10" ht="60">
+      <c r="A55" s="41"/>
+      <c r="B55" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="202">
+        <v>43334</v>
+      </c>
+      <c r="F55" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="155" t="s">
+        <v>371</v>
+      </c>
+      <c r="I55" s="155" t="s">
+        <v>380</v>
+      </c>
+      <c r="J55" s="181"/>
+    </row>
+    <row r="56" spans="1:10" ht="30">
+      <c r="B56" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E56" s="90">
+        <v>43334</v>
+      </c>
+      <c r="F56" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="111" t="s">
+        <v>372</v>
+      </c>
+      <c r="H56" s="123" t="s">
+        <v>373</v>
+      </c>
+      <c r="I56" s="123"/>
+      <c r="J56" s="138"/>
+    </row>
+    <row r="57" spans="1:10" ht="60">
+      <c r="A57" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="85">
+        <v>43285</v>
+      </c>
+      <c r="F57" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="239" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="116" t="s">
+        <v>360</v>
+      </c>
+      <c r="I57" s="116" t="s">
+        <v>361</v>
+      </c>
+      <c r="J57" s="127"/>
+    </row>
+    <row r="58" spans="1:10" ht="36">
+      <c r="A58" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="175" t="s">
+      <c r="D58" s="175" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="176">
+      <c r="E58" s="176">
         <v>43269</v>
       </c>
-      <c r="F54" s="178" t="s">
+      <c r="F58" s="178" t="s">
         <v>202</v>
       </c>
-      <c r="G54" s="179" t="s">
+      <c r="G58" s="179" t="s">
         <v>352</v>
       </c>
-      <c r="H54" s="241" t="s">
+      <c r="H58" s="241" t="s">
         <v>353</v>
       </c>
-      <c r="I54" s="180" t="s">
+      <c r="I58" s="180" t="s">
         <v>368</v>
       </c>
-      <c r="J54" s="182"/>
-    </row>
-    <row r="55" spans="1:10" ht="30">
-      <c r="B55" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="69" t="s">
+      <c r="J58" s="182"/>
+    </row>
+    <row r="59" spans="1:10" ht="30">
+      <c r="B59" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D59" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="94">
+      <c r="E59" s="94">
         <v>43268</v>
       </c>
-      <c r="F55" s="102" t="s">
+      <c r="F59" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="111" t="s">
+      <c r="G59" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="H55" s="119" t="s">
+      <c r="H59" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="I55" s="119"/>
-      <c r="J55" s="136"/>
-    </row>
-    <row r="56" spans="1:10" ht="45">
-      <c r="A56" s="41"/>
-      <c r="B56" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="62" t="s">
+      <c r="I59" s="119"/>
+      <c r="J59" s="136"/>
+    </row>
+    <row r="60" spans="1:10" ht="45">
+      <c r="A60" s="41"/>
+      <c r="B60" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="76" t="s">
+      <c r="D60" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="93">
+      <c r="E60" s="93">
         <v>43264</v>
       </c>
-      <c r="F56" s="100" t="s">
+      <c r="F60" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G56" s="110" t="s">
+      <c r="G60" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="H56" s="116" t="s">
+      <c r="H60" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="I56" s="116"/>
-      <c r="J56" s="135"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="142" t="s">
+      <c r="I60" s="116"/>
+      <c r="J60" s="135"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="145" t="s">
+      <c r="D61" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="148">
+      <c r="E61" s="148">
         <v>43264</v>
-      </c>
-      <c r="F57" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="151" t="s">
-        <v>339</v>
-      </c>
-      <c r="H57" s="153" t="s">
-        <v>340</v>
-      </c>
-      <c r="I57" s="153" t="s">
-        <v>341</v>
-      </c>
-      <c r="J57" s="159"/>
-    </row>
-    <row r="58" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A58" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B58" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="145" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="148">
-        <v>43264</v>
-      </c>
-      <c r="F58" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="151" t="s">
-        <v>345</v>
-      </c>
-      <c r="H58" s="153" t="s">
-        <v>342</v>
-      </c>
-      <c r="I58" s="153" t="s">
-        <v>343</v>
-      </c>
-      <c r="J58" s="159"/>
-    </row>
-    <row r="59" spans="1:10" ht="45">
-      <c r="A59" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B59" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="88">
-        <v>43264</v>
-      </c>
-      <c r="F59" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="H59" s="107" t="s">
-        <v>354</v>
-      </c>
-      <c r="I59" s="117"/>
-      <c r="J59" s="130"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75">
-      <c r="B60" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="E60" s="90">
-        <v>43261</v>
-      </c>
-      <c r="F60" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G60" s="111" t="s">
-        <v>369</v>
-      </c>
-      <c r="H60" s="123" t="s">
-        <v>370</v>
-      </c>
-      <c r="I60" s="123"/>
-      <c r="J60" s="138"/>
-    </row>
-    <row r="61" spans="1:10" ht="30" customHeight="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="143" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="148">
-        <v>43256</v>
       </c>
       <c r="F61" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G61" s="151" t="s">
-        <v>334</v>
-      </c>
-      <c r="H61" s="155" t="s">
-        <v>335</v>
-      </c>
-      <c r="I61" s="155" t="s">
-        <v>336</v>
-      </c>
-      <c r="J61" s="161"/>
-    </row>
-    <row r="62" spans="1:10" ht="105">
+        <v>339</v>
+      </c>
+      <c r="H61" s="153" t="s">
+        <v>340</v>
+      </c>
+      <c r="I61" s="153" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" s="159"/>
+    </row>
+    <row r="62" spans="1:10" ht="30.75" customHeight="1">
       <c r="A62" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="B62" s="172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="202">
-        <v>43252</v>
-      </c>
-      <c r="F62" s="177" t="s">
+      <c r="B62" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="148">
+        <v>43264</v>
+      </c>
+      <c r="F62" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G62" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H62" s="155" t="s">
-        <v>331</v>
-      </c>
-      <c r="I62" s="155" t="s">
-        <v>330</v>
-      </c>
-      <c r="J62" s="181"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75">
-      <c r="B63" s="225" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="168">
-        <v>43250</v>
-      </c>
-      <c r="F63" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="H62" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="I62" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="J62" s="159"/>
+    </row>
+    <row r="63" spans="1:10" ht="45">
+      <c r="A63" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="88">
+        <v>43264</v>
+      </c>
+      <c r="F63" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G63" s="199" t="s">
-        <v>321</v>
-      </c>
-      <c r="H63" s="155" t="s">
-        <v>326</v>
-      </c>
-      <c r="I63" s="155"/>
-      <c r="J63" s="201"/>
-    </row>
-    <row r="64" spans="1:10" ht="75">
-      <c r="A64" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B64" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="143" t="s">
+      <c r="G63" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="H63" s="107" t="s">
+        <v>354</v>
+      </c>
+      <c r="I63" s="117"/>
+      <c r="J63" s="130"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="B64" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="90">
+        <v>43261</v>
+      </c>
+      <c r="F64" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="111" t="s">
+        <v>369</v>
+      </c>
+      <c r="H64" s="123" t="s">
+        <v>370</v>
+      </c>
+      <c r="I64" s="123"/>
+      <c r="J64" s="138"/>
+    </row>
+    <row r="65" spans="1:10" ht="30" customHeight="1">
+      <c r="A65" s="41"/>
+      <c r="B65" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="146" t="s">
+      <c r="D65" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="148">
-        <v>43250</v>
-      </c>
-      <c r="F64" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="151" t="s">
-        <v>327</v>
-      </c>
-      <c r="H64" s="155" t="s">
-        <v>328</v>
-      </c>
-      <c r="I64" s="155" t="s">
-        <v>329</v>
-      </c>
-      <c r="J64" s="161"/>
-    </row>
-    <row r="65" spans="1:10" ht="45">
-      <c r="B65" s="225" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="146" t="s">
-        <v>322</v>
-      </c>
-      <c r="E65" s="168">
-        <v>43244</v>
+      <c r="E65" s="148">
+        <v>43256</v>
       </c>
       <c r="F65" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G65" s="199" t="s">
+      <c r="G65" s="151" t="s">
+        <v>334</v>
+      </c>
+      <c r="H65" s="155" t="s">
+        <v>335</v>
+      </c>
+      <c r="I65" s="155" t="s">
+        <v>336</v>
+      </c>
+      <c r="J65" s="161"/>
+    </row>
+    <row r="66" spans="1:10" ht="105">
+      <c r="A66" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="202">
+        <v>43252</v>
+      </c>
+      <c r="F66" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" s="155" t="s">
+        <v>331</v>
+      </c>
+      <c r="I66" s="155" t="s">
+        <v>330</v>
+      </c>
+      <c r="J66" s="181"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
+      <c r="B67" s="225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="146" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" s="168">
+        <v>43250</v>
+      </c>
+      <c r="F67" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="199" t="s">
         <v>321</v>
       </c>
-      <c r="H65" s="155" t="s">
-        <v>350</v>
-      </c>
-      <c r="I65" s="155"/>
-      <c r="J65" s="201"/>
-    </row>
-    <row r="66" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B66" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="E66" s="90">
-        <v>43242</v>
-      </c>
-      <c r="F66" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G66" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="H66" s="123" t="s">
-        <v>319</v>
-      </c>
-      <c r="I66" s="123"/>
-      <c r="J66" s="138"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
-      <c r="B67" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="70" t="s">
+      <c r="H67" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="I67" s="155"/>
+      <c r="J67" s="201"/>
+    </row>
+    <row r="68" spans="1:10" ht="75">
+      <c r="A68" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="81" t="s">
+      <c r="D68" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="90">
-        <v>43240</v>
-      </c>
-      <c r="F67" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G67" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="H67" s="123" t="s">
-        <v>324</v>
-      </c>
-      <c r="I67" s="81" t="s">
-        <v>325</v>
-      </c>
-      <c r="J67" s="138"/>
-    </row>
-    <row r="68" spans="1:10" ht="45">
-      <c r="B68" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="93">
-        <v>43237</v>
-      </c>
-      <c r="F68" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="110"/>
-      <c r="H68" s="116" t="s">
-        <v>307</v>
-      </c>
-      <c r="I68" s="76"/>
-      <c r="J68" s="135"/>
-    </row>
-    <row r="69" spans="1:10" ht="30" customHeight="1">
-      <c r="B69" s="160" t="s">
+      <c r="E68" s="148">
+        <v>43250</v>
+      </c>
+      <c r="F68" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="151" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" s="155" t="s">
+        <v>328</v>
+      </c>
+      <c r="I68" s="155" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" s="161"/>
+    </row>
+    <row r="69" spans="1:10" ht="45">
+      <c r="B69" s="225" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="143" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D69" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="148">
-        <v>43237</v>
+        <v>322</v>
+      </c>
+      <c r="E69" s="168">
+        <v>43244</v>
       </c>
       <c r="F69" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="151" t="s">
-        <v>316</v>
+      <c r="G69" s="199" t="s">
+        <v>321</v>
       </c>
       <c r="H69" s="155" t="s">
-        <v>314</v>
-      </c>
-      <c r="I69" s="146" t="s">
-        <v>316</v>
-      </c>
-      <c r="J69" s="161"/>
-    </row>
-    <row r="70" spans="1:10" ht="45">
-      <c r="B70" s="160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="143" t="s">
+        <v>350</v>
+      </c>
+      <c r="I69" s="155"/>
+      <c r="J69" s="201"/>
+    </row>
+    <row r="70" spans="1:10" ht="29.25" customHeight="1">
+      <c r="B70" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="90">
+        <v>43242</v>
+      </c>
+      <c r="F70" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="H70" s="123" t="s">
+        <v>319</v>
+      </c>
+      <c r="I70" s="123"/>
+      <c r="J70" s="138"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
+      <c r="B71" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="146" t="s">
+      <c r="D71" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="148">
+      <c r="E71" s="90">
+        <v>43240</v>
+      </c>
+      <c r="F71" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="H71" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="I71" s="81" t="s">
+        <v>325</v>
+      </c>
+      <c r="J71" s="138"/>
+    </row>
+    <row r="72" spans="1:10" ht="45">
+      <c r="B72" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="93">
         <v>43237</v>
       </c>
-      <c r="F70" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70" s="151" t="s">
-        <v>315</v>
-      </c>
-      <c r="H70" s="155" t="s">
-        <v>317</v>
-      </c>
-      <c r="I70" s="146" t="s">
-        <v>315</v>
-      </c>
-      <c r="J70" s="161"/>
-    </row>
-    <row r="71" spans="1:10" ht="45">
-      <c r="B71" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="76" t="s">
-        <v>320</v>
-      </c>
-      <c r="E71" s="93">
+      <c r="F72" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="110"/>
+      <c r="H72" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="I72" s="76"/>
+      <c r="J72" s="135"/>
+    </row>
+    <row r="73" spans="1:10" ht="30" customHeight="1">
+      <c r="B73" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="148">
         <v>43237</v>
-      </c>
-      <c r="F71" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" s="110"/>
-      <c r="H71" s="116" t="s">
-        <v>311</v>
-      </c>
-      <c r="I71" s="116" t="s">
-        <v>310</v>
-      </c>
-      <c r="J71" s="135"/>
-    </row>
-    <row r="72" spans="1:10" ht="60">
-      <c r="B72" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="E72" s="90">
-        <v>43237</v>
-      </c>
-      <c r="F72" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" s="111"/>
-      <c r="H72" s="123" t="s">
-        <v>312</v>
-      </c>
-      <c r="I72" s="123" t="s">
-        <v>313</v>
-      </c>
-      <c r="J72" s="138"/>
-    </row>
-    <row r="73" spans="1:10" ht="30">
-      <c r="B73" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="145" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="148">
-        <v>43236</v>
       </c>
       <c r="F73" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G73" s="151" t="s">
-        <v>344</v>
-      </c>
-      <c r="H73" s="153" t="s">
-        <v>332</v>
-      </c>
-      <c r="I73" s="153" t="s">
-        <v>333</v>
-      </c>
-      <c r="J73" s="159"/>
-    </row>
-    <row r="74" spans="1:10" ht="30">
-      <c r="B74" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="93">
-        <v>43230</v>
-      </c>
-      <c r="F74" s="100" t="s">
+        <v>316</v>
+      </c>
+      <c r="H73" s="155" t="s">
+        <v>314</v>
+      </c>
+      <c r="I73" s="146" t="s">
+        <v>316</v>
+      </c>
+      <c r="J73" s="161"/>
+    </row>
+    <row r="74" spans="1:10" ht="45">
+      <c r="B74" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="148">
+        <v>43237</v>
+      </c>
+      <c r="F74" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="151" t="s">
+        <v>315</v>
+      </c>
+      <c r="H74" s="155" t="s">
+        <v>317</v>
+      </c>
+      <c r="I74" s="146" t="s">
+        <v>315</v>
+      </c>
+      <c r="J74" s="161"/>
+    </row>
+    <row r="75" spans="1:10" ht="45">
+      <c r="B75" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="E75" s="93">
+        <v>43237</v>
+      </c>
+      <c r="F75" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G74" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="H74" s="116" t="s">
-        <v>305</v>
-      </c>
-      <c r="I74" s="116" t="s">
-        <v>306</v>
-      </c>
-      <c r="J74" s="135"/>
-    </row>
-    <row r="75" spans="1:10" ht="45">
-      <c r="B75" s="226" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="236">
-        <v>43230</v>
-      </c>
-      <c r="F75" s="238" t="s">
-        <v>107</v>
-      </c>
-      <c r="G75" s="110" t="s">
-        <v>149</v>
-      </c>
+      <c r="G75" s="110"/>
       <c r="H75" s="116" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="I75" s="116" t="s">
-        <v>299</v>
-      </c>
-      <c r="J75" s="244"/>
-    </row>
-    <row r="76" spans="1:10" ht="30">
-      <c r="B76" s="226" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="236">
-        <v>43230</v>
-      </c>
-      <c r="F76" s="238" t="s">
-        <v>107</v>
-      </c>
-      <c r="G76" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="H76" s="116" t="s">
-        <v>300</v>
-      </c>
-      <c r="I76" s="116" t="s">
-        <v>301</v>
-      </c>
-      <c r="J76" s="244"/>
-    </row>
-    <row r="77" spans="1:10" ht="33.75">
-      <c r="A77" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B77" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="141" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="144" t="s">
-        <v>348</v>
+        <v>310</v>
+      </c>
+      <c r="J75" s="135"/>
+    </row>
+    <row r="76" spans="1:10" ht="60">
+      <c r="B76" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76" s="90">
+        <v>43237</v>
+      </c>
+      <c r="F76" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G76" s="111"/>
+      <c r="H76" s="123" t="s">
+        <v>312</v>
+      </c>
+      <c r="I76" s="123" t="s">
+        <v>313</v>
+      </c>
+      <c r="J76" s="138"/>
+    </row>
+    <row r="77" spans="1:10" ht="30">
+      <c r="B77" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="145" t="s">
+        <v>41</v>
       </c>
       <c r="E77" s="148">
-        <v>43225</v>
+        <v>43236</v>
       </c>
       <c r="F77" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G77" s="151" t="s">
+        <v>344</v>
+      </c>
+      <c r="H77" s="153" t="s">
+        <v>332</v>
+      </c>
+      <c r="I77" s="153" t="s">
+        <v>333</v>
+      </c>
+      <c r="J77" s="159"/>
+    </row>
+    <row r="78" spans="1:10" ht="30">
+      <c r="B78" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="93">
+        <v>43230</v>
+      </c>
+      <c r="F78" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="H78" s="116" t="s">
+        <v>305</v>
+      </c>
+      <c r="I78" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="J78" s="135"/>
+    </row>
+    <row r="79" spans="1:10" ht="45">
+      <c r="B79" s="226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="236">
+        <v>43230</v>
+      </c>
+      <c r="F79" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="H79" s="116" t="s">
+        <v>298</v>
+      </c>
+      <c r="I79" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="J79" s="244"/>
+    </row>
+    <row r="80" spans="1:10" ht="30">
+      <c r="B80" s="226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="236">
+        <v>43230</v>
+      </c>
+      <c r="F80" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="H80" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="I80" s="116" t="s">
+        <v>301</v>
+      </c>
+      <c r="J80" s="244"/>
+    </row>
+    <row r="81" spans="1:10" ht="33.75">
+      <c r="A81" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="141" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="144" t="s">
         <v>348</v>
       </c>
-      <c r="H77" s="153" t="s">
+      <c r="E81" s="148">
+        <v>43225</v>
+      </c>
+      <c r="F81" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="151" t="s">
+        <v>348</v>
+      </c>
+      <c r="H81" s="153" t="s">
         <v>349</v>
       </c>
-      <c r="I77" s="153"/>
-      <c r="J77" s="158"/>
-    </row>
-    <row r="78" spans="1:10" ht="45">
-      <c r="A78" s="41" t="s">
+      <c r="I81" s="153"/>
+      <c r="J81" s="158"/>
+    </row>
+    <row r="82" spans="1:10" ht="45">
+      <c r="A82" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="141" t="s">
+      <c r="B82" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="141" t="s">
         <v>290</v>
       </c>
-      <c r="D78" s="144" t="s">
+      <c r="D82" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="E78" s="148">
+      <c r="E82" s="148">
         <v>43203</v>
       </c>
-      <c r="F78" s="139" t="s">
+      <c r="F82" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="139" t="s">
+      <c r="G82" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="H78" s="170" t="s">
+      <c r="H82" s="170" t="s">
         <v>292</v>
       </c>
-      <c r="I78" s="170" t="s">
+      <c r="I82" s="170" t="s">
         <v>293</v>
       </c>
-      <c r="J78" s="170"/>
-    </row>
-    <row r="79" spans="1:10" ht="30">
-      <c r="B79" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="141" t="s">
+      <c r="J82" s="170"/>
+    </row>
+    <row r="83" spans="1:10" ht="30">
+      <c r="B83" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="144" t="s">
+      <c r="D83" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="148">
+      <c r="E83" s="148">
         <v>43198</v>
       </c>
-      <c r="F79" s="149" t="s">
+      <c r="F83" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="151" t="s">
+      <c r="G83" s="151" t="s">
         <v>302</v>
       </c>
-      <c r="H79" s="153" t="s">
+      <c r="H83" s="153" t="s">
         <v>303</v>
       </c>
-      <c r="I79" s="153"/>
-      <c r="J79" s="158"/>
-    </row>
-    <row r="80" spans="1:10" ht="45">
-      <c r="B80" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="141" t="s">
+      <c r="I83" s="153"/>
+      <c r="J83" s="158"/>
+    </row>
+    <row r="84" spans="1:10" ht="45">
+      <c r="B84" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="141" t="s">
         <v>294</v>
       </c>
-      <c r="D80" s="144" t="s">
+      <c r="D84" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="148">
+      <c r="E84" s="148">
         <v>43179</v>
       </c>
-      <c r="F80" s="149" t="s">
+      <c r="F84" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G80" s="144" t="s">
+      <c r="G84" s="144" t="s">
         <v>295</v>
       </c>
-      <c r="H80" s="153" t="s">
+      <c r="H84" s="153" t="s">
         <v>296</v>
       </c>
-      <c r="I80" s="153" t="s">
+      <c r="I84" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="J80" s="158"/>
-    </row>
-    <row r="81" spans="1:10" ht="45">
-      <c r="B81" s="229" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="231" t="s">
+      <c r="J84" s="158"/>
+    </row>
+    <row r="85" spans="1:10" ht="45">
+      <c r="B85" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="235" t="s">
+      <c r="D85" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="E81" s="86">
+      <c r="E85" s="86">
         <v>43154</v>
       </c>
-      <c r="F81" s="98" t="s">
+      <c r="F85" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="109" t="s">
+      <c r="G85" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="H81" s="117" t="s">
+      <c r="H85" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="I81" s="117" t="s">
+      <c r="I85" s="117" t="s">
         <v>282</v>
       </c>
-      <c r="J81" s="246"/>
-    </row>
-    <row r="82" spans="1:10" ht="45">
-      <c r="B82" s="222" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="223" t="s">
+      <c r="J85" s="246"/>
+    </row>
+    <row r="86" spans="1:10" ht="45">
+      <c r="B86" s="222" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="249" t="s">
+      <c r="D86" s="249" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E86" s="32">
         <v>43154</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F86" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G86" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H86" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I86" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="J82" s="224"/>
-    </row>
-    <row r="83" spans="1:10" ht="30">
-      <c r="B83" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="69" t="s">
+      <c r="J86" s="224"/>
+    </row>
+    <row r="87" spans="1:10" ht="30">
+      <c r="B87" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="80" t="s">
+      <c r="D87" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="94">
+      <c r="E87" s="94">
         <v>43154</v>
       </c>
-      <c r="F83" s="102" t="s">
+      <c r="F87" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G83" s="111" t="s">
+      <c r="G87" s="111" t="s">
         <v>287</v>
       </c>
-      <c r="H83" s="119" t="s">
+      <c r="H87" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="I83" s="119" t="s">
+      <c r="I87" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="J83" s="136"/>
-    </row>
-    <row r="84" spans="1:10" ht="75">
-      <c r="A84" s="40" t="s">
+      <c r="J87" s="136"/>
+    </row>
+    <row r="88" spans="1:10" ht="75">
+      <c r="A88" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="B84" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="163" t="s">
+      <c r="B88" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="164" t="s">
+      <c r="D88" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="94">
+      <c r="E88" s="94">
         <v>43110</v>
       </c>
-      <c r="F84" s="102" t="s">
+      <c r="F88" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="165" t="s">
+      <c r="G88" s="165" t="s">
         <v>277</v>
       </c>
-      <c r="H84" s="166" t="s">
+      <c r="H88" s="166" t="s">
         <v>278</v>
       </c>
-      <c r="I84" s="164" t="s">
+      <c r="I88" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="J84" s="137"/>
-    </row>
-    <row r="85" spans="1:10" ht="45">
-      <c r="B85" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="69" t="s">
+      <c r="J88" s="137"/>
+    </row>
+    <row r="89" spans="1:10" ht="45">
+      <c r="B89" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="80" t="s">
+      <c r="D89" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="94">
+      <c r="E89" s="94">
         <v>43110</v>
       </c>
-      <c r="F85" s="102" t="s">
+      <c r="F89" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G85" s="111" t="s">
+      <c r="G89" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="H85" s="119" t="s">
+      <c r="H89" s="119" t="s">
         <v>273</v>
       </c>
-      <c r="I85" s="119" t="s">
+      <c r="I89" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="J85" s="136"/>
-    </row>
-    <row r="86" spans="1:10" ht="60">
-      <c r="B86" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="70" t="s">
+      <c r="J89" s="136"/>
+    </row>
+    <row r="90" spans="1:10" ht="60">
+      <c r="B90" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="81" t="s">
+      <c r="D90" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E86" s="94">
+      <c r="E90" s="94">
         <v>43110</v>
       </c>
-      <c r="F86" s="102" t="s">
+      <c r="F90" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G86" s="111" t="s">
+      <c r="G90" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="H86" s="123" t="s">
+      <c r="H90" s="123" t="s">
         <v>269</v>
       </c>
-      <c r="I86" s="123" t="s">
+      <c r="I90" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="J86" s="137"/>
-    </row>
-    <row r="87" spans="1:10" ht="31.5" customHeight="1">
-      <c r="B87" s="172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="143" t="s">
+      <c r="J90" s="137"/>
+    </row>
+    <row r="91" spans="1:10" ht="31.5" customHeight="1">
+      <c r="B91" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="146" t="s">
+      <c r="D91" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="202">
+      <c r="E91" s="202">
         <v>43110</v>
       </c>
-      <c r="F87" s="177" t="s">
+      <c r="F91" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="G87" s="151" t="s">
+      <c r="G91" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="H87" s="155" t="s">
+      <c r="H91" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="I87" s="155" t="s">
+      <c r="I91" s="155" t="s">
         <v>272</v>
       </c>
-      <c r="J87" s="181"/>
-    </row>
-    <row r="88" spans="1:10" ht="21" customHeight="1">
-      <c r="B88" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="141" t="s">
+      <c r="J91" s="181"/>
+    </row>
+    <row r="92" spans="1:10" ht="21" customHeight="1">
+      <c r="B92" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="144" t="s">
+      <c r="D92" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="E88" s="148">
+      <c r="E92" s="148">
         <v>43080</v>
-      </c>
-      <c r="F88" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" s="151" t="s">
-        <v>254</v>
-      </c>
-      <c r="H88" s="153" t="s">
-        <v>255</v>
-      </c>
-      <c r="I88" s="153" t="s">
-        <v>256</v>
-      </c>
-      <c r="J88" s="158"/>
-    </row>
-    <row r="89" spans="1:10" ht="30">
-      <c r="B89" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="141" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="144" t="s">
-        <v>179</v>
-      </c>
-      <c r="E89" s="148">
-        <v>43047</v>
-      </c>
-      <c r="F89" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" s="151" t="s">
-        <v>245</v>
-      </c>
-      <c r="H89" s="153" t="s">
-        <v>246</v>
-      </c>
-      <c r="I89" s="153" t="s">
-        <v>247</v>
-      </c>
-      <c r="J89" s="158"/>
-    </row>
-    <row r="90" spans="1:10" ht="60">
-      <c r="B90" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="85">
-        <v>43038</v>
-      </c>
-      <c r="F90" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" s="239" t="s">
-        <v>234</v>
-      </c>
-      <c r="H90" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="I90" s="116" t="s">
-        <v>236</v>
-      </c>
-      <c r="J90" s="127"/>
-    </row>
-    <row r="91" spans="1:10" ht="45">
-      <c r="B91" s="225" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="146" t="s">
-        <v>228</v>
-      </c>
-      <c r="E91" s="168">
-        <v>43023</v>
-      </c>
-      <c r="F91" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" s="199" t="s">
-        <v>227</v>
-      </c>
-      <c r="H91" s="155" t="s">
-        <v>229</v>
-      </c>
-      <c r="I91" s="155" t="s">
-        <v>230</v>
-      </c>
-      <c r="J91" s="201"/>
-    </row>
-    <row r="92" spans="1:10" ht="30">
-      <c r="B92" s="225" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="168">
-        <v>43013</v>
       </c>
       <c r="F92" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G92" s="199" t="s">
-        <v>224</v>
-      </c>
-      <c r="H92" s="155" t="s">
-        <v>225</v>
-      </c>
-      <c r="I92" s="155" t="s">
-        <v>226</v>
-      </c>
-      <c r="J92" s="201"/>
+      <c r="G92" s="151" t="s">
+        <v>254</v>
+      </c>
+      <c r="H92" s="153" t="s">
+        <v>255</v>
+      </c>
+      <c r="I92" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="J92" s="158"/>
     </row>
     <row r="93" spans="1:10" ht="30">
       <c r="B93" s="139" t="s">
@@ -5660,872 +5713,882 @@
         <v>179</v>
       </c>
       <c r="E93" s="148">
-        <v>43013</v>
+        <v>43047</v>
       </c>
       <c r="F93" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G93" s="151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H93" s="153" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="I93" s="153" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="J93" s="158"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75">
-      <c r="B94" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="D94" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="E94" s="90">
-        <v>43009</v>
-      </c>
-      <c r="F94" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G94" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="H94" s="157" t="s">
-        <v>395</v>
-      </c>
-      <c r="I94" s="122"/>
-      <c r="J94" s="122"/>
-    </row>
-    <row r="95" spans="1:10" ht="30">
-      <c r="B95" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="62" t="s">
+    <row r="94" spans="1:10" ht="60">
+      <c r="B94" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="76" t="s">
+      <c r="D94" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="85">
-        <v>42996</v>
-      </c>
-      <c r="F95" s="100" t="s">
+      <c r="E94" s="85">
+        <v>43038</v>
+      </c>
+      <c r="F94" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="G95" s="239" t="s">
-        <v>213</v>
-      </c>
-      <c r="H95" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="I95" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="J95" s="127"/>
-    </row>
-    <row r="96" spans="1:10" ht="45">
-      <c r="B96" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="141" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="144" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="148">
-        <v>42993</v>
+      <c r="G94" s="239" t="s">
+        <v>234</v>
+      </c>
+      <c r="H94" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="I94" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="J94" s="127"/>
+    </row>
+    <row r="95" spans="1:10" ht="45">
+      <c r="B95" s="225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" s="168">
+        <v>43023</v>
+      </c>
+      <c r="F95" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="199" t="s">
+        <v>227</v>
+      </c>
+      <c r="H95" s="155" t="s">
+        <v>229</v>
+      </c>
+      <c r="I95" s="155" t="s">
+        <v>230</v>
+      </c>
+      <c r="J95" s="201"/>
+    </row>
+    <row r="96" spans="1:10" ht="30">
+      <c r="B96" s="225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="168">
+        <v>43013</v>
       </c>
       <c r="F96" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G96" s="151" t="s">
-        <v>215</v>
-      </c>
-      <c r="H96" s="153" t="s">
-        <v>216</v>
-      </c>
-      <c r="I96" s="153" t="s">
-        <v>217</v>
-      </c>
-      <c r="J96" s="158"/>
-    </row>
-    <row r="97" spans="2:10" ht="45">
-      <c r="B97" s="225" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="146" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="168">
-        <v>42983</v>
+      <c r="G96" s="199" t="s">
+        <v>224</v>
+      </c>
+      <c r="H96" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="I96" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="J96" s="201"/>
+    </row>
+    <row r="97" spans="2:10" ht="30">
+      <c r="B97" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="141" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" s="144" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" s="148">
+        <v>43013</v>
       </c>
       <c r="F97" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G97" s="199" t="s">
-        <v>210</v>
-      </c>
-      <c r="H97" s="155" t="s">
-        <v>211</v>
-      </c>
-      <c r="I97" s="155" t="s">
-        <v>212</v>
-      </c>
-      <c r="J97" s="201"/>
-    </row>
-    <row r="98" spans="2:10" ht="21" customHeight="1">
-      <c r="B98" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="62" t="s">
+      <c r="G97" s="151" t="s">
+        <v>244</v>
+      </c>
+      <c r="H97" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="I97" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="J97" s="158"/>
+    </row>
+    <row r="98" spans="2:10" ht="15.75">
+      <c r="B98" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="E98" s="90">
+        <v>43009</v>
+      </c>
+      <c r="F98" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H98" s="157" t="s">
+        <v>395</v>
+      </c>
+      <c r="I98" s="122"/>
+      <c r="J98" s="122"/>
+    </row>
+    <row r="99" spans="2:10" ht="30">
+      <c r="B99" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="85">
+        <v>42996</v>
+      </c>
+      <c r="F99" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="239" t="s">
+        <v>213</v>
+      </c>
+      <c r="H99" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="J99" s="127"/>
+    </row>
+    <row r="100" spans="2:10" ht="45">
+      <c r="B100" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="76" t="s">
+      <c r="D100" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="E98" s="93">
-        <v>42909</v>
-      </c>
-      <c r="F98" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" s="110" t="s">
-        <v>206</v>
-      </c>
-      <c r="H98" s="116" t="s">
-        <v>207</v>
-      </c>
-      <c r="I98" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="J98" s="135"/>
-    </row>
-    <row r="99" spans="2:10" ht="45">
-      <c r="B99" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="148">
-        <v>42894</v>
-      </c>
-      <c r="F99" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="G99" s="151"/>
-      <c r="H99" s="153" t="s">
-        <v>308</v>
-      </c>
-      <c r="I99" s="153" t="s">
-        <v>309</v>
-      </c>
-      <c r="J99" s="158"/>
-    </row>
-    <row r="100" spans="2:10" ht="30">
-      <c r="B100" s="225" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="168">
-        <v>42867</v>
+      <c r="E100" s="148">
+        <v>42993</v>
       </c>
       <c r="F100" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G100" s="151" t="s">
-        <v>190</v>
-      </c>
-      <c r="H100" s="155" t="s">
-        <v>191</v>
-      </c>
-      <c r="I100" s="155" t="s">
-        <v>192</v>
-      </c>
-      <c r="J100" s="201"/>
-    </row>
-    <row r="101" spans="2:10" ht="60">
-      <c r="B101" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="141" t="s">
-        <v>61</v>
-      </c>
-      <c r="D101" s="144" t="s">
-        <v>71</v>
-      </c>
-      <c r="E101" s="148">
-        <v>42860</v>
+        <v>215</v>
+      </c>
+      <c r="H100" s="153" t="s">
+        <v>216</v>
+      </c>
+      <c r="I100" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="J100" s="158"/>
+    </row>
+    <row r="101" spans="2:10" ht="45">
+      <c r="B101" s="225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" s="168">
+        <v>42983</v>
       </c>
       <c r="F101" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="G101" s="151" t="s">
-        <v>186</v>
-      </c>
-      <c r="H101" s="153" t="s">
-        <v>187</v>
-      </c>
-      <c r="I101" s="153" t="s">
-        <v>188</v>
-      </c>
-      <c r="J101" s="158"/>
-    </row>
-    <row r="102" spans="2:10" ht="45">
-      <c r="B102" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="67" t="s">
+      <c r="G101" s="199" t="s">
+        <v>210</v>
+      </c>
+      <c r="H101" s="155" t="s">
+        <v>211</v>
+      </c>
+      <c r="I101" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="J101" s="201"/>
+    </row>
+    <row r="102" spans="2:10" ht="21" customHeight="1">
+      <c r="B102" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="93">
+        <v>42909</v>
+      </c>
+      <c r="F102" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="H102" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="I102" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="J102" s="135"/>
+    </row>
+    <row r="103" spans="2:10" ht="45">
+      <c r="B103" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="90">
+      <c r="D103" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="148">
+        <v>42894</v>
+      </c>
+      <c r="F103" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G103" s="151"/>
+      <c r="H103" s="153" t="s">
+        <v>308</v>
+      </c>
+      <c r="I103" s="153" t="s">
+        <v>309</v>
+      </c>
+      <c r="J103" s="158"/>
+    </row>
+    <row r="104" spans="2:10" ht="30">
+      <c r="B104" s="225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="168">
+        <v>42867</v>
+      </c>
+      <c r="F104" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G104" s="151" t="s">
+        <v>190</v>
+      </c>
+      <c r="H104" s="155" t="s">
+        <v>191</v>
+      </c>
+      <c r="I104" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="J104" s="201"/>
+    </row>
+    <row r="105" spans="2:10" ht="60">
+      <c r="B105" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="141" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="148">
         <v>42860</v>
-      </c>
-      <c r="F102" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" s="78"/>
-      <c r="H102" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="I102" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J102" s="132"/>
-    </row>
-    <row r="103" spans="2:10" ht="60">
-      <c r="B103" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="85">
-        <v>42839</v>
-      </c>
-      <c r="F103" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G103" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="H103" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="I103" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="J103" s="127"/>
-    </row>
-    <row r="104" spans="2:10" ht="45">
-      <c r="B104" s="172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="202">
-        <v>42817</v>
-      </c>
-      <c r="F104" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="G104" s="151" t="s">
-        <v>149</v>
-      </c>
-      <c r="H104" s="155" t="s">
-        <v>159</v>
-      </c>
-      <c r="I104" s="155" t="s">
-        <v>160</v>
-      </c>
-      <c r="J104" s="181"/>
-    </row>
-    <row r="105" spans="2:10" ht="15.75">
-      <c r="B105" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="141" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="144" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" s="148">
-        <v>42816</v>
       </c>
       <c r="F105" s="149" t="s">
         <v>98</v>
       </c>
       <c r="G105" s="151" t="s">
+        <v>186</v>
+      </c>
+      <c r="H105" s="153" t="s">
+        <v>187</v>
+      </c>
+      <c r="I105" s="153" t="s">
+        <v>188</v>
+      </c>
+      <c r="J105" s="158"/>
+    </row>
+    <row r="106" spans="2:10" ht="45">
+      <c r="B106" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="90">
+        <v>42860</v>
+      </c>
+      <c r="F106" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" s="78"/>
+      <c r="H106" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="J106" s="132"/>
+    </row>
+    <row r="107" spans="2:10" ht="60">
+      <c r="B107" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="85">
+        <v>42839</v>
+      </c>
+      <c r="F107" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G107" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="H107" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="I107" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="J107" s="127"/>
+    </row>
+    <row r="108" spans="2:10" ht="45">
+      <c r="B108" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="202">
+        <v>42817</v>
+      </c>
+      <c r="F108" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="G108" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" s="155" t="s">
+        <v>159</v>
+      </c>
+      <c r="I108" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="J108" s="181"/>
+    </row>
+    <row r="109" spans="2:10" ht="15.75">
+      <c r="B109" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="148">
+        <v>42816</v>
+      </c>
+      <c r="F109" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G109" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="H105" s="153" t="s">
+      <c r="H109" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="I105" s="153"/>
-      <c r="J105" s="158"/>
-    </row>
-    <row r="106" spans="2:10" ht="75">
-      <c r="B106" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="67" t="s">
+      <c r="I109" s="153"/>
+      <c r="J109" s="158"/>
+    </row>
+    <row r="110" spans="2:10" ht="75">
+      <c r="B110" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D106" s="78" t="s">
+      <c r="D110" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E106" s="90">
+      <c r="E110" s="90">
         <v>42816</v>
       </c>
-      <c r="F106" s="51" t="s">
+      <c r="F110" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="G106" s="51" t="s">
+      <c r="G110" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="H106" s="122" t="s">
+      <c r="H110" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="I106" s="122" t="s">
+      <c r="I110" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="J106" s="122"/>
-    </row>
-    <row r="107" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B107" s="227" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="230" t="s">
+      <c r="J110" s="122"/>
+    </row>
+    <row r="111" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B111" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="234" t="s">
+      <c r="D111" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="237">
+      <c r="E111" s="237">
         <v>42811</v>
       </c>
-      <c r="F107" s="228" t="s">
+      <c r="F111" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="G107" s="179" t="s">
+      <c r="G111" s="179" t="s">
         <v>149</v>
       </c>
-      <c r="H107" s="242" t="s">
+      <c r="H111" s="242" t="s">
         <v>150</v>
       </c>
-      <c r="I107" s="234" t="s">
+      <c r="I111" s="234" t="s">
         <v>151</v>
       </c>
-      <c r="J107" s="245"/>
-    </row>
-    <row r="108" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B108" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="67" t="s">
+      <c r="J111" s="245"/>
+    </row>
+    <row r="112" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B112" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="78" t="s">
+      <c r="D112" s="78" t="s">
         <v>320</v>
       </c>
-      <c r="E108" s="90">
+      <c r="E112" s="90">
         <v>42809</v>
       </c>
-      <c r="F108" s="102" t="s">
+      <c r="F112" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="G108" s="111"/>
-      <c r="H108" s="119" t="s">
+      <c r="G112" s="111"/>
+      <c r="H112" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="I108" s="119" t="s">
+      <c r="I112" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="J108" s="132"/>
-    </row>
-    <row r="109" spans="2:10" ht="45">
-      <c r="B109" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="65" t="s">
+      <c r="J112" s="132"/>
+    </row>
+    <row r="113" spans="2:10" ht="45">
+      <c r="B113" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="77" t="s">
+      <c r="D113" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E109" s="88">
+      <c r="E113" s="88">
         <v>42802</v>
       </c>
-      <c r="F109" s="98" t="s">
+      <c r="F113" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G109" s="109"/>
-      <c r="H109" s="117" t="s">
+      <c r="G113" s="109"/>
+      <c r="H113" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="I109" s="77"/>
-      <c r="J109" s="130"/>
-    </row>
-    <row r="110" spans="2:10" ht="30" customHeight="1">
-      <c r="B110" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="63" t="s">
+      <c r="I113" s="77"/>
+      <c r="J113" s="130"/>
+    </row>
+    <row r="114" spans="2:10" ht="30" customHeight="1">
+      <c r="B114" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="190" t="s">
+      <c r="D114" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="E110" s="86">
+      <c r="E114" s="86">
         <v>42797</v>
       </c>
-      <c r="F110" s="98" t="s">
+      <c r="F114" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G110" s="192" t="s">
+      <c r="G114" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="H110" s="114" t="s">
+      <c r="H114" s="114" t="s">
         <v>379</v>
       </c>
-      <c r="I110" s="114" t="s">
+      <c r="I114" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="J110" s="128"/>
-    </row>
-    <row r="111" spans="2:10" ht="45">
-      <c r="B111" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="65" t="s">
+      <c r="J114" s="128"/>
+    </row>
+    <row r="115" spans="2:10" ht="45">
+      <c r="B115" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="77" t="s">
+      <c r="D115" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E111" s="88">
+      <c r="E115" s="88">
         <v>42795</v>
       </c>
-      <c r="F111" s="98" t="s">
+      <c r="F115" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G111" s="109" t="s">
+      <c r="G115" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="H111" s="117" t="s">
+      <c r="H115" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="I111" s="117"/>
-      <c r="J111" s="130"/>
-    </row>
-    <row r="112" spans="2:10" ht="15.75">
-      <c r="B112" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="68" t="s">
+      <c r="I115" s="117"/>
+      <c r="J115" s="130"/>
+    </row>
+    <row r="116" spans="2:10" ht="15.75">
+      <c r="B116" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="79" t="s">
+      <c r="D116" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E112" s="91">
+      <c r="E116" s="91">
         <v>42781</v>
       </c>
-      <c r="F112" s="52" t="s">
+      <c r="F116" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="G112" s="79" t="s">
+      <c r="G116" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="H112" s="120" t="s">
+      <c r="H116" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="I112" s="79"/>
-      <c r="J112" s="133"/>
-    </row>
-    <row r="113" spans="2:10" ht="45">
-      <c r="B113" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="64" t="s">
+      <c r="I116" s="79"/>
+      <c r="J116" s="133"/>
+    </row>
+    <row r="117" spans="2:10" ht="45">
+      <c r="B117" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="87">
+      <c r="D117" s="75"/>
+      <c r="E117" s="87">
         <v>42780</v>
       </c>
-      <c r="F113" s="48" t="s">
+      <c r="F117" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G113" s="48" t="s">
+      <c r="G117" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H113" s="240" t="s">
+      <c r="H117" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="I113" s="154" t="s">
+      <c r="I117" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="J113" s="154"/>
-    </row>
-    <row r="114" spans="2:10" ht="30">
-      <c r="B114" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="64" t="s">
+      <c r="J117" s="154"/>
+    </row>
+    <row r="118" spans="2:10" ht="30">
+      <c r="B118" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D114" s="75"/>
-      <c r="E114" s="87">
+      <c r="D118" s="75"/>
+      <c r="E118" s="87">
         <v>42780</v>
       </c>
-      <c r="F114" s="48" t="s">
+      <c r="F118" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G114" s="48" t="s">
+      <c r="G118" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H114" s="240" t="s">
+      <c r="H118" s="240" t="s">
         <v>128</v>
       </c>
-      <c r="I114" s="154" t="s">
+      <c r="I118" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="J114" s="154"/>
-    </row>
-    <row r="115" spans="2:10" ht="75">
-      <c r="B115" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="64" t="s">
+      <c r="J118" s="154"/>
+    </row>
+    <row r="119" spans="2:10" ht="75">
+      <c r="B119" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="75" t="s">
+      <c r="D119" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="E115" s="87">
+      <c r="E119" s="87">
         <v>42772</v>
       </c>
-      <c r="F115" s="99" t="s">
+      <c r="F119" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G115" s="108" t="s">
+      <c r="G119" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="H115" s="115" t="s">
+      <c r="H119" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="I115" s="115" t="s">
+      <c r="I119" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="J115" s="129"/>
-    </row>
-    <row r="116" spans="2:10" ht="45">
-      <c r="B116" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="E116" s="89">
-        <v>42761</v>
-      </c>
-      <c r="F116" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G116" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="H116" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="I116" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="J116" s="131"/>
-    </row>
-    <row r="117" spans="2:10" ht="30">
-      <c r="B117" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" s="87">
-        <v>42758</v>
-      </c>
-      <c r="F117" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G117" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="H117" s="115" t="s">
-        <v>93</v>
-      </c>
-      <c r="I117" s="115"/>
-      <c r="J117" s="129"/>
-    </row>
-    <row r="118" spans="2:10" ht="45">
-      <c r="B118" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E118" s="88">
-        <v>42755</v>
-      </c>
-      <c r="F118" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G118" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="H118" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="I118" s="117"/>
-      <c r="J118" s="130"/>
-    </row>
-    <row r="119" spans="2:10" ht="45">
-      <c r="B119" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D119" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E119" s="88">
-        <v>42750</v>
-      </c>
-      <c r="F119" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G119" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="H119" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="I119" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="J119" s="130"/>
+      <c r="J119" s="129"/>
     </row>
     <row r="120" spans="2:10" ht="45">
       <c r="B120" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="66" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D120" s="147" t="s">
-        <v>320</v>
+        <v>94</v>
       </c>
       <c r="E120" s="89">
-        <v>42749</v>
+        <v>42761</v>
       </c>
       <c r="F120" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="G120" s="147"/>
-      <c r="H120" s="156" t="s">
+      <c r="G120" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="H120" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="I120" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="J120" s="131"/>
+    </row>
+    <row r="121" spans="2:10" ht="30">
+      <c r="B121" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="87">
+        <v>42758</v>
+      </c>
+      <c r="F121" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G121" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="H121" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="I121" s="115"/>
+      <c r="J121" s="129"/>
+    </row>
+    <row r="122" spans="2:10" ht="45">
+      <c r="B122" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" s="88">
+        <v>42755</v>
+      </c>
+      <c r="F122" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G122" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="H122" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="I122" s="117"/>
+      <c r="J122" s="130"/>
+    </row>
+    <row r="123" spans="2:10" ht="45">
+      <c r="B123" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="88">
+        <v>42750</v>
+      </c>
+      <c r="F123" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G123" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="J123" s="130"/>
+    </row>
+    <row r="124" spans="2:10" ht="45">
+      <c r="B124" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="147" t="s">
+        <v>320</v>
+      </c>
+      <c r="E124" s="89">
+        <v>42749</v>
+      </c>
+      <c r="F124" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="G124" s="147"/>
+      <c r="H124" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="I120" s="156" t="s">
+      <c r="I124" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="J120" s="131"/>
-    </row>
-    <row r="121" spans="2:10" ht="30" customHeight="1">
-      <c r="B121" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" s="65" t="s">
+      <c r="J124" s="131"/>
+    </row>
+    <row r="125" spans="2:10" ht="30" customHeight="1">
+      <c r="B125" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="D121" s="77" t="s">
+      <c r="D125" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E121" s="88">
+      <c r="E125" s="88">
         <v>42745</v>
       </c>
-      <c r="F121" s="98" t="s">
+      <c r="F125" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G121" s="109"/>
-      <c r="H121" s="117" t="s">
+      <c r="G125" s="109"/>
+      <c r="H125" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="I121" s="77"/>
-      <c r="J121" s="130"/>
-    </row>
-    <row r="122" spans="2:10" ht="30" customHeight="1">
-      <c r="B122" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="D122" s="147" t="s">
-        <v>120</v>
-      </c>
-      <c r="E122" s="89">
-        <v>42745</v>
-      </c>
-      <c r="F122" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G122" s="152" t="s">
-        <v>121</v>
-      </c>
-      <c r="H122" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="147" t="s">
-        <v>123</v>
-      </c>
-      <c r="J122" s="131"/>
-    </row>
-    <row r="123" spans="2:10" ht="30" customHeight="1">
-      <c r="B123" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="89">
-        <v>42745</v>
-      </c>
-      <c r="F123" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G123" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="H123" s="156" t="s">
-        <v>64</v>
-      </c>
-      <c r="I123" s="147" t="s">
-        <v>65</v>
-      </c>
-      <c r="J123" s="131"/>
-    </row>
-    <row r="124" spans="2:10" ht="45">
-      <c r="B124" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="87">
-        <v>42740</v>
-      </c>
-      <c r="F124" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G124" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="H124" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="I124" s="75"/>
-      <c r="J124" s="129"/>
-    </row>
-    <row r="125" spans="2:10" ht="45">
-      <c r="B125" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D125" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="89">
-        <v>42734</v>
-      </c>
-      <c r="F125" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G125" s="152"/>
-      <c r="H125" s="156" t="s">
-        <v>25</v>
-      </c>
-      <c r="I125" s="147"/>
-      <c r="J125" s="131"/>
+      <c r="I125" s="77"/>
+      <c r="J125" s="130"/>
     </row>
     <row r="126" spans="2:10" ht="30" customHeight="1">
       <c r="B126" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="66" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D126" s="147" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E126" s="89">
-        <v>42734</v>
-      </c>
-      <c r="F126" s="101" t="s">
+        <v>42745</v>
+      </c>
+      <c r="F126" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="G126" s="152"/>
+      <c r="G126" s="152" t="s">
+        <v>121</v>
+      </c>
       <c r="H126" s="156" t="s">
-        <v>25</v>
-      </c>
-      <c r="I126" s="147"/>
+        <v>122</v>
+      </c>
+      <c r="I126" s="147" t="s">
+        <v>123</v>
+      </c>
       <c r="J126" s="131"/>
     </row>
-    <row r="127" spans="2:10" ht="60">
+    <row r="127" spans="2:10" ht="30" customHeight="1">
       <c r="B127" s="50" t="s">
         <v>16</v>
       </c>
@@ -6536,19 +6599,19 @@
         <v>13</v>
       </c>
       <c r="E127" s="89">
-        <v>42734</v>
+        <v>42745</v>
       </c>
       <c r="F127" s="150" t="s">
         <v>107</v>
       </c>
       <c r="G127" s="152" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H127" s="156" t="s">
-        <v>27</v>
-      </c>
-      <c r="I127" s="156" t="s">
-        <v>132</v>
+        <v>64</v>
+      </c>
+      <c r="I127" s="147" t="s">
+        <v>65</v>
       </c>
       <c r="J127" s="131"/>
     </row>
@@ -6557,179 +6620,181 @@
         <v>16</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D128" s="75" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E128" s="87">
-        <v>42732</v>
+        <v>42740</v>
       </c>
       <c r="F128" s="99" t="s">
         <v>97</v>
       </c>
       <c r="G128" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="75"/>
+      <c r="J128" s="129"/>
+    </row>
+    <row r="129" spans="1:10" ht="45">
+      <c r="B129" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="89">
+        <v>42734</v>
+      </c>
+      <c r="F129" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="152"/>
+      <c r="H129" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" s="147"/>
+      <c r="J129" s="131"/>
+    </row>
+    <row r="130" spans="1:10" ht="30" customHeight="1">
+      <c r="B130" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="89">
+        <v>42734</v>
+      </c>
+      <c r="F130" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G130" s="152"/>
+      <c r="H130" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="I130" s="147"/>
+      <c r="J130" s="131"/>
+    </row>
+    <row r="131" spans="1:10" ht="60">
+      <c r="B131" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="89">
+        <v>42734</v>
+      </c>
+      <c r="F131" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="J131" s="131"/>
+    </row>
+    <row r="132" spans="1:10" ht="45">
+      <c r="B132" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="87">
+        <v>42732</v>
+      </c>
+      <c r="F132" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G132" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H128" s="115" t="s">
+      <c r="H132" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="I128" s="115" t="s">
+      <c r="I132" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="J128" s="129" t="s">
+      <c r="J132" s="129" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75">
-      <c r="B129" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" s="65" t="s">
+    <row r="133" spans="1:10" ht="15.75">
+      <c r="B133" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="77" t="s">
+      <c r="D133" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E129" s="88">
+      <c r="E133" s="88">
         <v>42726</v>
       </c>
-      <c r="F129" s="98" t="s">
+      <c r="F133" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G129" s="109" t="s">
+      <c r="G133" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="H129" s="117" t="s">
+      <c r="H133" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="I129" s="77"/>
-      <c r="J129" s="130"/>
-    </row>
-    <row r="130" spans="1:10" ht="30">
-      <c r="B130" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" s="65" t="s">
+      <c r="I133" s="77"/>
+      <c r="J133" s="130"/>
+    </row>
+    <row r="134" spans="1:10" ht="30">
+      <c r="B134" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="77" t="s">
+      <c r="D134" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="88">
+      <c r="E134" s="88">
         <v>42726</v>
       </c>
-      <c r="F130" s="98" t="s">
+      <c r="F134" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G130" s="109" t="s">
+      <c r="G134" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="H130" s="117" t="s">
+      <c r="H134" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="I130" s="117" t="s">
+      <c r="I134" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="J130" s="130" t="s">
+      <c r="J134" s="130" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="15.75">
-      <c r="B131" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131" s="88">
-        <v>42726</v>
-      </c>
-      <c r="F131" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G131" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="H131" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="I131" s="77"/>
-      <c r="J131" s="130"/>
-    </row>
-    <row r="132" spans="1:10" ht="30" customHeight="1">
-      <c r="B132" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="88">
-        <v>42724</v>
-      </c>
-      <c r="F132" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G132" s="109"/>
-      <c r="H132" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="I132" s="77"/>
-      <c r="J132" s="130"/>
-    </row>
-    <row r="133" spans="1:10" ht="30">
-      <c r="B133" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="E133" s="89">
-        <v>42724</v>
-      </c>
-      <c r="F133" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G133" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="H133" s="156" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="147"/>
-      <c r="J133" s="131"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75">
-      <c r="B134" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="87">
-        <v>42720</v>
-      </c>
-      <c r="F134" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G134" s="99"/>
-      <c r="H134" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="I134" s="75"/>
-      <c r="J134" s="129"/>
     </row>
     <row r="135" spans="1:10" ht="15.75">
       <c r="B135" s="49" t="s">
@@ -6739,215 +6804,311 @@
         <v>17</v>
       </c>
       <c r="D135" s="77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E135" s="88">
-        <v>42720</v>
+        <v>42726</v>
       </c>
       <c r="F135" s="98" t="s">
         <v>98</v>
       </c>
       <c r="G135" s="109" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H135" s="117" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="I135" s="77"/>
       <c r="J135" s="130"/>
     </row>
-    <row r="136" spans="1:10" ht="60">
+    <row r="136" spans="1:10" ht="30" customHeight="1">
       <c r="B136" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C136" s="65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" s="77" t="s">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="E136" s="88">
-        <v>42709</v>
+        <v>42724</v>
       </c>
       <c r="F136" s="98" t="s">
         <v>98</v>
       </c>
       <c r="G136" s="109"/>
       <c r="H136" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" s="77"/>
+      <c r="J136" s="130"/>
+    </row>
+    <row r="137" spans="1:10" ht="30">
+      <c r="B137" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" s="89">
+        <v>42724</v>
+      </c>
+      <c r="F137" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="G137" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="H137" s="156" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="147"/>
+      <c r="J137" s="131"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75">
+      <c r="B138" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" s="87">
+        <v>42720</v>
+      </c>
+      <c r="F138" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G138" s="99"/>
+      <c r="H138" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" s="75"/>
+      <c r="J138" s="129"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75">
+      <c r="B139" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139" s="88">
+        <v>42720</v>
+      </c>
+      <c r="F139" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G139" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="H139" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="77"/>
+      <c r="J139" s="130"/>
+    </row>
+    <row r="140" spans="1:10" ht="60">
+      <c r="B140" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="E140" s="88">
+        <v>42709</v>
+      </c>
+      <c r="F140" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G140" s="109"/>
+      <c r="H140" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="I136" s="117" t="s">
+      <c r="I140" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="J136" s="130" t="s">
+      <c r="J140" s="130" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="60">
-      <c r="B137" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="64" t="s">
+    <row r="141" spans="1:10" ht="60">
+      <c r="B141" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D137" s="75" t="s">
+      <c r="D141" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E137" s="87">
+      <c r="E141" s="87">
         <v>42705</v>
       </c>
-      <c r="F137" s="48" t="s">
+      <c r="F141" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G137" s="48" t="s">
+      <c r="G141" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H137" s="154" t="s">
+      <c r="H141" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="I137" s="154" t="s">
+      <c r="I141" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J137" s="154"/>
-    </row>
-    <row r="138" spans="1:10" ht="36">
-      <c r="A138" s="40"/>
-      <c r="B138" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="24" t="s">
+      <c r="J141" s="154"/>
+    </row>
+    <row r="142" spans="1:10" ht="36">
+      <c r="A142" s="40"/>
+      <c r="B142" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E142" s="12">
         <v>42555</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F142" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G142" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="H138" s="39" t="s">
+      <c r="H142" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="I138" s="15"/>
-      <c r="J138" s="30"/>
-    </row>
-    <row r="139" spans="1:10" ht="45">
-      <c r="B139" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="25" t="s">
+      <c r="I142" s="15"/>
+      <c r="J142" s="30"/>
+    </row>
+    <row r="143" spans="1:10" ht="45">
+      <c r="B143" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D143" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E143" s="19">
         <v>42488</v>
       </c>
-      <c r="F139" s="20" t="s">
+      <c r="F143" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G139" s="21" t="s">
+      <c r="G143" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="H139" s="22" t="s">
+      <c r="H143" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="I139" s="22" t="s">
+      <c r="I143" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="J139" s="31"/>
-    </row>
-    <row r="140" spans="1:10" ht="30">
-      <c r="B140" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="61" t="s">
+      <c r="J143" s="31"/>
+    </row>
+    <row r="144" spans="1:10" ht="30">
+      <c r="B144" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="D140" s="73" t="s">
+      <c r="D144" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="E140" s="84">
+      <c r="E144" s="84">
         <v>42468</v>
       </c>
-      <c r="F140" s="97" t="s">
+      <c r="F144" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="G140" s="106" t="s">
+      <c r="G144" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="H140" s="121" t="s">
+      <c r="H144" s="121" t="s">
         <v>176</v>
       </c>
-      <c r="I140" s="121"/>
-      <c r="J140" s="126"/>
-    </row>
-    <row r="141" spans="1:10" ht="30">
-      <c r="B141" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141" s="174" t="s">
+      <c r="I144" s="121"/>
+      <c r="J144" s="126"/>
+    </row>
+    <row r="145" spans="2:10" ht="30">
+      <c r="B145" s="173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="D141" s="175" t="s">
+      <c r="D145" s="175" t="s">
         <v>177</v>
       </c>
-      <c r="E141" s="176">
+      <c r="E145" s="176">
         <v>42451</v>
       </c>
-      <c r="F141" s="178" t="s">
+      <c r="F145" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="G141" s="179" t="s">
+      <c r="G145" s="179" t="s">
         <v>183</v>
       </c>
-      <c r="H141" s="180" t="s">
+      <c r="H145" s="180" t="s">
         <v>178</v>
       </c>
-      <c r="I141" s="180"/>
-      <c r="J141" s="182"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75">
-      <c r="B142" s="44"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="83"/>
-      <c r="F142" s="95"/>
-      <c r="G142" s="104"/>
-      <c r="H142" s="112"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="124"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75">
-      <c r="B143" s="43"/>
-      <c r="C143" s="60"/>
-      <c r="D143" s="71"/>
-      <c r="E143" s="82"/>
-      <c r="F143" s="96"/>
-      <c r="G143" s="105"/>
-      <c r="H143" s="113"/>
-      <c r="I143" s="71"/>
-      <c r="J143" s="125"/>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="B144" s="43"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="71"/>
-      <c r="E144" s="82"/>
-      <c r="F144" s="43"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="71"/>
-      <c r="J144" s="125"/>
+      <c r="I145" s="180"/>
+      <c r="J145" s="182"/>
+    </row>
+    <row r="146" spans="2:10" ht="15.75">
+      <c r="B146" s="44"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="95"/>
+      <c r="G146" s="104"/>
+      <c r="H146" s="112"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="124"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75">
+      <c r="B147" s="43"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="71"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="96"/>
+      <c r="G147" s="105"/>
+      <c r="H147" s="113"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="125"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="43"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="71"/>
+      <c r="E148" s="82"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J137">
+  <autoFilter ref="A2:J141">
     <sortState ref="A3:J141">
       <sortCondition descending="1" ref="E2:E137"/>
     </sortState>
@@ -6963,10 +7124,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:M68"/>
+  <dimension ref="B1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6985,17 +7146,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="33" customHeight="1">
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="285" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
     </row>
     <row r="2" spans="2:13" s="5" customFormat="1" ht="41.25" customHeight="1">
       <c r="B2" s="2" t="s">
@@ -7024,159 +7185,161 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="45">
-      <c r="B3" s="275" t="s">
+    <row r="3" spans="2:13" ht="15.75">
+      <c r="B3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="258" t="s">
+      <c r="D3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="276">
+      <c r="E3" s="27">
+        <v>43733</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="221" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="J3" s="220"/>
+    </row>
+    <row r="4" spans="2:13" ht="30">
+      <c r="B4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="27">
+        <v>43713</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="221" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="220"/>
+    </row>
+    <row r="5" spans="2:13" ht="45">
+      <c r="B5" s="275" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="257" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="276">
         <v>43644</v>
       </c>
-      <c r="F3" s="260" t="s">
+      <c r="F5" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="261" t="s">
+      <c r="G5" s="261" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="262" t="s">
-        <v>559</v>
-      </c>
-      <c r="I3" s="262"/>
-      <c r="J3" s="277"/>
-    </row>
-    <row r="4" spans="2:13" ht="45">
-      <c r="B4" s="275" t="s">
+      <c r="H5" s="262" t="s">
+        <v>555</v>
+      </c>
+      <c r="I5" s="262"/>
+      <c r="J5" s="277"/>
+    </row>
+    <row r="6" spans="2:13" ht="45">
+      <c r="B6" s="275" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C6" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="258" t="s">
+      <c r="D6" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="276">
+      <c r="E6" s="276">
         <v>43637</v>
       </c>
-      <c r="F4" s="260" t="s">
+      <c r="F6" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="261" t="s">
+      <c r="G6" s="261" t="s">
+        <v>545</v>
+      </c>
+      <c r="H6" s="262" t="s">
         <v>546</v>
       </c>
-      <c r="H4" s="262" t="s">
-        <v>547</v>
-      </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="277"/>
-    </row>
-    <row r="5" spans="2:13" ht="45">
-      <c r="B5" s="183" t="s">
+      <c r="I6" s="262"/>
+      <c r="J6" s="277"/>
+    </row>
+    <row r="7" spans="2:13" ht="45">
+      <c r="B7" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C7" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D7" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E7" s="89">
         <v>43637</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F7" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="191" t="s">
-        <v>545</v>
-      </c>
-      <c r="H5" s="118" t="s">
+      <c r="G7" s="191" t="s">
         <v>544</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="2:13" ht="75">
-      <c r="B6" s="56" t="s">
+      <c r="H7" s="118" t="s">
+        <v>543</v>
+      </c>
+      <c r="I7" s="118"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="2:13" ht="75">
+      <c r="B8" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C8" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D8" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E8" s="94">
         <v>43630</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F8" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="263" t="s">
+      <c r="G8" s="263" t="s">
+        <v>530</v>
+      </c>
+      <c r="H8" s="123" t="s">
         <v>531</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="I8" s="123" t="s">
         <v>532</v>
       </c>
-      <c r="I6" s="123" t="s">
-        <v>533</v>
-      </c>
-      <c r="J6" s="253"/>
-    </row>
-    <row r="7" spans="2:13" ht="45">
-      <c r="B7" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="94">
-        <v>43630</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="111" t="s">
-        <v>529</v>
-      </c>
-      <c r="H7" s="123" t="s">
-        <v>530</v>
-      </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="253"/>
-    </row>
-    <row r="8" spans="2:13" ht="30">
-      <c r="B8" s="225" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="168">
-        <v>43620</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="151" t="s">
-        <v>518</v>
-      </c>
-      <c r="H8" s="155" t="s">
-        <v>519</v>
-      </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="274"/>
-    </row>
-    <row r="9" spans="2:13" ht="60">
+      <c r="J8" s="253"/>
+    </row>
+    <row r="9" spans="2:13" ht="45">
       <c r="B9" s="56" t="s">
         <v>37</v>
       </c>
@@ -7187,297 +7350,295 @@
         <v>56</v>
       </c>
       <c r="E9" s="94">
-        <v>43605</v>
+        <v>43630</v>
       </c>
       <c r="F9" s="99" t="s">
         <v>97</v>
       </c>
       <c r="G9" s="111" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H9" s="123" t="s">
+        <v>529</v>
+      </c>
+      <c r="I9" s="123"/>
+      <c r="J9" s="253"/>
+    </row>
+    <row r="10" spans="2:13" ht="30">
+      <c r="B10" s="225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="168">
+        <v>43620</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>517</v>
+      </c>
+      <c r="H10" s="155" t="s">
+        <v>518</v>
+      </c>
+      <c r="I10" s="155"/>
+      <c r="J10" s="274"/>
+    </row>
+    <row r="11" spans="2:13" ht="60">
+      <c r="B11" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="94">
+        <v>43605</v>
+      </c>
+      <c r="F11" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="H11" s="123" t="s">
+        <v>521</v>
+      </c>
+      <c r="I11" s="123" t="s">
         <v>522</v>
       </c>
-      <c r="I9" s="123" t="s">
-        <v>523</v>
-      </c>
-      <c r="J9" s="253"/>
-    </row>
-    <row r="10" spans="2:13" ht="45">
-      <c r="B10" s="47" t="s">
+      <c r="J11" s="253"/>
+    </row>
+    <row r="12" spans="2:13" ht="45">
+      <c r="B12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D12" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E12" s="86">
         <v>43586</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F12" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G12" s="109" t="s">
+        <v>514</v>
+      </c>
+      <c r="H12" s="114" t="s">
         <v>515</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="I12" s="114" t="s">
         <v>516</v>
       </c>
-      <c r="I10" s="114" t="s">
-        <v>517</v>
-      </c>
-      <c r="J10" s="205"/>
-    </row>
-    <row r="11" spans="2:13" ht="45">
-      <c r="B11" s="47" t="s">
+      <c r="J12" s="205"/>
+    </row>
+    <row r="13" spans="2:13" ht="45">
+      <c r="B13" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C13" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="190" t="s">
+      <c r="D13" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E13" s="86">
         <v>43581</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F13" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G13" s="109" t="s">
+        <v>511</v>
+      </c>
+      <c r="H13" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="I13" s="114" t="s">
         <v>513</v>
       </c>
-      <c r="I11" s="114" t="s">
-        <v>514</v>
-      </c>
-      <c r="J11" s="205"/>
-    </row>
-    <row r="12" spans="2:13" ht="75">
-      <c r="B12" s="203" t="s">
+      <c r="J13" s="205"/>
+    </row>
+    <row r="14" spans="2:13" ht="75">
+      <c r="B14" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C14" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D14" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="197">
+      <c r="E14" s="197">
         <v>43510</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G14" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="169" t="s">
+      <c r="H14" s="169" t="s">
         <v>470</v>
       </c>
-      <c r="I12" s="169" t="s">
+      <c r="I14" s="169" t="s">
         <v>471</v>
       </c>
-      <c r="J12" s="209"/>
-      <c r="L12" s="35" t="s">
+      <c r="J14" s="209"/>
+      <c r="L14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M14" s="36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="75">
-      <c r="B13" s="42" t="s">
+    <row r="15" spans="2:13" ht="75">
+      <c r="B15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C15" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E15" s="27">
         <v>43510</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="194" t="s">
+      <c r="G15" s="194" t="s">
         <v>472</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H15" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I15" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="J13" s="195"/>
-      <c r="L13" s="37" t="s">
+      <c r="J15" s="195"/>
+      <c r="L15" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M15" s="38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="30">
-      <c r="B14" s="219" t="s">
+    <row r="16" spans="2:13" ht="30">
+      <c r="B16" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E16" s="27">
         <v>43506</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F16" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="221" t="s">
+      <c r="G16" s="221" t="s">
+        <v>519</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="220"/>
-    </row>
-    <row r="15" spans="2:13" ht="45">
-      <c r="B15" s="56" t="s">
+      <c r="I16" s="34"/>
+      <c r="J16" s="220"/>
+    </row>
+    <row r="17" spans="2:10" ht="45">
+      <c r="B17" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C17" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D17" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E17" s="94">
         <v>43506</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F17" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="111" t="s">
+      <c r="G17" s="111" t="s">
         <v>473</v>
       </c>
-      <c r="H15" s="123" t="s">
+      <c r="H17" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="I15" s="123" t="s">
+      <c r="I17" s="123" t="s">
         <v>475</v>
       </c>
-      <c r="J15" s="253"/>
-    </row>
-    <row r="16" spans="2:13" ht="30">
-      <c r="B16" s="47" t="s">
+      <c r="J17" s="253"/>
+    </row>
+    <row r="18" spans="2:10" ht="30">
+      <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C18" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D18" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E18" s="86">
         <v>43487</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F18" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="192"/>
-      <c r="H16" s="114" t="s">
+      <c r="G18" s="192"/>
+      <c r="H18" s="114" t="s">
         <v>469</v>
       </c>
-      <c r="I16" s="114"/>
-      <c r="J16" s="205"/>
-    </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1">
-      <c r="B17" s="50" t="s">
+      <c r="I18" s="114"/>
+      <c r="J18" s="205"/>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1">
+      <c r="B19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C19" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="184" t="s">
+      <c r="D19" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E19" s="89">
         <v>43481</v>
       </c>
-      <c r="F17" s="150" t="s">
+      <c r="F19" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="186" t="s">
+      <c r="G19" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="118" t="s">
+      <c r="H19" s="118" t="s">
         <v>462</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I19" s="118" t="s">
         <v>463</v>
       </c>
-      <c r="J17" s="206"/>
-    </row>
-    <row r="18" spans="2:10" ht="60">
-      <c r="B18" s="203" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="189" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="208" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="197">
-        <v>43470</v>
-      </c>
-      <c r="F18" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="108" t="s">
-        <v>449</v>
-      </c>
-      <c r="H18" s="169" t="s">
-        <v>450</v>
-      </c>
-      <c r="I18" s="169"/>
-      <c r="J18" s="209"/>
-    </row>
-    <row r="19" spans="2:10" ht="60">
-      <c r="B19" s="203" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="189" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="208" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="197">
-        <v>43470</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="108" t="s">
-        <v>451</v>
-      </c>
-      <c r="H19" s="169" t="s">
-        <v>452</v>
-      </c>
-      <c r="I19" s="169" t="s">
-        <v>453</v>
-      </c>
-      <c r="J19" s="209"/>
-    </row>
-    <row r="20" spans="2:10" ht="75">
+      <c r="J19" s="206"/>
+    </row>
+    <row r="20" spans="2:10" ht="60">
       <c r="B20" s="203" t="s">
         <v>37</v>
       </c>
@@ -7494,277 +7655,277 @@
         <v>97</v>
       </c>
       <c r="G20" s="108" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H20" s="169" t="s">
-        <v>455</v>
-      </c>
-      <c r="I20" s="169" t="s">
-        <v>456</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="I20" s="169"/>
       <c r="J20" s="209"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75">
+    <row r="21" spans="2:10" ht="60">
       <c r="B21" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="189" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="167" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="D21" s="208" t="s">
+        <v>56</v>
       </c>
       <c r="E21" s="197">
-        <v>43417</v>
+        <v>43470</v>
       </c>
       <c r="F21" s="99" t="s">
         <v>97</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>103</v>
+        <v>451</v>
       </c>
       <c r="H21" s="169" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="I21" s="169" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="J21" s="209"/>
     </row>
-    <row r="22" spans="2:10" ht="45">
+    <row r="22" spans="2:10" ht="75">
       <c r="B22" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="189" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="167" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="208" t="s">
+        <v>56</v>
       </c>
       <c r="E22" s="197">
-        <v>43417</v>
+        <v>43470</v>
       </c>
       <c r="F22" s="99" t="s">
         <v>97</v>
       </c>
       <c r="G22" s="108" t="s">
+        <v>454</v>
+      </c>
+      <c r="H22" s="169" t="s">
+        <v>455</v>
+      </c>
+      <c r="I22" s="169" t="s">
+        <v>456</v>
+      </c>
+      <c r="J22" s="209"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75">
+      <c r="B23" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="189" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="197">
+        <v>43417</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="169" t="s">
-        <v>421</v>
-      </c>
-      <c r="I22" s="169" t="s">
-        <v>422</v>
-      </c>
-      <c r="J22" s="209"/>
-    </row>
-    <row r="23" spans="2:10" ht="60">
-      <c r="B23" s="183" t="s">
+      <c r="H23" s="169" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" s="169" t="s">
+        <v>420</v>
+      </c>
+      <c r="J23" s="209"/>
+    </row>
+    <row r="24" spans="2:10" ht="45">
+      <c r="B24" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="184" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="89">
-        <v>43411</v>
-      </c>
-      <c r="F23" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="191" t="s">
-        <v>406</v>
-      </c>
-      <c r="H23" s="118" t="s">
-        <v>407</v>
-      </c>
-      <c r="I23" s="118" t="s">
-        <v>408</v>
-      </c>
-      <c r="J23" s="131"/>
-    </row>
-    <row r="24" spans="2:10" ht="30">
-      <c r="B24" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="87">
-        <v>43381</v>
+      <c r="C24" s="189" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="197">
+        <v>43417</v>
       </c>
       <c r="F24" s="99" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="169" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="169" t="s">
+        <v>422</v>
+      </c>
+      <c r="J24" s="209"/>
+    </row>
+    <row r="25" spans="2:10" ht="60">
+      <c r="B25" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="89">
+        <v>43411</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="191" t="s">
+        <v>406</v>
+      </c>
+      <c r="H25" s="118" t="s">
+        <v>407</v>
+      </c>
+      <c r="I25" s="118" t="s">
+        <v>408</v>
+      </c>
+      <c r="J25" s="131"/>
+    </row>
+    <row r="26" spans="2:10" ht="30">
+      <c r="B26" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="87">
+        <v>43381</v>
+      </c>
+      <c r="F26" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="108" t="s">
         <v>382</v>
       </c>
-      <c r="H24" s="115" t="s">
+      <c r="H26" s="115" t="s">
         <v>384</v>
       </c>
-      <c r="I24" s="115" t="s">
+      <c r="I26" s="115" t="s">
         <v>383</v>
       </c>
-      <c r="J24" s="213"/>
-    </row>
-    <row r="25" spans="2:10" ht="45">
-      <c r="B25" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="86">
-        <v>43381</v>
-      </c>
-      <c r="F25" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="109" t="s">
-        <v>385</v>
-      </c>
-      <c r="H25" s="114" t="s">
-        <v>386</v>
-      </c>
-      <c r="I25" s="114"/>
-      <c r="J25" s="205"/>
-    </row>
-    <row r="26" spans="2:10" ht="30">
-      <c r="B26" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="89">
-        <v>43342</v>
-      </c>
-      <c r="F26" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="118" t="s">
-        <v>381</v>
-      </c>
-      <c r="I26" s="118"/>
-      <c r="J26" s="206"/>
-    </row>
-    <row r="27" spans="2:10" ht="90">
+      <c r="J26" s="213"/>
+    </row>
+    <row r="27" spans="2:10" ht="45">
       <c r="B27" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="190" t="s">
-        <v>5</v>
+        <v>264</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>385</v>
       </c>
       <c r="E27" s="86">
-        <v>43322</v>
+        <v>43381</v>
       </c>
       <c r="F27" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="192"/>
+      <c r="G27" s="109" t="s">
+        <v>385</v>
+      </c>
       <c r="H27" s="114" t="s">
-        <v>377</v>
-      </c>
-      <c r="I27" s="114" t="s">
-        <v>378</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I27" s="114"/>
       <c r="J27" s="205"/>
     </row>
-    <row r="28" spans="2:10" ht="90">
-      <c r="B28" s="48" t="s">
+    <row r="28" spans="2:10" ht="30">
+      <c r="B28" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="87">
-        <v>43269</v>
-      </c>
-      <c r="F28" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="108" t="s">
-        <v>356</v>
-      </c>
-      <c r="H28" s="115" t="s">
-        <v>358</v>
-      </c>
-      <c r="I28" s="115" t="s">
-        <v>357</v>
-      </c>
-      <c r="J28" s="213"/>
-    </row>
-    <row r="29" spans="2:10" ht="45">
+      <c r="E28" s="89">
+        <v>43342</v>
+      </c>
+      <c r="F28" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="152"/>
+      <c r="H28" s="118" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" s="118"/>
+      <c r="J28" s="206"/>
+    </row>
+    <row r="29" spans="2:10" ht="90">
       <c r="B29" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>346</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="190" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="86">
-        <v>43264</v>
+        <v>43322</v>
       </c>
       <c r="F29" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="109" t="s">
-        <v>346</v>
-      </c>
+      <c r="G29" s="192"/>
       <c r="H29" s="114" t="s">
-        <v>347</v>
-      </c>
-      <c r="I29" s="114"/>
+        <v>377</v>
+      </c>
+      <c r="I29" s="114" t="s">
+        <v>378</v>
+      </c>
       <c r="J29" s="205"/>
     </row>
     <row r="30" spans="2:10" ht="90">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="88">
-        <v>43128</v>
-      </c>
-      <c r="F30" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="117" t="s">
-        <v>275</v>
-      </c>
-      <c r="I30" s="117" t="s">
-        <v>276</v>
-      </c>
-      <c r="J30" s="207"/>
-    </row>
-    <row r="31" spans="2:10" ht="30">
+      <c r="E30" s="87">
+        <v>43269</v>
+      </c>
+      <c r="F30" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="108" t="s">
+        <v>356</v>
+      </c>
+      <c r="H30" s="115" t="s">
+        <v>358</v>
+      </c>
+      <c r="I30" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="J30" s="213"/>
+    </row>
+    <row r="31" spans="2:10" ht="45">
       <c r="B31" s="47" t="s">
         <v>37</v>
       </c>
@@ -7772,213 +7933,211 @@
         <v>264</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="E31" s="86">
-        <v>43110</v>
+        <v>43264</v>
       </c>
       <c r="F31" s="98" t="s">
         <v>98</v>
       </c>
       <c r="G31" s="109" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="H31" s="114" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="I31" s="114"/>
       <c r="J31" s="205"/>
     </row>
-    <row r="32" spans="2:10" ht="30">
-      <c r="B32" s="48" t="s">
+    <row r="32" spans="2:10" ht="90">
+      <c r="B32" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="88">
+        <v>43128</v>
+      </c>
+      <c r="F32" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="117" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="117" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="207"/>
+    </row>
+    <row r="33" spans="2:10" ht="30">
+      <c r="B33" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="86">
+        <v>43110</v>
+      </c>
+      <c r="F33" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="109" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" s="114"/>
+      <c r="J33" s="205"/>
+    </row>
+    <row r="34" spans="2:10" ht="30">
+      <c r="B34" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E34" s="87">
         <v>43098</v>
-      </c>
-      <c r="F32" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="108" t="s">
-        <v>261</v>
-      </c>
-      <c r="H32" s="115" t="s">
-        <v>262</v>
-      </c>
-      <c r="I32" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="J32" s="213"/>
-    </row>
-    <row r="33" spans="2:10" ht="30">
-      <c r="B33" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="184" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="89">
-        <v>43097</v>
-      </c>
-      <c r="F33" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="186" t="s">
-        <v>257</v>
-      </c>
-      <c r="H33" s="118" t="s">
-        <v>258</v>
-      </c>
-      <c r="I33" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="J33" s="206"/>
-    </row>
-    <row r="34" spans="2:10" ht="60">
-      <c r="B34" s="203" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="189" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="208" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="197">
-        <v>43080</v>
       </c>
       <c r="F34" s="99" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" s="169" t="s">
-        <v>252</v>
-      </c>
-      <c r="I34" s="169" t="s">
-        <v>253</v>
-      </c>
-      <c r="J34" s="209"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.75">
+        <v>261</v>
+      </c>
+      <c r="H34" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="I34" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" s="213"/>
+    </row>
+    <row r="35" spans="2:10" ht="30">
       <c r="B35" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="184" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="89">
+        <v>43097</v>
+      </c>
+      <c r="F35" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="186" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="206"/>
+    </row>
+    <row r="36" spans="2:10" ht="60">
+      <c r="B36" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="147" t="s">
+      <c r="D36" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="89">
+      <c r="E36" s="197">
+        <v>43080</v>
+      </c>
+      <c r="F36" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="H36" s="169" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="169" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="209"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.75">
+      <c r="B37" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="89">
         <v>43053</v>
       </c>
-      <c r="F35" s="150" t="s">
+      <c r="F37" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="186" t="s">
+      <c r="G37" s="186" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="118" t="s">
+      <c r="H37" s="118" t="s">
         <v>249</v>
       </c>
-      <c r="I35" s="118" t="s">
+      <c r="I37" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="J35" s="206"/>
-    </row>
-    <row r="36" spans="2:10" ht="30">
-      <c r="B36" s="183" t="s">
+      <c r="J37" s="206"/>
+    </row>
+    <row r="38" spans="2:10" ht="30">
+      <c r="B38" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C38" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="184" t="s">
+      <c r="D38" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="E36" s="89">
+      <c r="E38" s="89">
         <v>43047</v>
       </c>
-      <c r="F36" s="101" t="s">
+      <c r="F38" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="191" t="s">
+      <c r="G38" s="191" t="s">
         <v>238</v>
       </c>
-      <c r="H36" s="118" t="s">
+      <c r="H38" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="I36" s="118" t="s">
+      <c r="I38" s="118" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="131"/>
-    </row>
-    <row r="37" spans="2:10" ht="45">
-      <c r="B37" s="183" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="184" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="89">
-        <v>43047</v>
-      </c>
-      <c r="F37" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="191" t="s">
-        <v>241</v>
-      </c>
-      <c r="H37" s="118" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="J37" s="131"/>
-    </row>
-    <row r="38" spans="2:10" ht="30">
-      <c r="B38" s="171" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="86">
-        <v>43023</v>
-      </c>
-      <c r="F38" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="114" t="s">
-        <v>233</v>
-      </c>
-      <c r="J38" s="128"/>
-    </row>
-    <row r="39" spans="2:10" ht="30" customHeight="1">
+      <c r="J38" s="131"/>
+    </row>
+    <row r="39" spans="2:10" ht="45">
       <c r="B39" s="183" t="s">
         <v>37</v>
       </c>
@@ -7986,107 +8145,107 @@
         <v>164</v>
       </c>
       <c r="D39" s="184" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E39" s="89">
-        <v>42996</v>
+        <v>43047</v>
       </c>
       <c r="F39" s="101" t="s">
         <v>107</v>
       </c>
       <c r="G39" s="191" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="131"/>
+    </row>
+    <row r="40" spans="2:10" ht="30">
+      <c r="B40" s="171" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="86">
+        <v>43023</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="J40" s="128"/>
+    </row>
+    <row r="41" spans="2:10" ht="30" customHeight="1">
+      <c r="B41" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="184" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="89">
+        <v>42996</v>
+      </c>
+      <c r="F41" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="191" t="s">
         <v>213</v>
       </c>
-      <c r="H39" s="118" t="s">
+      <c r="H41" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="I39" s="118" t="s">
+      <c r="I41" s="118" t="s">
         <v>221</v>
       </c>
-      <c r="J39" s="131"/>
-    </row>
-    <row r="40" spans="2:10" ht="45">
-      <c r="B40" s="50" t="s">
+      <c r="J41" s="131"/>
+    </row>
+    <row r="42" spans="2:10" ht="45">
+      <c r="B42" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C42" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="184" t="s">
+      <c r="D42" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="89">
+      <c r="E42" s="89">
         <v>42898</v>
       </c>
-      <c r="F40" s="101" t="s">
+      <c r="F42" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="186" t="s">
+      <c r="G42" s="186" t="s">
         <v>203</v>
       </c>
-      <c r="H40" s="118" t="s">
+      <c r="H42" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="I40" s="118" t="s">
+      <c r="I42" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="J40" s="206"/>
-    </row>
-    <row r="41" spans="2:10" ht="45">
-      <c r="B41" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="87">
-        <v>42885</v>
-      </c>
-      <c r="F41" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="J41" s="213"/>
-    </row>
-    <row r="42" spans="2:10" ht="45">
-      <c r="B42" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="12">
-        <v>42880</v>
-      </c>
-      <c r="F42" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="J42" s="254"/>
-    </row>
-    <row r="43" spans="2:10" ht="30">
+      <c r="J42" s="206"/>
+    </row>
+    <row r="43" spans="2:10" ht="45">
       <c r="B43" s="48" t="s">
         <v>37</v>
       </c>
@@ -8094,207 +8253,207 @@
         <v>5</v>
       </c>
       <c r="D43" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="87">
+        <v>42885</v>
+      </c>
+      <c r="F43" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="J43" s="213"/>
+    </row>
+    <row r="44" spans="2:10" ht="45">
+      <c r="B44" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="87">
+      <c r="D44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="12">
+        <v>42880</v>
+      </c>
+      <c r="F44" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="254"/>
+    </row>
+    <row r="45" spans="2:10" ht="30">
+      <c r="B45" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="87">
         <v>42853</v>
       </c>
-      <c r="F43" s="99" t="s">
+      <c r="F45" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="108" t="s">
+      <c r="G45" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="115" t="s">
+      <c r="H45" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="115" t="s">
+      <c r="I45" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="J43" s="213"/>
-    </row>
-    <row r="44" spans="2:10" ht="30">
-      <c r="B44" s="203" t="s">
+      <c r="J45" s="213"/>
+    </row>
+    <row r="46" spans="2:10" ht="30">
+      <c r="B46" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="189" t="s">
+      <c r="C46" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="167" t="s">
+      <c r="D46" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="197">
+      <c r="E46" s="197">
         <v>42853</v>
       </c>
-      <c r="F44" s="99" t="s">
+      <c r="F46" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="108" t="s">
+      <c r="G46" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="H44" s="169" t="s">
+      <c r="H46" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="I44" s="169" t="s">
+      <c r="I46" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="J44" s="209"/>
-    </row>
-    <row r="45" spans="2:10" ht="30">
-      <c r="B45" s="50" t="s">
+      <c r="J46" s="209"/>
+    </row>
+    <row r="47" spans="2:10" ht="30">
+      <c r="B47" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C47" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="147" t="s">
+      <c r="D47" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E47" s="89">
         <v>42839</v>
       </c>
-      <c r="F45" s="150" t="s">
+      <c r="F47" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="186" t="s">
+      <c r="G47" s="186" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="118" t="s">
+      <c r="H47" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="I45" s="118" t="s">
+      <c r="I47" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="J45" s="206"/>
-    </row>
-    <row r="46" spans="2:10" ht="31.5">
-      <c r="B46" s="214" t="s">
+      <c r="J47" s="206"/>
+    </row>
+    <row r="48" spans="2:10" ht="31.5">
+      <c r="B48" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="189" t="s">
+      <c r="C48" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="214"/>
-      <c r="E46" s="214">
+      <c r="D48" s="214"/>
+      <c r="E48" s="214">
         <v>42826</v>
       </c>
-      <c r="F46" s="214" t="s">
+      <c r="F48" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="214" t="s">
+      <c r="G48" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="H46" s="215" t="s">
+      <c r="H48" s="215" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="214"/>
-      <c r="J46" s="214"/>
-    </row>
-    <row r="47" spans="2:10" ht="30">
-      <c r="B47" s="49" t="s">
+      <c r="I48" s="214"/>
+      <c r="J48" s="214"/>
+    </row>
+    <row r="49" spans="2:10" ht="30">
+      <c r="B49" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C49" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="88">
+      <c r="D49" s="77"/>
+      <c r="E49" s="88">
         <v>42802</v>
       </c>
-      <c r="F47" s="98" t="s">
+      <c r="F49" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="77" t="s">
+      <c r="G49" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="H47" s="117" t="s">
+      <c r="H49" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="117" t="s">
+      <c r="I49" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="207"/>
-    </row>
-    <row r="48" spans="2:10" ht="30">
-      <c r="B48" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="77"/>
-      <c r="E48" s="88">
-        <v>42793</v>
-      </c>
-      <c r="F48" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" s="117" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="J48" s="207"/>
-    </row>
-    <row r="49" spans="2:10" ht="30">
-      <c r="B49" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="89">
-        <v>42769</v>
-      </c>
-      <c r="F49" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="152" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="156" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" s="206"/>
-    </row>
-    <row r="50" spans="2:10" ht="45">
+      <c r="J49" s="207"/>
+    </row>
+    <row r="50" spans="2:10" ht="30">
       <c r="B50" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="77" t="s">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D50" s="77"/>
       <c r="E50" s="88">
-        <v>42761</v>
+        <v>42793</v>
       </c>
       <c r="F50" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="109" t="s">
-        <v>106</v>
+      <c r="G50" s="77" t="s">
+        <v>139</v>
       </c>
       <c r="H50" s="117" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="I50" s="117" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="J50" s="207"/>
     </row>
-    <row r="51" spans="2:10" ht="45">
+    <row r="51" spans="2:10" ht="30">
       <c r="B51" s="50" t="s">
         <v>37</v>
       </c>
@@ -8302,22 +8461,22 @@
         <v>102</v>
       </c>
       <c r="D51" s="147" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E51" s="89">
-        <v>42761</v>
+        <v>42769</v>
       </c>
       <c r="F51" s="150" t="s">
         <v>107</v>
       </c>
       <c r="G51" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="156" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="H51" s="118" t="s">
+        <v>110</v>
       </c>
       <c r="I51" s="156" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J51" s="206"/>
     </row>
@@ -8326,54 +8485,56 @@
         <v>37</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D52" s="77" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E52" s="88">
-        <v>42750</v>
+        <v>42761</v>
       </c>
       <c r="F52" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="77" t="s">
-        <v>83</v>
+      <c r="G52" s="109" t="s">
+        <v>106</v>
       </c>
       <c r="H52" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="I52" s="117"/>
+        <v>101</v>
+      </c>
+      <c r="I52" s="117" t="s">
+        <v>193</v>
+      </c>
       <c r="J52" s="207"/>
     </row>
-    <row r="53" spans="2:10" ht="30" customHeight="1">
-      <c r="B53" s="49" t="s">
+    <row r="53" spans="2:10" ht="45">
+      <c r="B53" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="88">
-        <v>42750</v>
-      </c>
-      <c r="F53" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="J53" s="207"/>
-    </row>
-    <row r="54" spans="2:10" ht="30">
+      <c r="C53" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="147" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="89">
+        <v>42761</v>
+      </c>
+      <c r="F53" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="206"/>
+    </row>
+    <row r="54" spans="2:10" ht="45">
       <c r="B54" s="49" t="s">
         <v>37</v>
       </c>
@@ -8381,7 +8542,7 @@
         <v>81</v>
       </c>
       <c r="D54" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="88">
         <v>42750</v>
@@ -8389,178 +8550,180 @@
       <c r="F54" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G54" s="109" t="s">
+      <c r="G54" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H54" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="117"/>
+      <c r="J54" s="207"/>
+    </row>
+    <row r="55" spans="2:10" ht="30" customHeight="1">
+      <c r="B55" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="88">
+        <v>42750</v>
+      </c>
+      <c r="F55" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="J55" s="207"/>
+    </row>
+    <row r="56" spans="2:10" ht="30">
+      <c r="B56" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="88">
+        <v>42750</v>
+      </c>
+      <c r="F56" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="117" t="s">
+      <c r="H56" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="117" t="s">
+      <c r="I56" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="J54" s="207"/>
-    </row>
-    <row r="55" spans="2:10" ht="60">
-      <c r="B55" s="48" t="s">
+      <c r="J56" s="207"/>
+    </row>
+    <row r="57" spans="2:10" ht="60">
+      <c r="B57" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C57" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D57" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="87">
+      <c r="E57" s="87">
         <v>42745</v>
       </c>
-      <c r="F55" s="99" t="s">
+      <c r="F57" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="108" t="s">
+      <c r="G57" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="H55" s="115" t="s">
+      <c r="H57" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="I55" s="115"/>
-      <c r="J55" s="213"/>
-    </row>
-    <row r="56" spans="2:10" ht="45">
-      <c r="B56" s="50" t="s">
+      <c r="I57" s="115"/>
+      <c r="J57" s="213"/>
+    </row>
+    <row r="58" spans="2:10" ht="45">
+      <c r="B58" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C58" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="147" t="s">
+      <c r="D58" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="89">
+      <c r="E58" s="89">
         <v>42745</v>
       </c>
-      <c r="F56" s="150" t="s">
+      <c r="F58" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="G56" s="152" t="s">
+      <c r="G58" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="H56" s="156" t="s">
+      <c r="H58" s="156" t="s">
         <v>117</v>
       </c>
-      <c r="I56" s="156" t="s">
+      <c r="I58" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="J56" s="206"/>
-    </row>
-    <row r="57" spans="2:10" ht="30">
-      <c r="B57" s="49" t="s">
+      <c r="J58" s="206"/>
+    </row>
+    <row r="59" spans="2:10" ht="30">
+      <c r="B59" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C59" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="88">
+      <c r="D59" s="77"/>
+      <c r="E59" s="88">
         <v>42745</v>
       </c>
-      <c r="F57" s="98" t="s">
+      <c r="F59" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G57" s="77" t="s">
+      <c r="G59" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H59" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="I57" s="117"/>
-      <c r="J57" s="207"/>
-    </row>
-    <row r="58" spans="2:10" ht="60">
-      <c r="B58" s="203" t="s">
+      <c r="I59" s="117"/>
+      <c r="J59" s="207"/>
+    </row>
+    <row r="60" spans="2:10" ht="60">
+      <c r="B60" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="189" t="s">
+      <c r="C60" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="208" t="s">
+      <c r="D60" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="197">
+      <c r="E60" s="197">
         <v>42741</v>
       </c>
-      <c r="F58" s="99" t="s">
+      <c r="F60" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="216" t="s">
+      <c r="G60" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="217" t="s">
+      <c r="H60" s="217" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="217" t="s">
+      <c r="I60" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="J58" s="209"/>
-    </row>
-    <row r="59" spans="2:10" ht="60">
-      <c r="B59" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="147" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="89">
-        <v>42633</v>
-      </c>
-      <c r="F59" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="152"/>
-      <c r="H59" s="156" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="156" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="206"/>
-    </row>
-    <row r="60" spans="2:10" ht="45">
-      <c r="B60" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="147" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="89">
-        <v>42633</v>
-      </c>
-      <c r="F60" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="152"/>
-      <c r="H60" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="206"/>
-    </row>
-    <row r="61" spans="2:10" ht="29.25" customHeight="1">
+      <c r="J60" s="209"/>
+    </row>
+    <row r="61" spans="2:10" ht="60">
       <c r="B61" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" s="147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E61" s="89">
         <v>42633</v>
@@ -8570,47 +8733,75 @@
       </c>
       <c r="G61" s="152"/>
       <c r="H61" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="156" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="206"/>
+    </row>
+    <row r="62" spans="2:10" ht="45">
+      <c r="B62" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="89">
+        <v>42633</v>
+      </c>
+      <c r="F62" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="152"/>
+      <c r="H62" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="206"/>
+    </row>
+    <row r="63" spans="2:10" ht="29.25" customHeight="1">
+      <c r="B63" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="89">
+        <v>42633</v>
+      </c>
+      <c r="F63" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="152"/>
+      <c r="H63" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="156" t="s">
+      <c r="I63" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="206"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="43"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="218"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="204"/>
-      <c r="C63" s="204"/>
-      <c r="D63" s="204"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
-      <c r="G63" s="204"/>
-      <c r="H63" s="204"/>
-      <c r="I63" s="204"/>
-      <c r="J63" s="204"/>
+      <c r="J63" s="206"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
-      <c r="G64" s="204"/>
-      <c r="H64" s="204"/>
-      <c r="I64" s="204"/>
-      <c r="J64" s="204"/>
-    </row>
-    <row r="65" spans="2:10" ht="30" customHeight="1">
+      <c r="B64" s="43"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="218"/>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="204"/>
       <c r="C65" s="204"/>
       <c r="D65" s="204"/>
@@ -8632,7 +8823,7 @@
       <c r="I66" s="204"/>
       <c r="J66" s="204"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" ht="30" customHeight="1">
       <c r="B67" s="204"/>
       <c r="C67" s="204"/>
       <c r="D67" s="204"/>
@@ -8654,8 +8845,30 @@
       <c r="I68" s="204"/>
       <c r="J68" s="204"/>
     </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="204"/>
+      <c r="C69" s="204"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="204"/>
+      <c r="F69" s="204"/>
+      <c r="G69" s="204"/>
+      <c r="H69" s="204"/>
+      <c r="I69" s="204"/>
+      <c r="J69" s="204"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="204"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
+      <c r="F70" s="204"/>
+      <c r="G70" s="204"/>
+      <c r="H70" s="204"/>
+      <c r="I70" s="204"/>
+      <c r="J70" s="204"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:J68">
+  <autoFilter ref="B2:J70">
     <sortState ref="B3:J66">
       <sortCondition descending="1" ref="E2:E66"/>
     </sortState>
